--- a/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t>Subject</t>
   </si>
@@ -37,6 +37,225 @@
   </si>
   <si>
     <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>Healthy_Cohort</t>
+  </si>
+  <si>
+    <t>20210218_FullHealthyCohort</t>
+  </si>
+  <si>
+    <t>Gas_Frequency</t>
+  </si>
+  <si>
+    <t>Barrier_Frequency</t>
+  </si>
+  <si>
+    <t>RBC_Frequency</t>
+  </si>
+  <si>
+    <t>Gas_T2star</t>
+  </si>
+  <si>
+    <t>Barrier_T2star</t>
+  </si>
+  <si>
+    <t>Barrier_LtoG_ratio</t>
+  </si>
+  <si>
+    <t>RBC_T2star</t>
+  </si>
+  <si>
+    <t>Gas_Phase</t>
+  </si>
+  <si>
+    <t>Barrier_Phase</t>
+  </si>
+  <si>
+    <t>RBC_Phase</t>
+  </si>
+  <si>
+    <t>RBC_Barrier_Ratio</t>
+  </si>
+  <si>
+    <t>Gas_Contamination</t>
+  </si>
+  <si>
+    <t>Dixon_Phase_Shift</t>
+  </si>
+  <si>
+    <t>Ventilation_SNR</t>
+  </si>
+  <si>
+    <t>Gas_SNR</t>
+  </si>
+  <si>
+    <t>Dissolved_SNR</t>
+  </si>
+  <si>
+    <t>Barrier_SNR</t>
+  </si>
+  <si>
+    <t>RBC_SNR</t>
+  </si>
+  <si>
+    <t>Ventilation_Mean</t>
+  </si>
+  <si>
+    <t>Ventilation_Std_Dev</t>
+  </si>
+  <si>
+    <t>Dissolved_Mean</t>
+  </si>
+  <si>
+    <t>Dissolved_Std_Dev</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Mean</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Std_Dev</t>
+  </si>
+  <si>
+    <t>RBC_Transfer_Mean</t>
+  </si>
+  <si>
+    <t>RBC_Transfer_Std_Dev</t>
+  </si>
+  <si>
+    <t>RBC2Barrier_Mean</t>
+  </si>
+  <si>
+    <t>RBC2Barrier_Std_Dev</t>
+  </si>
+  <si>
+    <t>Ventilation_Bin1_Percent</t>
+  </si>
+  <si>
+    <t>Ventilation_Bin2_Percent</t>
+  </si>
+  <si>
+    <t>Ventilation_Bin3_Percent</t>
+  </si>
+  <si>
+    <t>Ventilation_Bin4_Percent</t>
+  </si>
+  <si>
+    <t>Ventilation_Bin5_Percent</t>
+  </si>
+  <si>
+    <t>Ventilation_Bin6_Percent</t>
+  </si>
+  <si>
+    <t>Dissolved_Bin1_Percent</t>
+  </si>
+  <si>
+    <t>Dissolved_Bin2_Percent</t>
+  </si>
+  <si>
+    <t>Dissolved_Bin3_Percent</t>
+  </si>
+  <si>
+    <t>Dissolved_Bin4_Percent</t>
+  </si>
+  <si>
+    <t>Dissolved_Bin5_Percent</t>
+  </si>
+  <si>
+    <t>Dissolved_Bin6_Percent</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Bin1_Percent</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Bin2_Percent</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Bin3_Percent</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Bin4_Percent</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Bin5_Percent</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Bin6_Percent</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Bin7_Percent</t>
+  </si>
+  <si>
+    <t>Barrier_Uptake_Bin8_Percent</t>
+  </si>
+  <si>
+    <t>RBC_Transfer_Bin1_Percent</t>
+  </si>
+  <si>
+    <t>RBC_Transfer_Bin2_Percent</t>
+  </si>
+  <si>
+    <t>RBC_Transfer_Bin3_Percent</t>
+  </si>
+  <si>
+    <t>RBC_Transfer_Bin4_Percent</t>
+  </si>
+  <si>
+    <t>RBC_Transfer_Bin5_Percent</t>
+  </si>
+  <si>
+    <t>RBC_Transfer_Bin6_Percent</t>
+  </si>
+  <si>
+    <t>RBC2Barrier_Bin1_Percent</t>
+  </si>
+  <si>
+    <t>RBC2Barrier_Bin2_Percent</t>
+  </si>
+  <si>
+    <t>RBC2Barrier_Bin3_Percent</t>
+  </si>
+  <si>
+    <t>RBC2Barrier_Bin4_Percent</t>
+  </si>
+  <si>
+    <t>RBC2Barrier_Bin5_Percent</t>
+  </si>
+  <si>
+    <t>RBC2Barrier_Bin6_Percent</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Xe-024</t>
+  </si>
+  <si>
+    <t>Xe-020</t>
+  </si>
+  <si>
+    <t>Scan_Date</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>TE90</t>
+  </si>
+  <si>
+    <t>Flip_Angle</t>
+  </si>
+  <si>
+    <t>Process_Date</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
   </si>
   <si>
     <t>Healthy_Cohort</t>
@@ -243,7 +462,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -253,14 +472,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,33 +491,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN2"/>
+  <dimension ref="A1:BN3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
-    <col min="2" max="2" width="10.28515625" customWidth="true"/>
+    <col min="2" max="2" width="10.5703125" customWidth="true"/>
     <col min="3" max="3" width="5.140625" customWidth="true"/>
     <col min="4" max="4" width="10.5703125" customWidth="true"/>
     <col min="5" max="5" width="13" customWidth="true"/>
-    <col min="6" max="6" width="15" customWidth="true"/>
+    <col min="6" max="6" width="26.28515625" customWidth="true"/>
     <col min="7" max="7" width="14.5703125" customWidth="true"/>
     <col min="8" max="8" width="17.42578125" customWidth="true"/>
     <col min="9" max="9" width="14.85546875" customWidth="true"/>
-    <col min="10" max="10" width="10.5703125" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="13.42578125" customWidth="true"/>
     <col min="12" max="12" width="17.28515625" customWidth="true"/>
-    <col min="13" max="13" width="10.85546875" customWidth="true"/>
-    <col min="14" max="14" width="10.5703125" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.42578125" customWidth="true"/>
     <col min="15" max="15" width="13.42578125" customWidth="true"/>
-    <col min="16" max="16" width="10.85546875" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="17.140625" customWidth="true"/>
     <col min="18" max="18" width="18.42578125" customWidth="true"/>
     <col min="19" max="19" width="17.7109375" customWidth="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true"/>
-    <col min="21" max="21" width="8.85546875" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="14.28515625" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="9.140625" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="17.140625" customWidth="true"/>
     <col min="26" max="26" width="19.42578125" customWidth="true"/>
     <col min="27" max="27" width="15.7109375" customWidth="true"/>
@@ -343,402 +564,602 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+        <v>74</v>
+      </c>
+      <c r="C2" s="0">
         <v>0.45000000000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>14.6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+        <v>82</v>
+      </c>
+      <c r="G2" s="0">
         <v>-7404.8168495507389</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>-676.06295798337976</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>19.839965161695176</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>8.4778950020438568</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>1.6343103789497482</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>1.0160384881866751</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="0">
         <v>1.202070435134841</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="0">
         <v>-1.3551241806464991</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0">
         <v>83.698222818808574</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="0">
         <v>173.51425092476322</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="0">
         <v>0.45564516799623056</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="0">
         <v>1.9039582735829244</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="0">
         <v>60.144245517376163</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="0">
         <v>38.047928072998737</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="0">
         <v>83.899802160220005</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="0">
         <v>47.870544934888045</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="0">
         <v>29.886688947824446</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="0">
         <v>13.948522512766598</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="0">
         <v>0.51826332443391454</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="0">
         <v>0.19509785555195366</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="0">
         <v>0.8192096256583139</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="0">
         <v>0.16673385688213496</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="0">
         <v>0.71946738912806274</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="0">
         <v>0.15803349662667318</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="0">
         <v>0.36149409761978657</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="0">
         <v>0.13614474898312848</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="0">
         <v>0.51725386056609235</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>0.21079016916715887</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="0">
         <v>1.3099721630915342</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="0">
         <v>6.3288030129359756</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="0">
         <v>20.754871458981498</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="0">
         <v>42.222040281644013</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="0">
         <v>25.356148681840512</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="0">
         <v>4.0281644015064675</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="0">
         <v>0.92915214866434381</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="0">
         <v>15.637962502074002</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="0">
         <v>50.199104031856642</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="0">
         <v>31.707317073170731</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="0">
         <v>1.4186162269785962</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="0">
         <v>0.10784801725568277</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="0">
         <v>0.21569603451136554</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="0">
         <v>12.369337979094077</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="0">
         <v>46.449311431889825</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="0">
         <v>38.053758088601292</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="0">
         <v>2.7044964327194294</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="0">
         <v>0.19080803052928488</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="0">
         <v>0</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="0">
         <v>0.016592002654720425</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="0">
         <v>1.4186162269785962</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="0">
         <v>12.86709805873569</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="0">
         <v>53.177368508378962</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="0">
         <v>31.433549029367846</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="0">
         <v>1.0287041645926662</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="0">
         <v>0.074664011946241921</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="0">
         <v>1.3439522150323544</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="0">
         <v>8.9596814335490294</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="0">
         <v>46.938775510204081</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="0">
         <v>40.584038493446158</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="0">
         <v>2.1237763398042144</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="0">
         <v>0.049776007964161276</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>14.6</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="0">
+        <v>-7399.5508136481785</v>
+      </c>
+      <c r="H3" s="0">
+        <v>-663.50499056099898</v>
+      </c>
+      <c r="I3" s="0">
+        <v>-2.37681536188565</v>
+      </c>
+      <c r="J3" s="0">
+        <v>10.587963723713139</v>
+      </c>
+      <c r="K3" s="0">
+        <v>1.6487240815240689</v>
+      </c>
+      <c r="L3" s="0">
+        <v>1.0034857799787291</v>
+      </c>
+      <c r="M3" s="0">
+        <v>1.2789145352643261</v>
+      </c>
+      <c r="N3" s="0">
+        <v>-0.16182632727921875</v>
+      </c>
+      <c r="O3" s="0">
+        <v>82.920941786685361</v>
+      </c>
+      <c r="P3" s="0">
+        <v>170.70285579709673</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.29769310194742193</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.10473203887072051</v>
+      </c>
+      <c r="S3" s="0">
+        <v>104.38056844404132</v>
+      </c>
+      <c r="T3" s="0">
+        <v>36.276401676210433</v>
+      </c>
+      <c r="U3" s="0">
+        <v>81.641605811590068</v>
+      </c>
+      <c r="V3" s="0">
+        <v>42.009497632182587</v>
+      </c>
+      <c r="W3" s="0">
+        <v>28.307730429635022</v>
+      </c>
+      <c r="X3" s="0">
+        <v>8.1916895107065102</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.4308943443532387</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.23045464703951873</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.68146062543641017</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.17918253143404514</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.63692791229671353</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.16557923795379881</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.20586513772977383</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.12135941831562774</v>
+      </c>
+      <c r="AG3" s="0">
+        <v>0.33389084781247574</v>
+      </c>
+      <c r="AH3" s="0">
+        <v>0.17964083758251878</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>8.9372280919825986</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>11.870727159726538</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>25.456805469235551</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>33.312616532007461</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>16.768178993163456</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>3.6544437538844003</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>4.2042042042042045</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>40.090090090090094</v>
+      </c>
+      <c r="AQ3" s="0">
+        <v>48.55309855309855</v>
+      </c>
+      <c r="AR3" s="0">
+        <v>6.6748566748566747</v>
+      </c>
+      <c r="AS3" s="0">
+        <v>0.4095004095004095</v>
+      </c>
+      <c r="AT3" s="0">
+        <v>0.068250068250068255</v>
+      </c>
+      <c r="AU3" s="0">
+        <v>1.0237510237510237</v>
+      </c>
+      <c r="AV3" s="0">
+        <v>21.198471198471196</v>
+      </c>
+      <c r="AW3" s="0">
+        <v>62.052962052962059</v>
+      </c>
+      <c r="AX3" s="0">
+        <v>14.196014196014195</v>
+      </c>
+      <c r="AY3" s="0">
+        <v>1.4332514332514332</v>
+      </c>
+      <c r="AZ3" s="0">
+        <v>0.040950040950040956</v>
+      </c>
+      <c r="BA3" s="0">
+        <v>0.013650013650013651</v>
+      </c>
+      <c r="BB3" s="0">
+        <v>0.040950040950040956</v>
+      </c>
+      <c r="BC3" s="0">
+        <v>10.455910455910455</v>
+      </c>
+      <c r="BD3" s="0">
+        <v>45.140595140595138</v>
+      </c>
+      <c r="BE3" s="0">
+        <v>41.632541632541631</v>
+      </c>
+      <c r="BF3" s="0">
+        <v>2.6890526890526889</v>
+      </c>
+      <c r="BG3" s="0">
+        <v>0.040950040950040956</v>
+      </c>
+      <c r="BH3" s="0">
+        <v>0.040950040950040956</v>
+      </c>
+      <c r="BI3" s="0">
+        <v>10.346710346710347</v>
+      </c>
+      <c r="BJ3" s="0">
+        <v>25.716625716625718</v>
+      </c>
+      <c r="BK3" s="0">
+        <v>54.818454818454818</v>
+      </c>
+      <c r="BL3" s="0">
+        <v>8.5858585858585847</v>
+      </c>
+      <c r="BM3" s="0">
+        <v>0.49140049140049141</v>
+      </c>
+      <c r="BN3" s="0">
+        <v>0.040950040950040956</v>
       </c>
     </row>
   </sheetData>

--- a/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="146">
   <si>
     <t>Subject</t>
   </si>
@@ -442,6 +442,15 @@
   </si>
   <si>
     <t>RBC2Barrier_Bin6_Percent</t>
+  </si>
+  <si>
+    <t>Xe-027</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
   </si>
 </sst>
 </file>
@@ -462,7 +471,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -473,15 +482,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN3"/>
+  <dimension ref="A1:BN4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -507,7 +520,7 @@
     <col min="11" max="11" width="13.42578125" customWidth="true"/>
     <col min="12" max="12" width="17.28515625" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="12.42578125" customWidth="true"/>
+    <col min="14" max="14" width="13.42578125" customWidth="true"/>
     <col min="15" max="15" width="13.42578125" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="17.140625" customWidth="true"/>
@@ -563,603 +576,803 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>0.45000000000000001</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>14.6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-7404.8168495507389</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-676.06295798337976</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>19.839965161695176</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>8.4778950020438568</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2">
         <v>1.6343103789497482</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>1.0160384881866751</v>
       </c>
-      <c r="M2" s="0">
+      <c r="M2">
         <v>1.202070435134841</v>
       </c>
-      <c r="N2" s="0">
+      <c r="N2">
         <v>-1.3551241806464991</v>
       </c>
-      <c r="O2" s="0">
+      <c r="O2">
         <v>83.698222818808574</v>
       </c>
-      <c r="P2" s="0">
+      <c r="P2">
         <v>173.51425092476322</v>
       </c>
-      <c r="Q2" s="0">
+      <c r="Q2">
         <v>0.45564516799623056</v>
       </c>
-      <c r="R2" s="0">
+      <c r="R2">
         <v>1.9039582735829244</v>
       </c>
-      <c r="S2" s="0">
+      <c r="S2">
         <v>60.144245517376163</v>
       </c>
-      <c r="T2" s="0">
+      <c r="T2">
         <v>38.047928072998737</v>
       </c>
-      <c r="U2" s="0">
+      <c r="U2">
         <v>83.899802160220005</v>
       </c>
-      <c r="V2" s="0">
+      <c r="V2">
         <v>47.870544934888045</v>
       </c>
-      <c r="W2" s="0">
+      <c r="W2">
         <v>29.886688947824446</v>
       </c>
-      <c r="X2" s="0">
+      <c r="X2">
         <v>13.948522512766598</v>
       </c>
-      <c r="Y2" s="0">
+      <c r="Y2">
         <v>0.51826332443391454</v>
       </c>
-      <c r="Z2" s="0">
+      <c r="Z2">
         <v>0.19509785555195366</v>
       </c>
-      <c r="AA2" s="0">
+      <c r="AA2">
         <v>0.8192096256583139</v>
       </c>
-      <c r="AB2" s="0">
+      <c r="AB2">
         <v>0.16673385688213496</v>
       </c>
-      <c r="AC2" s="0">
+      <c r="AC2">
         <v>0.71946738912806274</v>
       </c>
-      <c r="AD2" s="0">
+      <c r="AD2">
         <v>0.15803349662667318</v>
       </c>
-      <c r="AE2" s="0">
+      <c r="AE2">
         <v>0.36149409761978657</v>
       </c>
-      <c r="AF2" s="0">
+      <c r="AF2">
         <v>0.13614474898312848</v>
       </c>
-      <c r="AG2" s="0">
+      <c r="AG2">
         <v>0.51725386056609235</v>
       </c>
-      <c r="AH2" s="0">
+      <c r="AH2">
         <v>0.21079016916715887</v>
       </c>
-      <c r="AI2" s="0">
+      <c r="AI2">
         <v>1.3099721630915342</v>
       </c>
-      <c r="AJ2" s="0">
+      <c r="AJ2">
         <v>6.3288030129359756</v>
       </c>
-      <c r="AK2" s="0">
+      <c r="AK2">
         <v>20.754871458981498</v>
       </c>
-      <c r="AL2" s="0">
+      <c r="AL2">
         <v>42.222040281644013</v>
       </c>
-      <c r="AM2" s="0">
+      <c r="AM2">
         <v>25.356148681840512</v>
       </c>
-      <c r="AN2" s="0">
+      <c r="AN2">
         <v>4.0281644015064675</v>
       </c>
-      <c r="AO2" s="0">
+      <c r="AO2">
         <v>0.92915214866434381</v>
       </c>
-      <c r="AP2" s="0">
+      <c r="AP2">
         <v>15.637962502074002</v>
       </c>
-      <c r="AQ2" s="0">
+      <c r="AQ2">
         <v>50.199104031856642</v>
       </c>
-      <c r="AR2" s="0">
+      <c r="AR2">
         <v>31.707317073170731</v>
       </c>
-      <c r="AS2" s="0">
+      <c r="AS2">
         <v>1.4186162269785962</v>
       </c>
-      <c r="AT2" s="0">
+      <c r="AT2">
         <v>0.10784801725568277</v>
       </c>
-      <c r="AU2" s="0">
+      <c r="AU2">
         <v>0.21569603451136554</v>
       </c>
-      <c r="AV2" s="0">
+      <c r="AV2">
         <v>12.369337979094077</v>
       </c>
-      <c r="AW2" s="0">
+      <c r="AW2">
         <v>46.449311431889825</v>
       </c>
-      <c r="AX2" s="0">
+      <c r="AX2">
         <v>38.053758088601292</v>
       </c>
-      <c r="AY2" s="0">
+      <c r="AY2">
         <v>2.7044964327194294</v>
       </c>
-      <c r="AZ2" s="0">
+      <c r="AZ2">
         <v>0.19080803052928488</v>
       </c>
-      <c r="BA2" s="0">
+      <c r="BA2">
         <v>0</v>
       </c>
-      <c r="BB2" s="0">
+      <c r="BB2">
         <v>0.016592002654720425</v>
       </c>
-      <c r="BC2" s="0">
+      <c r="BC2">
         <v>1.4186162269785962</v>
       </c>
-      <c r="BD2" s="0">
+      <c r="BD2">
         <v>12.86709805873569</v>
       </c>
-      <c r="BE2" s="0">
+      <c r="BE2">
         <v>53.177368508378962</v>
       </c>
-      <c r="BF2" s="0">
+      <c r="BF2">
         <v>31.433549029367846</v>
       </c>
-      <c r="BG2" s="0">
+      <c r="BG2">
         <v>1.0287041645926662</v>
       </c>
-      <c r="BH2" s="0">
+      <c r="BH2">
         <v>0.074664011946241921</v>
       </c>
-      <c r="BI2" s="0">
+      <c r="BI2">
         <v>1.3439522150323544</v>
       </c>
-      <c r="BJ2" s="0">
+      <c r="BJ2">
         <v>8.9596814335490294</v>
       </c>
-      <c r="BK2" s="0">
+      <c r="BK2">
         <v>46.938775510204081</v>
       </c>
-      <c r="BL2" s="0">
+      <c r="BL2">
         <v>40.584038493446158</v>
       </c>
-      <c r="BM2" s="0">
+      <c r="BM2">
         <v>2.1237763398042144</v>
       </c>
-      <c r="BN2" s="0">
+      <c r="BN2">
         <v>0.049776007964161276</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>0.46000000000000002</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>14.6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>-7399.5508136481785</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-663.50499056099898</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>-2.37681536188565</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>10.587963723713139</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>1.6487240815240689</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>1.0034857799787291</v>
       </c>
-      <c r="M3" s="0">
+      <c r="M3">
         <v>1.2789145352643261</v>
       </c>
-      <c r="N3" s="0">
+      <c r="N3">
         <v>-0.16182632727921875</v>
       </c>
-      <c r="O3" s="0">
+      <c r="O3">
         <v>82.920941786685361</v>
       </c>
-      <c r="P3" s="0">
+      <c r="P3">
         <v>170.70285579709673</v>
       </c>
-      <c r="Q3" s="0">
+      <c r="Q3">
         <v>0.29769310194742193</v>
       </c>
-      <c r="R3" s="0">
+      <c r="R3">
         <v>0.10473203887072051</v>
       </c>
-      <c r="S3" s="0">
+      <c r="S3">
         <v>104.38056844404132</v>
       </c>
-      <c r="T3" s="0">
+      <c r="T3">
         <v>36.276401676210433</v>
       </c>
-      <c r="U3" s="0">
+      <c r="U3">
         <v>81.641605811590068</v>
       </c>
-      <c r="V3" s="0">
+      <c r="V3">
         <v>42.009497632182587</v>
       </c>
-      <c r="W3" s="0">
+      <c r="W3">
         <v>28.307730429635022</v>
       </c>
-      <c r="X3" s="0">
+      <c r="X3">
         <v>8.1916895107065102</v>
       </c>
-      <c r="Y3" s="0">
+      <c r="Y3">
         <v>0.4308943443532387</v>
       </c>
-      <c r="Z3" s="0">
+      <c r="Z3">
         <v>0.23045464703951873</v>
       </c>
-      <c r="AA3" s="0">
+      <c r="AA3">
         <v>0.68146062543641017</v>
       </c>
-      <c r="AB3" s="0">
+      <c r="AB3">
         <v>0.17918253143404514</v>
       </c>
-      <c r="AC3" s="0">
+      <c r="AC3">
         <v>0.63692791229671353</v>
       </c>
-      <c r="AD3" s="0">
+      <c r="AD3">
         <v>0.16557923795379881</v>
       </c>
-      <c r="AE3" s="0">
+      <c r="AE3">
         <v>0.20586513772977383</v>
       </c>
-      <c r="AF3" s="0">
+      <c r="AF3">
         <v>0.12135941831562774</v>
       </c>
-      <c r="AG3" s="0">
+      <c r="AG3">
         <v>0.33389084781247574</v>
       </c>
-      <c r="AH3" s="0">
+      <c r="AH3">
         <v>0.17964083758251878</v>
       </c>
-      <c r="AI3" s="0">
+      <c r="AI3">
         <v>8.9372280919825986</v>
       </c>
-      <c r="AJ3" s="0">
+      <c r="AJ3">
         <v>11.870727159726538</v>
       </c>
-      <c r="AK3" s="0">
+      <c r="AK3">
         <v>25.456805469235551</v>
       </c>
-      <c r="AL3" s="0">
+      <c r="AL3">
         <v>33.312616532007461</v>
       </c>
-      <c r="AM3" s="0">
+      <c r="AM3">
         <v>16.768178993163456</v>
       </c>
-      <c r="AN3" s="0">
+      <c r="AN3">
         <v>3.6544437538844003</v>
       </c>
-      <c r="AO3" s="0">
+      <c r="AO3">
         <v>4.2042042042042045</v>
       </c>
-      <c r="AP3" s="0">
+      <c r="AP3">
         <v>40.090090090090094</v>
       </c>
-      <c r="AQ3" s="0">
+      <c r="AQ3">
         <v>48.55309855309855</v>
       </c>
-      <c r="AR3" s="0">
+      <c r="AR3">
         <v>6.6748566748566747</v>
       </c>
-      <c r="AS3" s="0">
+      <c r="AS3">
         <v>0.4095004095004095</v>
       </c>
-      <c r="AT3" s="0">
+      <c r="AT3">
         <v>0.068250068250068255</v>
       </c>
-      <c r="AU3" s="0">
+      <c r="AU3">
         <v>1.0237510237510237</v>
       </c>
-      <c r="AV3" s="0">
+      <c r="AV3">
         <v>21.198471198471196</v>
       </c>
-      <c r="AW3" s="0">
+      <c r="AW3">
         <v>62.052962052962059</v>
       </c>
-      <c r="AX3" s="0">
+      <c r="AX3">
         <v>14.196014196014195</v>
       </c>
-      <c r="AY3" s="0">
+      <c r="AY3">
         <v>1.4332514332514332</v>
       </c>
-      <c r="AZ3" s="0">
+      <c r="AZ3">
         <v>0.040950040950040956</v>
       </c>
-      <c r="BA3" s="0">
+      <c r="BA3">
         <v>0.013650013650013651</v>
       </c>
-      <c r="BB3" s="0">
+      <c r="BB3">
         <v>0.040950040950040956</v>
       </c>
-      <c r="BC3" s="0">
+      <c r="BC3">
         <v>10.455910455910455</v>
       </c>
-      <c r="BD3" s="0">
+      <c r="BD3">
         <v>45.140595140595138</v>
       </c>
-      <c r="BE3" s="0">
+      <c r="BE3">
         <v>41.632541632541631</v>
       </c>
-      <c r="BF3" s="0">
+      <c r="BF3">
         <v>2.6890526890526889</v>
       </c>
-      <c r="BG3" s="0">
+      <c r="BG3">
         <v>0.040950040950040956</v>
       </c>
-      <c r="BH3" s="0">
+      <c r="BH3">
         <v>0.040950040950040956</v>
       </c>
-      <c r="BI3" s="0">
+      <c r="BI3">
         <v>10.346710346710347</v>
       </c>
-      <c r="BJ3" s="0">
+      <c r="BJ3">
         <v>25.716625716625718</v>
       </c>
-      <c r="BK3" s="0">
+      <c r="BK3">
         <v>54.818454818454818</v>
       </c>
-      <c r="BL3" s="0">
+      <c r="BL3">
         <v>8.5858585858585847</v>
       </c>
-      <c r="BM3" s="0">
+      <c r="BM3">
         <v>0.49140049140049141</v>
       </c>
-      <c r="BN3" s="0">
+      <c r="BN3">
         <v>0.040950040950040956</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4">
+        <v>0.48999999999999999</v>
+      </c>
+      <c r="D4">
+        <v>14.6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>-7413.9811910168964</v>
+      </c>
+      <c r="H4">
+        <v>-689.43170543902431</v>
+      </c>
+      <c r="I4">
+        <v>-25.454164450874018</v>
+      </c>
+      <c r="J4">
+        <v>4.8465931880155049</v>
+      </c>
+      <c r="K4">
+        <v>1.8667538048374819</v>
+      </c>
+      <c r="L4">
+        <v>1.032168969005067</v>
+      </c>
+      <c r="M4">
+        <v>1.3051358490613953</v>
+      </c>
+      <c r="N4">
+        <v>44.006803347171505</v>
+      </c>
+      <c r="O4">
+        <v>127.74624472800639</v>
+      </c>
+      <c r="P4">
+        <v>-130.68774753365457</v>
+      </c>
+      <c r="Q4">
+        <v>0.18002287079070675</v>
+      </c>
+      <c r="R4">
+        <v>3.0608304120380736</v>
+      </c>
+      <c r="S4">
+        <v>-32.614180595611344</v>
+      </c>
+      <c r="T4">
+        <v>28.041764156589107</v>
+      </c>
+      <c r="U4">
+        <v>63.917381532831357</v>
+      </c>
+      <c r="V4">
+        <v>46.672422502726917</v>
+      </c>
+      <c r="W4">
+        <v>32.800261948597289</v>
+      </c>
+      <c r="X4">
+        <v>5.2615345141325749</v>
+      </c>
+      <c r="Y4">
+        <v>0.32359462225804059</v>
+      </c>
+      <c r="Z4">
+        <v>0.22449877494338671</v>
+      </c>
+      <c r="AA4">
+        <v>0.80222847647790108</v>
+      </c>
+      <c r="AB4">
+        <v>0.19857102917410679</v>
+      </c>
+      <c r="AC4">
+        <v>0.77629811899367118</v>
+      </c>
+      <c r="AD4">
+        <v>0.19542806052750766</v>
+      </c>
+      <c r="AE4">
+        <v>0.14966051671901401</v>
+      </c>
+      <c r="AF4">
+        <v>0.095453613439439616</v>
+      </c>
+      <c r="AG4">
+        <v>0.20086434923734769</v>
+      </c>
+      <c r="AH4">
+        <v>0.12735989008503998</v>
+      </c>
+      <c r="AI4">
+        <v>15.906210392902409</v>
+      </c>
+      <c r="AJ4">
+        <v>22.042670046472328</v>
+      </c>
+      <c r="AK4">
+        <v>32.213772708069285</v>
+      </c>
+      <c r="AL4">
+        <v>19.254330376003377</v>
+      </c>
+      <c r="AM4">
+        <v>7.6573722010984362</v>
+      </c>
+      <c r="AN4">
+        <v>2.9256442754541614</v>
+      </c>
+      <c r="AO4">
+        <v>1.4066817382567194</v>
+      </c>
+      <c r="AP4">
+        <v>22.117558402411454</v>
+      </c>
+      <c r="AQ4">
+        <v>46.558653604621952</v>
+      </c>
+      <c r="AR4">
+        <v>26.161768399899522</v>
+      </c>
+      <c r="AS4">
+        <v>3.6799799045465966</v>
+      </c>
+      <c r="AT4">
+        <v>0.075357950263752832</v>
+      </c>
+      <c r="AU4">
+        <v>0.18839487565938207</v>
+      </c>
+      <c r="AV4">
+        <v>8.6159256468224061</v>
+      </c>
+      <c r="AW4">
+        <v>43.255463451394121</v>
+      </c>
+      <c r="AX4">
+        <v>36.171816126601357</v>
+      </c>
+      <c r="AY4">
+        <v>10.826425521225822</v>
+      </c>
+      <c r="AZ4">
+        <v>0.9294147199196181</v>
+      </c>
+      <c r="BA4">
+        <v>0.012559658377292136</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>24.215021351419242</v>
+      </c>
+      <c r="BD4">
+        <v>54.596834966088927</v>
+      </c>
+      <c r="BE4">
+        <v>19.881939211253457</v>
+      </c>
+      <c r="BF4">
+        <v>1.2434061793519218</v>
+      </c>
+      <c r="BG4">
+        <v>0.062798291886460689</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>29.125847776940468</v>
+      </c>
+      <c r="BJ4">
+        <v>45.541321276061289</v>
+      </c>
+      <c r="BK4">
+        <v>24.101984426023613</v>
+      </c>
+      <c r="BL4">
+        <v>1.1429289123335846</v>
+      </c>
+      <c r="BM4">
+        <v>0.087917608641044961</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="147">
   <si>
     <t>Subject</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-19</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -484,17 +487,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN4"/>
+  <dimension ref="A1:BN6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -522,7 +533,7 @@
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="13.42578125" customWidth="true"/>
     <col min="15" max="15" width="13.42578125" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.42578125" customWidth="true"/>
     <col min="17" max="17" width="17.140625" customWidth="true"/>
     <col min="18" max="18" width="18.42578125" customWidth="true"/>
     <col min="19" max="19" width="17.7109375" customWidth="true"/>
@@ -576,210 +587,210 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C2">
@@ -788,10 +799,10 @@
       <c r="D2">
         <v>14.6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="G2">
@@ -976,10 +987,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C3">
@@ -988,10 +999,10 @@
       <c r="D3">
         <v>14.6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>82</v>
       </c>
       <c r="G3">
@@ -1176,10 +1187,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C4">
@@ -1188,10 +1199,10 @@
       <c r="D4">
         <v>14.6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>82</v>
       </c>
       <c r="G4">
@@ -1373,6 +1384,406 @@
       </c>
       <c r="BN4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="D5">
+        <v>14.6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5">
+        <v>-7399.5510609391858</v>
+      </c>
+      <c r="H5">
+        <v>-663.52565132208792</v>
+      </c>
+      <c r="I5">
+        <v>-2.3745468730668358</v>
+      </c>
+      <c r="J5">
+        <v>10.587957922601987</v>
+      </c>
+      <c r="K5">
+        <v>1.6488518829155827</v>
+      </c>
+      <c r="L5">
+        <v>1.0034600165302596</v>
+      </c>
+      <c r="M5">
+        <v>1.2789117068403721</v>
+      </c>
+      <c r="N5">
+        <v>-0.16188560655732437</v>
+      </c>
+      <c r="O5">
+        <v>82.927229389685365</v>
+      </c>
+      <c r="P5">
+        <v>170.71287741585741</v>
+      </c>
+      <c r="Q5">
+        <v>0.29767026936348273</v>
+      </c>
+      <c r="R5">
+        <v>0.10475470466717995</v>
+      </c>
+      <c r="S5">
+        <v>105.28697933648426</v>
+      </c>
+      <c r="T5">
+        <v>36.639497232845422</v>
+      </c>
+      <c r="U5">
+        <v>83.009067352349163</v>
+      </c>
+      <c r="V5">
+        <v>42.014908816323285</v>
+      </c>
+      <c r="W5">
+        <v>28.283825254705842</v>
+      </c>
+      <c r="X5">
+        <v>8.1450858006302198</v>
+      </c>
+      <c r="Y5">
+        <v>0.42553056237505466</v>
+      </c>
+      <c r="Z5">
+        <v>0.23300773425490726</v>
+      </c>
+      <c r="AA5">
+        <v>0.68276174457409</v>
+      </c>
+      <c r="AB5">
+        <v>0.21774583292331645</v>
+      </c>
+      <c r="AC5">
+        <v>0.6377339981515634</v>
+      </c>
+      <c r="AD5">
+        <v>0.17700493332617426</v>
+      </c>
+      <c r="AE5">
+        <v>0.20570714326443451</v>
+      </c>
+      <c r="AF5">
+        <v>0.16870417576884322</v>
+      </c>
+      <c r="AG5">
+        <v>0.33176003454116748</v>
+      </c>
+      <c r="AH5">
+        <v>0.18317431032862019</v>
+      </c>
+      <c r="AI5">
+        <v>10.009671179883945</v>
+      </c>
+      <c r="AJ5">
+        <v>11.738394584139265</v>
+      </c>
+      <c r="AK5">
+        <v>25.386847195357831</v>
+      </c>
+      <c r="AL5">
+        <v>32.761121856866538</v>
+      </c>
+      <c r="AM5">
+        <v>16.477272727272727</v>
+      </c>
+      <c r="AN5">
+        <v>3.6266924564796903</v>
+      </c>
+      <c r="AO5">
+        <v>4.1644277270284791</v>
+      </c>
+      <c r="AP5">
+        <v>39.91133799032778</v>
+      </c>
+      <c r="AQ5">
+        <v>48.992477162815689</v>
+      </c>
+      <c r="AR5">
+        <v>6.4615797958087056</v>
+      </c>
+      <c r="AS5">
+        <v>0.38957549704459971</v>
+      </c>
+      <c r="AT5">
+        <v>0.080601826974744759</v>
+      </c>
+      <c r="AU5">
+        <v>0.99408919935518536</v>
+      </c>
+      <c r="AV5">
+        <v>21.010209564750134</v>
+      </c>
+      <c r="AW5">
+        <v>62.305212251477705</v>
+      </c>
+      <c r="AX5">
+        <v>14.212788823213327</v>
+      </c>
+      <c r="AY5">
+        <v>1.370231058570661</v>
+      </c>
+      <c r="AZ5">
+        <v>0.053734551316496508</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0.053734551316496508</v>
+      </c>
+      <c r="BC5">
+        <v>11.055883933369156</v>
+      </c>
+      <c r="BD5">
+        <v>45.09672219236969</v>
+      </c>
+      <c r="BE5">
+        <v>41.026329930145081</v>
+      </c>
+      <c r="BF5">
+        <v>2.7001612036539493</v>
+      </c>
+      <c r="BG5">
+        <v>0.06716818914562063</v>
+      </c>
+      <c r="BH5">
+        <v>0.053734551316496508</v>
+      </c>
+      <c r="BI5">
+        <v>11.069317571198281</v>
+      </c>
+      <c r="BJ5">
+        <v>25.819451907576575</v>
+      </c>
+      <c r="BK5">
+        <v>54.083825900053739</v>
+      </c>
+      <c r="BL5">
+        <v>8.4497581945190756</v>
+      </c>
+      <c r="BM5">
+        <v>0.53734551316496504</v>
+      </c>
+      <c r="BN5">
+        <v>0.040300913487372379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="D6">
+        <v>14.6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6">
+        <v>-7399.5510609391858</v>
+      </c>
+      <c r="H6">
+        <v>-663.52565132208792</v>
+      </c>
+      <c r="I6">
+        <v>-2.3745468730668358</v>
+      </c>
+      <c r="J6">
+        <v>10.587957922601987</v>
+      </c>
+      <c r="K6">
+        <v>1.6488518829155827</v>
+      </c>
+      <c r="L6">
+        <v>1.0034600165302596</v>
+      </c>
+      <c r="M6">
+        <v>1.2789117068403721</v>
+      </c>
+      <c r="N6">
+        <v>-0.16188560655732437</v>
+      </c>
+      <c r="O6">
+        <v>82.927229389685365</v>
+      </c>
+      <c r="P6">
+        <v>170.71287741585741</v>
+      </c>
+      <c r="Q6">
+        <v>0.29767026936348273</v>
+      </c>
+      <c r="R6">
+        <v>0.10475470466717995</v>
+      </c>
+      <c r="S6">
+        <v>105.28697933648426</v>
+      </c>
+      <c r="T6">
+        <v>36.639497232845422</v>
+      </c>
+      <c r="U6">
+        <v>83.009067352349163</v>
+      </c>
+      <c r="V6">
+        <v>42.014908816323285</v>
+      </c>
+      <c r="W6">
+        <v>28.283825254705842</v>
+      </c>
+      <c r="X6">
+        <v>8.1450858006302198</v>
+      </c>
+      <c r="Y6">
+        <v>0.42553056237505466</v>
+      </c>
+      <c r="Z6">
+        <v>0.23300773425490726</v>
+      </c>
+      <c r="AA6">
+        <v>0.68276174457409</v>
+      </c>
+      <c r="AB6">
+        <v>0.21774583292331645</v>
+      </c>
+      <c r="AC6">
+        <v>0.6377339981515634</v>
+      </c>
+      <c r="AD6">
+        <v>0.17700493332617426</v>
+      </c>
+      <c r="AE6">
+        <v>0.20570714326443451</v>
+      </c>
+      <c r="AF6">
+        <v>0.16870417576884322</v>
+      </c>
+      <c r="AG6">
+        <v>0.33176003454116748</v>
+      </c>
+      <c r="AH6">
+        <v>0.18317431032862019</v>
+      </c>
+      <c r="AI6">
+        <v>10.009671179883945</v>
+      </c>
+      <c r="AJ6">
+        <v>11.738394584139265</v>
+      </c>
+      <c r="AK6">
+        <v>25.386847195357831</v>
+      </c>
+      <c r="AL6">
+        <v>32.761121856866538</v>
+      </c>
+      <c r="AM6">
+        <v>16.477272727272727</v>
+      </c>
+      <c r="AN6">
+        <v>3.6266924564796903</v>
+      </c>
+      <c r="AO6">
+        <v>4.1644277270284791</v>
+      </c>
+      <c r="AP6">
+        <v>39.91133799032778</v>
+      </c>
+      <c r="AQ6">
+        <v>48.992477162815689</v>
+      </c>
+      <c r="AR6">
+        <v>6.4615797958087056</v>
+      </c>
+      <c r="AS6">
+        <v>0.38957549704459971</v>
+      </c>
+      <c r="AT6">
+        <v>0.080601826974744759</v>
+      </c>
+      <c r="AU6">
+        <v>0.99408919935518536</v>
+      </c>
+      <c r="AV6">
+        <v>21.010209564750134</v>
+      </c>
+      <c r="AW6">
+        <v>62.305212251477705</v>
+      </c>
+      <c r="AX6">
+        <v>14.212788823213327</v>
+      </c>
+      <c r="AY6">
+        <v>1.370231058570661</v>
+      </c>
+      <c r="AZ6">
+        <v>0.053734551316496508</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0.053734551316496508</v>
+      </c>
+      <c r="BC6">
+        <v>11.055883933369156</v>
+      </c>
+      <c r="BD6">
+        <v>45.09672219236969</v>
+      </c>
+      <c r="BE6">
+        <v>41.026329930145081</v>
+      </c>
+      <c r="BF6">
+        <v>2.7001612036539493</v>
+      </c>
+      <c r="BG6">
+        <v>0.06716818914562063</v>
+      </c>
+      <c r="BH6">
+        <v>0.053734551316496508</v>
+      </c>
+      <c r="BI6">
+        <v>11.069317571198281</v>
+      </c>
+      <c r="BJ6">
+        <v>25.819451907576575</v>
+      </c>
+      <c r="BK6">
+        <v>54.083825900053739</v>
+      </c>
+      <c r="BL6">
+        <v>8.4497581945190756</v>
+      </c>
+      <c r="BM6">
+        <v>0.53734551316496504</v>
+      </c>
+      <c r="BN6">
+        <v>0.040300913487372379</v>
       </c>
     </row>
   </sheetData>

--- a/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="151">
   <si>
     <t>Subject</t>
   </si>
@@ -454,6 +454,18 @@
   </si>
   <si>
     <t>2021-11-19</t>
+  </si>
+  <si>
+    <t>Xe-037</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>20211119_HealthyCohort</t>
   </si>
 </sst>
 </file>
@@ -474,7 +486,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -491,11 +503,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -506,6 +520,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,29 +535,29 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
-    <col min="2" max="2" width="10.5703125" customWidth="true"/>
+    <col min="2" max="2" width="10.28515625" customWidth="true"/>
     <col min="3" max="3" width="5.140625" customWidth="true"/>
     <col min="4" max="4" width="10.5703125" customWidth="true"/>
     <col min="5" max="5" width="13" customWidth="true"/>
-    <col min="6" max="6" width="26.28515625" customWidth="true"/>
+    <col min="6" max="6" width="15" customWidth="true"/>
     <col min="7" max="7" width="14.5703125" customWidth="true"/>
     <col min="8" max="8" width="17.42578125" customWidth="true"/>
     <col min="9" max="9" width="14.85546875" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="10.5703125" customWidth="true"/>
     <col min="11" max="11" width="13.42578125" customWidth="true"/>
     <col min="12" max="12" width="17.28515625" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="13.42578125" customWidth="true"/>
+    <col min="13" max="13" width="10.85546875" customWidth="true"/>
+    <col min="14" max="14" width="10.5703125" customWidth="true"/>
     <col min="15" max="15" width="13.42578125" customWidth="true"/>
-    <col min="16" max="16" width="12.42578125" customWidth="true"/>
+    <col min="16" max="16" width="10.85546875" customWidth="true"/>
     <col min="17" max="17" width="17.140625" customWidth="true"/>
     <col min="18" max="18" width="18.42578125" customWidth="true"/>
     <col min="19" max="19" width="17.7109375" customWidth="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="8.85546875" customWidth="true"/>
     <col min="22" max="22" width="14.28515625" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="9.140625" customWidth="true"/>
     <col min="25" max="25" width="17.140625" customWidth="true"/>
     <col min="26" max="26" width="19.42578125" customWidth="true"/>
     <col min="27" max="27" width="15.7109375" customWidth="true"/>
@@ -587,211 +603,211 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BE1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BG1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BH1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BI1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BL1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BM1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>74</v>
+      <c r="A2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C2">
         <v>0.45000000000000001</v>
@@ -799,191 +815,191 @@
       <c r="D2">
         <v>14.6</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>82</v>
+      <c r="E2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G2">
-        <v>-7404.8168495507389</v>
+        <v>-7396.0699979126648</v>
       </c>
       <c r="H2">
-        <v>-676.06295798337976</v>
+        <v>-686.60554883478142</v>
       </c>
       <c r="I2">
-        <v>19.839965161695176</v>
+        <v>-0.21277834592285871</v>
       </c>
       <c r="J2">
-        <v>8.4778950020438568</v>
+        <v>12.452751020758702</v>
       </c>
       <c r="K2">
-        <v>1.6343103789497482</v>
+        <v>1.7535812844099699</v>
       </c>
       <c r="L2">
-        <v>1.0160384881866751</v>
+        <v>0.99421228726053779</v>
       </c>
       <c r="M2">
-        <v>1.202070435134841</v>
+        <v>1.2069861407667319</v>
       </c>
       <c r="N2">
-        <v>-1.3551241806464991</v>
+        <v>22.869523944135615</v>
       </c>
       <c r="O2">
-        <v>83.698222818808574</v>
+        <v>-162.64375004412031</v>
       </c>
       <c r="P2">
-        <v>173.51425092476322</v>
+        <v>-73.641403860233098</v>
       </c>
       <c r="Q2">
-        <v>0.45564516799623056</v>
+        <v>0.50422057628367611</v>
       </c>
       <c r="R2">
-        <v>1.9039582735829244</v>
+        <v>1.0824047123364617</v>
       </c>
       <c r="S2">
-        <v>60.144245517376163</v>
+        <v>116.16012608389605</v>
       </c>
       <c r="T2">
-        <v>38.047928072998737</v>
+        <v>18.763269575972821</v>
       </c>
       <c r="U2">
-        <v>83.899802160220005</v>
+        <v>42.522362885128132</v>
       </c>
       <c r="V2">
-        <v>47.870544934888045</v>
+        <v>40.173244040160888</v>
       </c>
       <c r="W2">
-        <v>29.886688947824446</v>
+        <v>24.592538019237868</v>
       </c>
       <c r="X2">
-        <v>13.948522512766598</v>
+        <v>12.565206315223557</v>
       </c>
       <c r="Y2">
-        <v>0.51826332443391454</v>
+        <v>0.58971121836490292</v>
       </c>
       <c r="Z2">
-        <v>0.19509785555195366</v>
+        <v>0.21720213227423599</v>
       </c>
       <c r="AA2">
-        <v>0.8192096256583139</v>
+        <v>0.96565968210125641</v>
       </c>
       <c r="AB2">
-        <v>0.16673385688213496</v>
+        <v>0.3059578572291124</v>
       </c>
       <c r="AC2">
-        <v>0.71946738912806274</v>
+        <v>0.83424191431792716</v>
       </c>
       <c r="AD2">
-        <v>0.15803349662667318</v>
+        <v>0.28127478092069452</v>
       </c>
       <c r="AE2">
-        <v>0.36149409761978657</v>
+        <v>0.46028858435511455</v>
       </c>
       <c r="AF2">
-        <v>0.13614474898312848</v>
+        <v>0.17206644731132772</v>
       </c>
       <c r="AG2">
-        <v>0.51725386056609235</v>
+        <v>0.56578582033089164</v>
       </c>
       <c r="AH2">
-        <v>0.21079016916715887</v>
+        <v>0.18373352569072537</v>
       </c>
       <c r="AI2">
-        <v>1.3099721630915342</v>
+        <v>2.8564916812276837</v>
       </c>
       <c r="AJ2">
-        <v>6.3288030129359756</v>
+        <v>5.5230570538631012</v>
       </c>
       <c r="AK2">
-        <v>20.754871458981498</v>
+        <v>17.997417002203147</v>
       </c>
       <c r="AL2">
-        <v>42.222040281644013</v>
+        <v>38.965281470789328</v>
       </c>
       <c r="AM2">
-        <v>25.356148681840512</v>
+        <v>31.056749981007371</v>
       </c>
       <c r="AN2">
-        <v>4.0281644015064675</v>
+        <v>3.601002810909367</v>
       </c>
       <c r="AO2">
-        <v>0.92915214866434381</v>
+        <v>0.6881989520606866</v>
       </c>
       <c r="AP2">
-        <v>15.637962502074002</v>
+        <v>10.581058887933056</v>
       </c>
       <c r="AQ2">
-        <v>50.199104031856642</v>
+        <v>33.189958551654023</v>
       </c>
       <c r="AR2">
-        <v>31.707317073170731</v>
+        <v>34.089309454915153</v>
       </c>
       <c r="AS2">
-        <v>1.4186162269785962</v>
+        <v>18.033940721044811</v>
       </c>
       <c r="AT2">
-        <v>0.10784801725568277</v>
+        <v>3.4175334323922733</v>
       </c>
       <c r="AU2">
-        <v>0.21569603451136554</v>
+        <v>0.20333150856338467</v>
       </c>
       <c r="AV2">
-        <v>12.369337979094077</v>
+        <v>8.0081332603425359</v>
       </c>
       <c r="AW2">
-        <v>46.449311431889825</v>
+        <v>38.539141315398453</v>
       </c>
       <c r="AX2">
-        <v>38.053758088601292</v>
+        <v>33.205599436928132</v>
       </c>
       <c r="AY2">
-        <v>2.7044964327194294</v>
+        <v>14.983968092594042</v>
       </c>
       <c r="AZ2">
-        <v>0.19080803052928488</v>
+        <v>4.3090638930163445</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>0.54743098459372808</v>
       </c>
       <c r="BB2">
-        <v>0.016592002654720425</v>
+        <v>0.20333150856338467</v>
       </c>
       <c r="BC2">
-        <v>1.4186162269785962</v>
+        <v>0.84460780480175179</v>
       </c>
       <c r="BD2">
-        <v>12.86709805873569</v>
+        <v>7.6014702432157657</v>
       </c>
       <c r="BE2">
-        <v>53.177368508378962</v>
+        <v>29.00602174083053</v>
       </c>
       <c r="BF2">
-        <v>31.433549029367846</v>
+        <v>50.066473762414951</v>
       </c>
       <c r="BG2">
-        <v>1.0287041645926662</v>
+        <v>11.855791037772738</v>
       </c>
       <c r="BH2">
-        <v>0.074664011946241921</v>
+        <v>0.62563541096426056</v>
       </c>
       <c r="BI2">
-        <v>1.3439522150323544</v>
+        <v>0.71948072260889961</v>
       </c>
       <c r="BJ2">
-        <v>8.9596814335490294</v>
+        <v>5.0207241729881913</v>
       </c>
       <c r="BK2">
-        <v>46.938775510204081</v>
+        <v>34.034566356455777</v>
       </c>
       <c r="BL2">
-        <v>40.584038493446158</v>
+        <v>56.541800265895048</v>
       </c>
       <c r="BM2">
-        <v>2.1237763398042144</v>
+        <v>3.6443262688668181</v>
       </c>
       <c r="BN2">
-        <v>0.049776007964161276</v>
+        <v>0.039102213185266285</v>
       </c>
     </row>
     <row r="3">

--- a/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="154">
   <si>
     <t>Subject</t>
   </si>
@@ -466,6 +466,15 @@
   </si>
   <si>
     <t>20211119_HealthyCohort</t>
+  </si>
+  <si>
+    <t>Xe-042</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>Xe-040</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -505,11 +514,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -522,6 +535,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,603 +620,603 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AM1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AP1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AS1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AW1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AX1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="AY1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BA1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BB1" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BC1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BD1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BE1" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BG1" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BH1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BI1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BJ1" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BK1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BL1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BM1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BN1" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>148</v>
+      <c r="A2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="C2">
-        <v>0.45000000000000001</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="D2">
         <v>14.6</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>150</v>
       </c>
       <c r="G2">
-        <v>-7396.0699979126648</v>
+        <v>-7463.7234938600723</v>
       </c>
       <c r="H2">
-        <v>-686.60554883478142</v>
+        <v>-735.49162929394708</v>
       </c>
       <c r="I2">
-        <v>-0.21277834592285871</v>
+        <v>-41.05426207825623</v>
       </c>
       <c r="J2">
-        <v>12.452751020758702</v>
+        <v>8.3291956629474928</v>
       </c>
       <c r="K2">
-        <v>1.7535812844099699</v>
+        <v>1.6200585500318703</v>
       </c>
       <c r="L2">
-        <v>0.99421228726053779</v>
+        <v>1.0642373818654929</v>
       </c>
       <c r="M2">
-        <v>1.2069861407667319</v>
+        <v>1.0960607186667</v>
       </c>
       <c r="N2">
-        <v>22.869523944135615</v>
+        <v>-88.368822657416885</v>
       </c>
       <c r="O2">
-        <v>-162.64375004412031</v>
+        <v>-8.390799454110498</v>
       </c>
       <c r="P2">
-        <v>-73.641403860233098</v>
+        <v>82.20140600226857</v>
       </c>
       <c r="Q2">
-        <v>0.50422057628367611</v>
+        <v>0.36756031035305542</v>
       </c>
       <c r="R2">
-        <v>1.0824047123364617</v>
+        <v>8.4686782114583767</v>
       </c>
       <c r="S2">
-        <v>116.16012608389605</v>
+        <v>71.428462295622154</v>
       </c>
       <c r="T2">
-        <v>18.763269575972821</v>
+        <v>20.908670172456421</v>
       </c>
       <c r="U2">
-        <v>42.522362885128132</v>
+        <v>68.41363885746901</v>
       </c>
       <c r="V2">
-        <v>40.173244040160888</v>
+        <v>24.858103513494022</v>
       </c>
       <c r="W2">
-        <v>24.592538019237868</v>
+        <v>16.505668761886767</v>
       </c>
       <c r="X2">
-        <v>12.565206315223557</v>
+        <v>6.0759181692698858</v>
       </c>
       <c r="Y2">
-        <v>0.58971121836490292</v>
+        <v>0.41745229082379504</v>
       </c>
       <c r="Z2">
-        <v>0.21720213227423599</v>
+        <v>0.19875332543778135</v>
       </c>
       <c r="AA2">
-        <v>0.96565968210125641</v>
+        <v>0.54265778084385108</v>
       </c>
       <c r="AB2">
-        <v>0.3059578572291124</v>
+        <v>0.12375719478457797</v>
       </c>
       <c r="AC2">
-        <v>0.83424191431792716</v>
+        <v>0.48800827237735778</v>
       </c>
       <c r="AD2">
-        <v>0.28127478092069452</v>
+        <v>0.11246961455164101</v>
       </c>
       <c r="AE2">
-        <v>0.46028858435511455</v>
+        <v>0.21150470696858428</v>
       </c>
       <c r="AF2">
-        <v>0.17206644731132772</v>
+        <v>0.10556778590322841</v>
       </c>
       <c r="AG2">
-        <v>0.56578582033089164</v>
+        <v>0.4554372693220991</v>
       </c>
       <c r="AH2">
-        <v>0.18373352569072537</v>
+        <v>0.36009609888171312</v>
       </c>
       <c r="AI2">
-        <v>2.8564916812276837</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.5230570538631012</v>
+        <v>24.538703008957967</v>
       </c>
       <c r="AK2">
-        <v>17.997417002203147</v>
+        <v>41.23727126559988</v>
       </c>
       <c r="AL2">
-        <v>38.965281470789328</v>
+        <v>23.78072123114616</v>
       </c>
       <c r="AM2">
-        <v>31.056749981007371</v>
+        <v>8.6134292933159795</v>
       </c>
       <c r="AN2">
-        <v>3.601002810909367</v>
+        <v>1.829875200980017</v>
       </c>
       <c r="AO2">
-        <v>0.6881989520606866</v>
+        <v>26.161855906898403</v>
       </c>
       <c r="AP2">
-        <v>10.581058887933056</v>
+        <v>59.957124263073268</v>
       </c>
       <c r="AQ2">
-        <v>33.189958551654023</v>
+        <v>12.862721078018529</v>
       </c>
       <c r="AR2">
-        <v>34.089309454915153</v>
+        <v>0.93407855447515498</v>
       </c>
       <c r="AS2">
-        <v>18.033940721044811</v>
+        <v>0.061251052752469184</v>
       </c>
       <c r="AT2">
-        <v>3.4175334323922733</v>
+        <v>0.022969144782175942</v>
       </c>
       <c r="AU2">
-        <v>0.20333150856338467</v>
+        <v>13.115381670622464</v>
       </c>
       <c r="AV2">
-        <v>8.0081332603425359</v>
+        <v>62.307633412449285</v>
       </c>
       <c r="AW2">
-        <v>38.539141315398453</v>
+        <v>23.061021361304647</v>
       </c>
       <c r="AX2">
-        <v>33.205599436928132</v>
+        <v>1.3781486869305566</v>
       </c>
       <c r="AY2">
-        <v>14.983968092594042</v>
+        <v>0.099532960722762423</v>
       </c>
       <c r="AZ2">
-        <v>4.3090638930163445</v>
+        <v>0.022969144782175942</v>
       </c>
       <c r="BA2">
-        <v>0.54743098459372808</v>
+        <v>0.0076563815940586481</v>
       </c>
       <c r="BB2">
-        <v>0.20333150856338467</v>
+        <v>0.0076563815940586481</v>
       </c>
       <c r="BC2">
-        <v>0.84460780480175179</v>
+        <v>8.9962483730189113</v>
       </c>
       <c r="BD2">
-        <v>7.6014702432157657</v>
+        <v>50.853686547737539</v>
       </c>
       <c r="BE2">
-        <v>29.00602174083053</v>
+        <v>36.482658295689454</v>
       </c>
       <c r="BF2">
-        <v>50.066473762414951</v>
+        <v>3.4070898093560982</v>
       </c>
       <c r="BG2">
-        <v>11.855791037772738</v>
+        <v>0.22203506622770078</v>
       </c>
       <c r="BH2">
-        <v>0.62563541096426056</v>
+        <v>0.038281907970293239</v>
       </c>
       <c r="BI2">
-        <v>0.71948072260889961</v>
+        <v>4.7775821146925956</v>
       </c>
       <c r="BJ2">
-        <v>5.0207241729881913</v>
+        <v>16.162621545057807</v>
       </c>
       <c r="BK2">
-        <v>34.034566356455777</v>
+        <v>50.677589771074196</v>
       </c>
       <c r="BL2">
-        <v>56.541800265895048</v>
+        <v>24.546359390552023</v>
       </c>
       <c r="BM2">
-        <v>3.6443262688668181</v>
+        <v>2.9630196769006965</v>
       </c>
       <c r="BN2">
-        <v>0.039102213185266285</v>
+        <v>0.87282750172268597</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>75</v>
+      <c r="A3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C3">
-        <v>0.46000000000000002</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="D3">
         <v>14.6</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>82</v>
+      <c r="E3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="G3">
-        <v>-7399.5508136481785</v>
+        <v>-7465.5925761595636</v>
       </c>
       <c r="H3">
-        <v>-663.50499056099898</v>
+        <v>-735.34002564004004</v>
       </c>
       <c r="I3">
-        <v>-2.37681536188565</v>
+        <v>-62.814717761951201</v>
       </c>
       <c r="J3">
-        <v>10.587963723713139</v>
+        <v>23.106319072050578</v>
       </c>
       <c r="K3">
-        <v>1.6487240815240689</v>
+        <v>1.8586867587813292</v>
       </c>
       <c r="L3">
-        <v>1.0034857799787291</v>
+        <v>0.87271236368575877</v>
       </c>
       <c r="M3">
-        <v>1.2789145352643261</v>
+        <v>1.287054085307088</v>
       </c>
       <c r="N3">
-        <v>-0.16182632727921875</v>
+        <v>73.285989113000355</v>
       </c>
       <c r="O3">
-        <v>82.920941786685361</v>
+        <v>159.46482885903018</v>
       </c>
       <c r="P3">
-        <v>170.70285579709673</v>
+        <v>-106.11667918926499</v>
       </c>
       <c r="Q3">
-        <v>0.29769310194742193</v>
+        <v>0.18251876779676993</v>
       </c>
       <c r="R3">
-        <v>0.10473203887072051</v>
+        <v>3.6714510634003341</v>
       </c>
       <c r="S3">
-        <v>104.38056844404132</v>
+        <v>91.045532874799306</v>
       </c>
       <c r="T3">
-        <v>36.276401676210433</v>
+        <v>29.81962585738902</v>
       </c>
       <c r="U3">
-        <v>81.641605811590068</v>
+        <v>73.520118714693822</v>
       </c>
       <c r="V3">
-        <v>42.009497632182587</v>
+        <v>52.877735993988964</v>
       </c>
       <c r="W3">
-        <v>28.307730429635022</v>
+        <v>35.546330851080398</v>
       </c>
       <c r="X3">
-        <v>8.1916895107065102</v>
+        <v>6.4408251053734888</v>
       </c>
       <c r="Y3">
-        <v>0.4308943443532387</v>
+        <v>0.30528414219799443</v>
       </c>
       <c r="Z3">
-        <v>0.23045464703951873</v>
+        <v>0.15882954069371955</v>
       </c>
       <c r="AA3">
-        <v>0.68146062543641017</v>
+        <v>1.6219944410855405</v>
       </c>
       <c r="AB3">
-        <v>0.17918253143404514</v>
+        <v>0.67391724186957869</v>
       </c>
       <c r="AC3">
-        <v>0.63692791229671353</v>
+        <v>1.5485677174036079</v>
       </c>
       <c r="AD3">
-        <v>0.16557923795379881</v>
+        <v>0.55750695804988959</v>
       </c>
       <c r="AE3">
-        <v>0.20586513772977383</v>
+        <v>0.35423809415299762</v>
       </c>
       <c r="AF3">
-        <v>0.12135941831562774</v>
+        <v>0.49929298955653229</v>
       </c>
       <c r="AG3">
-        <v>0.33389084781247574</v>
+        <v>0.51429405772846626</v>
       </c>
       <c r="AH3">
-        <v>0.17964083758251878</v>
+        <v>7.9329717470177741</v>
       </c>
       <c r="AI3">
-        <v>8.9372280919825986</v>
+        <v>2.6285353800862157</v>
       </c>
       <c r="AJ3">
-        <v>11.870727159726538</v>
+        <v>38.429187256860473</v>
       </c>
       <c r="AK3">
-        <v>25.456805469235551</v>
+        <v>47.019240878982231</v>
       </c>
       <c r="AL3">
-        <v>33.312616532007461</v>
+        <v>9.7676374724003789</v>
       </c>
       <c r="AM3">
-        <v>16.768178993163456</v>
+        <v>1.0303858689937968</v>
       </c>
       <c r="AN3">
-        <v>3.6544437538844003</v>
+        <v>1.1250131426769003</v>
       </c>
       <c r="AO3">
-        <v>4.2042042042042045</v>
+        <v>2.3323615160349855</v>
       </c>
       <c r="AP3">
-        <v>40.090090090090094</v>
+        <v>0.89623150847640642</v>
       </c>
       <c r="AQ3">
-        <v>48.55309855309855</v>
+        <v>2.559118885649498</v>
       </c>
       <c r="AR3">
-        <v>6.6748566748566747</v>
+        <v>10.29046539250621</v>
       </c>
       <c r="AS3">
-        <v>0.4095004095004095</v>
+        <v>27.426843753374364</v>
       </c>
       <c r="AT3">
-        <v>0.068250068250068255</v>
+        <v>56.494978943958543</v>
       </c>
       <c r="AU3">
-        <v>1.0237510237510237</v>
+        <v>2.8830579850988016</v>
       </c>
       <c r="AV3">
-        <v>21.198471198471196</v>
+        <v>0.68027210884353739</v>
       </c>
       <c r="AW3">
-        <v>62.052962052962059</v>
+        <v>1.6412914372098044</v>
       </c>
       <c r="AX3">
-        <v>14.196014196014195</v>
+        <v>6.0792570996652628</v>
       </c>
       <c r="AY3">
-        <v>1.4332514332514332</v>
+        <v>18.874851527912753</v>
       </c>
       <c r="AZ3">
-        <v>0.040950040950040956</v>
+        <v>34.078393262066733</v>
       </c>
       <c r="BA3">
-        <v>0.013650013650013651</v>
+        <v>27.58881330309902</v>
       </c>
       <c r="BB3">
-        <v>0.040950040950040956</v>
+        <v>8.174063276104091</v>
       </c>
       <c r="BC3">
-        <v>10.455910455910455</v>
+        <v>13.745815786632113</v>
       </c>
       <c r="BD3">
-        <v>45.140595140595138</v>
+        <v>23.03206997084548</v>
       </c>
       <c r="BE3">
-        <v>41.632541632541631</v>
+        <v>29.014145340675952</v>
       </c>
       <c r="BF3">
-        <v>2.6890526890526889</v>
+        <v>23.150847640643558</v>
       </c>
       <c r="BG3">
-        <v>0.040950040950040956</v>
+        <v>8.1848612460857346</v>
       </c>
       <c r="BH3">
-        <v>0.040950040950040956</v>
+        <v>2.872260015117158</v>
       </c>
       <c r="BI3">
-        <v>10.346710346710347</v>
+        <v>32.836626714177733</v>
       </c>
       <c r="BJ3">
-        <v>25.716625716625718</v>
+        <v>37.663319295972357</v>
       </c>
       <c r="BK3">
-        <v>54.818454818454818</v>
+        <v>22.211424252240576</v>
       </c>
       <c r="BL3">
-        <v>8.5858585858585847</v>
+        <v>4.0276428031530074</v>
       </c>
       <c r="BM3">
-        <v>0.49140049140049141</v>
+        <v>1.3065543677788576</v>
       </c>
       <c r="BN3">
-        <v>0.040950040950040956</v>
+        <v>1.9544325666774647</v>
       </c>
     </row>
     <row r="4">

--- a/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Gas_Exchange_Summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12568" uniqueCount="133">
   <si>
     <t>Subject</t>
   </si>
@@ -245,6 +245,180 @@
   </si>
   <si>
     <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>Xe-043</t>
+  </si>
+  <si>
+    <t>Xe-038</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>Xe-041</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
+  </si>
+  <si>
+    <t>Xe-020</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>Xe-021</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>Xe-022</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>CXe-006</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>CXe-007</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>Xe-024</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>Xe-025</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>CXe-008</t>
+  </si>
+  <si>
+    <t>2021-10-21</t>
+  </si>
+  <si>
+    <t>CXe-010</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>CXe-011</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>Xe-027</t>
+  </si>
+  <si>
+    <t>CXe-001_02</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
+    <t>CXe-012</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>Xe-026</t>
+  </si>
+  <si>
+    <t>CXe-003_02</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
+  </si>
+  <si>
+    <t>CXe-005_02</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>CXe-004_02</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>Xe-028</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>CXe-013</t>
+  </si>
+  <si>
+    <t>2022-02-16</t>
+  </si>
+  <si>
+    <t>CXe-007_02</t>
+  </si>
+  <si>
+    <t>2022-02-25</t>
+  </si>
+  <si>
+    <t>CXe-015</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>CXe-016</t>
+  </si>
+  <si>
+    <t>2022-03-08</t>
+  </si>
+  <si>
+    <t>CXe-014</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>CXe-006_02</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>Xe-031</t>
+  </si>
+  <si>
+    <t>2022-03-15</t>
+  </si>
+  <si>
+    <t>CXe-018</t>
+  </si>
+  <si>
+    <t>2022-03-23</t>
+  </si>
+  <si>
+    <t>CXe-019</t>
+  </si>
+  <si>
+    <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
   </si>
 </sst>
 </file>
@@ -265,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="132">
     <border>
       <left/>
       <right/>
@@ -282,15 +456,271 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP3"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -613,7 +1043,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.28515625" customWidth="true"/>
     <col min="2" max="2" width="17" customWidth="true"/>
     <col min="3" max="3" width="10.5703125" customWidth="true"/>
     <col min="4" max="4" width="5.140625" customWidth="true"/>
@@ -628,14 +1058,14 @@
     <col min="13" max="13" width="13.42578125" customWidth="true"/>
     <col min="14" max="14" width="17.28515625" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="13.42578125" customWidth="true"/>
     <col min="17" max="17" width="13.42578125" customWidth="true"/>
     <col min="18" max="18" width="12.42578125" customWidth="true"/>
     <col min="19" max="19" width="17.140625" customWidth="true"/>
     <col min="20" max="20" width="18.42578125" customWidth="true"/>
     <col min="21" max="21" width="17.7109375" customWidth="true"/>
     <col min="22" max="22" width="15.7109375" customWidth="true"/>
-    <col min="23" max="23" width="10.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="14.28515625" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
@@ -684,219 +1114,219 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="130" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="130" t="s">
         <v>70</v>
       </c>
       <c r="D2">
@@ -905,10 +1335,10 @@
       <c r="E2">
         <v>14.6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="130" t="s">
         <v>6</v>
       </c>
       <c r="H2">
@@ -1096,13 +1526,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="130" t="s">
         <v>74</v>
       </c>
       <c r="D3">
@@ -1111,10 +1541,10 @@
       <c r="E3">
         <v>14.6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="130" t="s">
         <v>6</v>
       </c>
       <c r="H3">
@@ -1299,6 +1729,6186 @@
       </c>
       <c r="BP3">
         <v>0.27702962677953058</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>14.6</v>
+      </c>
+      <c r="F4" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>5.389892578125</v>
+      </c>
+      <c r="I4">
+        <v>-7463.0174978728373</v>
+      </c>
+      <c r="J4">
+        <v>-703.52047545644609</v>
+      </c>
+      <c r="K4">
+        <v>-1.2842214142732331</v>
+      </c>
+      <c r="L4">
+        <v>9.4250549161784924</v>
+      </c>
+      <c r="M4">
+        <v>1.5180088866591375</v>
+      </c>
+      <c r="N4">
+        <v>1.0085261070895746</v>
+      </c>
+      <c r="O4">
+        <v>1.0726484810208576</v>
+      </c>
+      <c r="P4">
+        <v>-68.105516435174579</v>
+      </c>
+      <c r="Q4">
+        <v>-31.680880709469076</v>
+      </c>
+      <c r="R4">
+        <v>56.742503192059885</v>
+      </c>
+      <c r="S4">
+        <v>0.71530337757617457</v>
+      </c>
+      <c r="T4">
+        <v>5.0080802799410948</v>
+      </c>
+      <c r="U4">
+        <v>85.046339123931617</v>
+      </c>
+      <c r="V4">
+        <v>24.86343484146661</v>
+      </c>
+      <c r="W4">
+        <v>64.989616309796446</v>
+      </c>
+      <c r="X4">
+        <v>26.527560008491257</v>
+      </c>
+      <c r="Y4">
+        <v>15.017276605225403</v>
+      </c>
+      <c r="Z4">
+        <v>10.820745549859451</v>
+      </c>
+      <c r="AA4">
+        <v>0.48028129569833283</v>
+      </c>
+      <c r="AB4">
+        <v>0.18927500111290968</v>
+      </c>
+      <c r="AC4">
+        <v>0.68145870310394963</v>
+      </c>
+      <c r="AD4">
+        <v>0.49522367261790434</v>
+      </c>
+      <c r="AE4">
+        <v>0.51984163753852664</v>
+      </c>
+      <c r="AF4">
+        <v>0.29686299143704675</v>
+      </c>
+      <c r="AG4">
+        <v>0.42746284889784086</v>
+      </c>
+      <c r="AH4">
+        <v>0.44111814982242487</v>
+      </c>
+      <c r="AI4">
+        <v>0.85889034546874377</v>
+      </c>
+      <c r="AJ4">
+        <v>1.9029404717992735</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>15.296462381664174</v>
+      </c>
+      <c r="AM4">
+        <v>33.586990986094122</v>
+      </c>
+      <c r="AN4">
+        <v>38.999864111971732</v>
+      </c>
+      <c r="AO4">
+        <v>10.327490148117951</v>
+      </c>
+      <c r="AP4">
+        <v>1.7891923721520133</v>
+      </c>
+      <c r="AQ4">
+        <v>16.456040222856366</v>
+      </c>
+      <c r="AR4">
+        <v>29.628119762648907</v>
+      </c>
+      <c r="AS4">
+        <v>42.782080898672824</v>
+      </c>
+      <c r="AT4">
+        <v>9.5166915794718498</v>
+      </c>
+      <c r="AU4">
+        <v>0.93309779408434113</v>
+      </c>
+      <c r="AV4">
+        <v>0.68396974226570639</v>
+      </c>
+      <c r="AW4">
+        <v>17.538614848031887</v>
+      </c>
+      <c r="AX4">
+        <v>45.653847896000357</v>
+      </c>
+      <c r="AY4">
+        <v>33.138560492820588</v>
+      </c>
+      <c r="AZ4">
+        <v>2.6724645558726277</v>
+      </c>
+      <c r="BA4">
+        <v>0.42578248856275758</v>
+      </c>
+      <c r="BB4">
+        <v>0.12682882638039589</v>
+      </c>
+      <c r="BC4">
+        <v>0.090592018843139929</v>
+      </c>
+      <c r="BD4">
+        <v>0.35330887348824569</v>
+      </c>
+      <c r="BE4">
+        <v>4.2397064818589483</v>
+      </c>
+      <c r="BF4">
+        <v>10.255016533043438</v>
+      </c>
+      <c r="BG4">
+        <v>28.568193142184171</v>
+      </c>
+      <c r="BH4">
+        <v>47.379625854962178</v>
+      </c>
+      <c r="BI4">
+        <v>8.4748833627757403</v>
+      </c>
+      <c r="BJ4">
+        <v>1.0825746251755219</v>
+      </c>
+      <c r="BK4">
+        <v>2.2783892739049691</v>
+      </c>
+      <c r="BL4">
+        <v>3.0438918331295013</v>
+      </c>
+      <c r="BM4">
+        <v>9.2585043257689001</v>
+      </c>
+      <c r="BN4">
+        <v>41.323549395298272</v>
+      </c>
+      <c r="BO4">
+        <v>40.304389183312949</v>
+      </c>
+      <c r="BP4">
+        <v>3.7912759885854053</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="130" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>14.6</v>
+      </c>
+      <c r="F5" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>3.466064453125</v>
+      </c>
+      <c r="I5">
+        <v>-7457.4646604453465</v>
+      </c>
+      <c r="J5">
+        <v>-710.07415240238151</v>
+      </c>
+      <c r="K5">
+        <v>-21.179881669964079</v>
+      </c>
+      <c r="L5">
+        <v>7.8366696507274378</v>
+      </c>
+      <c r="M5">
+        <v>1.576085909873322</v>
+      </c>
+      <c r="N5">
+        <v>0.89838923559873129</v>
+      </c>
+      <c r="O5">
+        <v>1.0812408537784455</v>
+      </c>
+      <c r="P5">
+        <v>-27.925633657701471</v>
+      </c>
+      <c r="Q5">
+        <v>12.069316253393138</v>
+      </c>
+      <c r="R5">
+        <v>95.313723672360908</v>
+      </c>
+      <c r="S5">
+        <v>0.37867309754814871</v>
+      </c>
+      <c r="T5">
+        <v>4.7046233129775867</v>
+      </c>
+      <c r="U5">
+        <v>51.744679203562328</v>
+      </c>
+      <c r="V5">
+        <v>32.007677639553023</v>
+      </c>
+      <c r="W5">
+        <v>75.025772186305929</v>
+      </c>
+      <c r="X5">
+        <v>48.92934867456065</v>
+      </c>
+      <c r="Y5">
+        <v>30.965778433756594</v>
+      </c>
+      <c r="Z5">
+        <v>11.831698781529138</v>
+      </c>
+      <c r="AA5">
+        <v>0.49648259847545739</v>
+      </c>
+      <c r="AB5">
+        <v>0.21381002987108444</v>
+      </c>
+      <c r="AC5">
+        <v>1.0724545415355899</v>
+      </c>
+      <c r="AD5">
+        <v>0.91971696890665511</v>
+      </c>
+      <c r="AE5">
+        <v>0.9400339987062627</v>
+      </c>
+      <c r="AF5">
+        <v>0.56264715867346093</v>
+      </c>
+      <c r="AG5">
+        <v>0.44361441602328877</v>
+      </c>
+      <c r="AH5">
+        <v>0.83707648322394534</v>
+      </c>
+      <c r="AI5">
+        <v>0.79699121060922662</v>
+      </c>
+      <c r="AJ5">
+        <v>10.841981373519955</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>18.665915334225541</v>
+      </c>
+      <c r="AM5">
+        <v>24.237514967950975</v>
+      </c>
+      <c r="AN5">
+        <v>40.212720997393816</v>
+      </c>
+      <c r="AO5">
+        <v>14.91864478410932</v>
+      </c>
+      <c r="AP5">
+        <v>1.9652039163203492</v>
+      </c>
+      <c r="AQ5">
+        <v>3.2894273438050292</v>
+      </c>
+      <c r="AR5">
+        <v>5.2616750017609357</v>
+      </c>
+      <c r="AS5">
+        <v>20.123969852785802</v>
+      </c>
+      <c r="AT5">
+        <v>39.783052757624851</v>
+      </c>
+      <c r="AU5">
+        <v>25.773050644502359</v>
+      </c>
+      <c r="AV5">
+        <v>5.7688243995210255</v>
+      </c>
+      <c r="AW5">
+        <v>2.9935901951116435</v>
+      </c>
+      <c r="AX5">
+        <v>3.7402268084806649</v>
+      </c>
+      <c r="AY5">
+        <v>18.0038036204832</v>
+      </c>
+      <c r="AZ5">
+        <v>39.135028527153622</v>
+      </c>
+      <c r="BA5">
+        <v>28.731422131436219</v>
+      </c>
+      <c r="BB5">
+        <v>5.9026554905966044</v>
+      </c>
+      <c r="BC5">
+        <v>0.58463055575121503</v>
+      </c>
+      <c r="BD5">
+        <v>0.90864267098682816</v>
+      </c>
+      <c r="BE5">
+        <v>6.6845108121434098</v>
+      </c>
+      <c r="BF5">
+        <v>12.326547862224414</v>
+      </c>
+      <c r="BG5">
+        <v>30.168345425089811</v>
+      </c>
+      <c r="BH5">
+        <v>39.163203493695853</v>
+      </c>
+      <c r="BI5">
+        <v>8.9244206522504754</v>
+      </c>
+      <c r="BJ5">
+        <v>2.7329717545960417</v>
+      </c>
+      <c r="BK5">
+        <v>7.6706346411213637</v>
+      </c>
+      <c r="BL5">
+        <v>13.960695921673594</v>
+      </c>
+      <c r="BM5">
+        <v>43.600760724096638</v>
+      </c>
+      <c r="BN5">
+        <v>29.942945692751987</v>
+      </c>
+      <c r="BO5">
+        <v>2.6343593716982463</v>
+      </c>
+      <c r="BP5">
+        <v>2.190603648658167</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E6">
+        <v>14.6</v>
+      </c>
+      <c r="F6" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>3.00732421875</v>
+      </c>
+      <c r="I6">
+        <v>-7468.5261294921684</v>
+      </c>
+      <c r="J6">
+        <v>-722.39597752642169</v>
+      </c>
+      <c r="K6">
+        <v>-28.95776922260605</v>
+      </c>
+      <c r="L6">
+        <v>10.096659807027256</v>
+      </c>
+      <c r="M6">
+        <v>1.6827469444409537</v>
+      </c>
+      <c r="N6">
+        <v>0.98799868345913378</v>
+      </c>
+      <c r="O6">
+        <v>1.1507376933125419</v>
+      </c>
+      <c r="P6">
+        <v>10.437619179866907</v>
+      </c>
+      <c r="Q6">
+        <v>90.907333791883644</v>
+      </c>
+      <c r="R6">
+        <v>179.12566796894035</v>
+      </c>
+      <c r="S6">
+        <v>0.22152879550082086</v>
+      </c>
+      <c r="T6">
+        <v>7.8628601498697934</v>
+      </c>
+      <c r="U6">
+        <v>-26.026423612604972</v>
+      </c>
+      <c r="V6">
+        <v>22.013277766646446</v>
+      </c>
+      <c r="W6">
+        <v>63.027216674854472</v>
+      </c>
+      <c r="X6">
+        <v>25.992113300473882</v>
+      </c>
+      <c r="Y6">
+        <v>17.771792019911704</v>
+      </c>
+      <c r="Z6">
+        <v>3.9483232680027567</v>
+      </c>
+      <c r="AA6">
+        <v>0.37817654796379852</v>
+      </c>
+      <c r="AB6">
+        <v>0.18173256789775485</v>
+      </c>
+      <c r="AC6">
+        <v>0.65159327695438163</v>
+      </c>
+      <c r="AD6">
+        <v>0.25916853217987618</v>
+      </c>
+      <c r="AE6">
+        <v>0.61339830457593059</v>
+      </c>
+      <c r="AF6">
+        <v>0.20559284032094116</v>
+      </c>
+      <c r="AG6">
+        <v>0.17436527600340923</v>
+      </c>
+      <c r="AH6">
+        <v>0.20765646281277514</v>
+      </c>
+      <c r="AI6">
+        <v>0.53963441808395585</v>
+      </c>
+      <c r="AJ6">
+        <v>12.831915143478133</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>31.734047735021921</v>
+      </c>
+      <c r="AM6">
+        <v>41.443416138983601</v>
+      </c>
+      <c r="AN6">
+        <v>21.553823672674135</v>
+      </c>
+      <c r="AO6">
+        <v>4.0509823023218052</v>
+      </c>
+      <c r="AP6">
+        <v>1.2177301509985388</v>
+      </c>
+      <c r="AQ6">
+        <v>11.592791037506087</v>
+      </c>
+      <c r="AR6">
+        <v>40.574768631271311</v>
+      </c>
+      <c r="AS6">
+        <v>40.306867998051629</v>
+      </c>
+      <c r="AT6">
+        <v>6.8111706445851601</v>
+      </c>
+      <c r="AU6">
+        <v>0.53580126643935699</v>
+      </c>
+      <c r="AV6">
+        <v>0.17860042214645236</v>
+      </c>
+      <c r="AW6">
+        <v>5.8126319207663579</v>
+      </c>
+      <c r="AX6">
+        <v>25.336905341776262</v>
+      </c>
+      <c r="AY6">
+        <v>53.18233479460951</v>
+      </c>
+      <c r="AZ6">
+        <v>14.401688585809385</v>
+      </c>
+      <c r="BA6">
+        <v>0.99853872381880182</v>
+      </c>
+      <c r="BB6">
+        <v>0.1623640201331385</v>
+      </c>
+      <c r="BC6">
+        <v>0.040591005033284625</v>
+      </c>
+      <c r="BD6">
+        <v>0.064945608053255402</v>
+      </c>
+      <c r="BE6">
+        <v>25.255723331709696</v>
+      </c>
+      <c r="BF6">
+        <v>47.548303295989605</v>
+      </c>
+      <c r="BG6">
+        <v>23.826919954538077</v>
+      </c>
+      <c r="BH6">
+        <v>2.906315960383179</v>
+      </c>
+      <c r="BI6">
+        <v>0.324728040266277</v>
+      </c>
+      <c r="BJ6">
+        <v>0.13800941711316772</v>
+      </c>
+      <c r="BK6">
+        <v>22.138334145153436</v>
+      </c>
+      <c r="BL6">
+        <v>32.667640850787464</v>
+      </c>
+      <c r="BM6">
+        <v>35.931157655463544</v>
+      </c>
+      <c r="BN6">
+        <v>7.1034258808248101</v>
+      </c>
+      <c r="BO6">
+        <v>1.0228933268387725</v>
+      </c>
+      <c r="BP6">
+        <v>1.1365481409319695</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="E7">
+        <v>14.6</v>
+      </c>
+      <c r="F7" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>2.01953125</v>
+      </c>
+      <c r="I7">
+        <v>-7399.5510609391858</v>
+      </c>
+      <c r="J7">
+        <v>-663.52565132208792</v>
+      </c>
+      <c r="K7">
+        <v>-2.3745468730668358</v>
+      </c>
+      <c r="L7">
+        <v>10.587957922601987</v>
+      </c>
+      <c r="M7">
+        <v>1.6488518829155827</v>
+      </c>
+      <c r="N7">
+        <v>1.0034600165302596</v>
+      </c>
+      <c r="O7">
+        <v>1.2789117068403721</v>
+      </c>
+      <c r="P7">
+        <v>-0.16188560655732437</v>
+      </c>
+      <c r="Q7">
+        <v>82.927229389685365</v>
+      </c>
+      <c r="R7">
+        <v>170.71287741585741</v>
+      </c>
+      <c r="S7">
+        <v>0.29767026936348273</v>
+      </c>
+      <c r="T7">
+        <v>0.10475470466717995</v>
+      </c>
+      <c r="U7">
+        <v>104.94240256870584</v>
+      </c>
+      <c r="V7">
+        <v>36.381318157995999</v>
+      </c>
+      <c r="W7">
+        <v>83.178852664503637</v>
+      </c>
+      <c r="X7">
+        <v>43.339818070959147</v>
+      </c>
+      <c r="Y7">
+        <v>29.117255415197409</v>
+      </c>
+      <c r="Z7">
+        <v>8.3992703404653781</v>
+      </c>
+      <c r="AA7">
+        <v>0.42394310170383603</v>
+      </c>
+      <c r="AB7">
+        <v>0.23293744195103572</v>
+      </c>
+      <c r="AC7">
+        <v>0.68175417093488411</v>
+      </c>
+      <c r="AD7">
+        <v>0.25808748278985011</v>
+      </c>
+      <c r="AE7">
+        <v>0.63541087048930922</v>
+      </c>
+      <c r="AF7">
+        <v>0.17288153817520555</v>
+      </c>
+      <c r="AG7">
+        <v>0.20773580405060749</v>
+      </c>
+      <c r="AH7">
+        <v>0.23045947115559329</v>
+      </c>
+      <c r="AI7">
+        <v>0.33195340447591459</v>
+      </c>
+      <c r="AJ7">
+        <v>0.1874010740494593</v>
+      </c>
+      <c r="AK7">
+        <v>9.7074468085106371</v>
+      </c>
+      <c r="AL7">
+        <v>16.90038684719536</v>
+      </c>
+      <c r="AM7">
+        <v>32.422630560928432</v>
+      </c>
+      <c r="AN7">
+        <v>28.626692456479692</v>
+      </c>
+      <c r="AO7">
+        <v>10.227272727272728</v>
+      </c>
+      <c r="AP7">
+        <v>2.1155705996131529</v>
+      </c>
+      <c r="AQ7">
+        <v>6.7478912839737584</v>
+      </c>
+      <c r="AR7">
+        <v>37.488284910965326</v>
+      </c>
+      <c r="AS7">
+        <v>46.619360021421876</v>
+      </c>
+      <c r="AT7">
+        <v>8.327754719507297</v>
+      </c>
+      <c r="AU7">
+        <v>0.70959967867184359</v>
+      </c>
+      <c r="AV7">
+        <v>0.10710938545990091</v>
+      </c>
+      <c r="AW7">
+        <v>2.4501271923952337</v>
+      </c>
+      <c r="AX7">
+        <v>23.175793278886061</v>
+      </c>
+      <c r="AY7">
+        <v>57.357075913776946</v>
+      </c>
+      <c r="AZ7">
+        <v>15.330030793948321</v>
+      </c>
+      <c r="BA7">
+        <v>1.5664747623510511</v>
+      </c>
+      <c r="BB7">
+        <v>0.026777346364975228</v>
+      </c>
+      <c r="BC7">
+        <v>0.053554692729950455</v>
+      </c>
+      <c r="BD7">
+        <v>0.04016601954746285</v>
+      </c>
+      <c r="BE7">
+        <v>14.232159592984337</v>
+      </c>
+      <c r="BF7">
+        <v>44.704779756326147</v>
+      </c>
+      <c r="BG7">
+        <v>36.751907885928503</v>
+      </c>
+      <c r="BH7">
+        <v>3.9764359351988214</v>
+      </c>
+      <c r="BI7">
+        <v>0.20083009773731422</v>
+      </c>
+      <c r="BJ7">
+        <v>0.13388673182487618</v>
+      </c>
+      <c r="BK7">
+        <v>13.710001338867317</v>
+      </c>
+      <c r="BL7">
+        <v>27.40661400455215</v>
+      </c>
+      <c r="BM7">
+        <v>47.248627660998793</v>
+      </c>
+      <c r="BN7">
+        <v>10.322667023697951</v>
+      </c>
+      <c r="BO7">
+        <v>1.1782032400589102</v>
+      </c>
+      <c r="BP7">
+        <v>0.13388673182487618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="E8">
+        <v>14.6</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>2.68994140625</v>
+      </c>
+      <c r="I8">
+        <v>-7432.3797519636491</v>
+      </c>
+      <c r="J8">
+        <v>-696.34729416189714</v>
+      </c>
+      <c r="K8">
+        <v>0.80860753057201196</v>
+      </c>
+      <c r="L8">
+        <v>8.2185591978836747</v>
+      </c>
+      <c r="M8">
+        <v>1.6502830134473896</v>
+      </c>
+      <c r="N8">
+        <v>0.97717480439099103</v>
+      </c>
+      <c r="O8">
+        <v>1.2051484899794793</v>
+      </c>
+      <c r="P8">
+        <v>172.37291927944307</v>
+      </c>
+      <c r="Q8">
+        <v>-96.441258041950931</v>
+      </c>
+      <c r="R8">
+        <v>-7.2003565785626424</v>
+      </c>
+      <c r="S8">
+        <v>0.39449562610552386</v>
+      </c>
+      <c r="T8">
+        <v>3.3581507002092379</v>
+      </c>
+      <c r="U8">
+        <v>51.849633077920529</v>
+      </c>
+      <c r="V8">
+        <v>26.384416586304646</v>
+      </c>
+      <c r="W8">
+        <v>55.518880198349166</v>
+      </c>
+      <c r="X8">
+        <v>48.208789285357931</v>
+      </c>
+      <c r="Y8">
+        <v>31.116387809936811</v>
+      </c>
+      <c r="Z8">
+        <v>12.423262321722239</v>
+      </c>
+      <c r="AA8">
+        <v>0.60348350378844484</v>
+      </c>
+      <c r="AB8">
+        <v>0.18527150951139668</v>
+      </c>
+      <c r="AC8">
+        <v>0.92570089608363959</v>
+      </c>
+      <c r="AD8">
+        <v>0.41060005851860859</v>
+      </c>
+      <c r="AE8">
+        <v>0.83525442108491121</v>
+      </c>
+      <c r="AF8">
+        <v>0.36821040974024066</v>
+      </c>
+      <c r="AG8">
+        <v>0.36118924161278715</v>
+      </c>
+      <c r="AH8">
+        <v>0.22244553592200264</v>
+      </c>
+      <c r="AI8">
+        <v>0.44271210458138993</v>
+      </c>
+      <c r="AJ8">
+        <v>0.20796358018100278</v>
+      </c>
+      <c r="AK8">
+        <v>1.8787438736612816</v>
+      </c>
+      <c r="AL8">
+        <v>4.3474314757669266</v>
+      </c>
+      <c r="AM8">
+        <v>13.160283172989654</v>
+      </c>
+      <c r="AN8">
+        <v>50.127064803049556</v>
+      </c>
+      <c r="AO8">
+        <v>27.899800326738067</v>
+      </c>
+      <c r="AP8">
+        <v>2.5866763477945183</v>
+      </c>
+      <c r="AQ8">
+        <v>3.0431967440569792</v>
+      </c>
+      <c r="AR8">
+        <v>17.232448432152438</v>
+      </c>
+      <c r="AS8">
+        <v>27.758764221626119</v>
+      </c>
+      <c r="AT8">
+        <v>31.125705300157247</v>
+      </c>
+      <c r="AU8">
+        <v>17.038201831467951</v>
+      </c>
+      <c r="AV8">
+        <v>3.8016834705392655</v>
+      </c>
+      <c r="AW8">
+        <v>0.73073721209878828</v>
+      </c>
+      <c r="AX8">
+        <v>13.89325686800481</v>
+      </c>
+      <c r="AY8">
+        <v>32.050689112940525</v>
+      </c>
+      <c r="AZ8">
+        <v>27.823513088520951</v>
+      </c>
+      <c r="BA8">
+        <v>19.137915086485986</v>
+      </c>
+      <c r="BB8">
+        <v>4.7636666358338724</v>
+      </c>
+      <c r="BC8">
+        <v>1.0637313847007679</v>
+      </c>
+      <c r="BD8">
+        <v>0.53649061141430021</v>
+      </c>
+      <c r="BE8">
+        <v>4.2641753769309041</v>
+      </c>
+      <c r="BF8">
+        <v>16.316714457496996</v>
+      </c>
+      <c r="BG8">
+        <v>39.302562205161415</v>
+      </c>
+      <c r="BH8">
+        <v>36.250115622976594</v>
+      </c>
+      <c r="BI8">
+        <v>3.4686892979372859</v>
+      </c>
+      <c r="BJ8">
+        <v>0.39774303949680884</v>
+      </c>
+      <c r="BK8">
+        <v>4.4214226251040607</v>
+      </c>
+      <c r="BL8">
+        <v>12.92202386458237</v>
+      </c>
+      <c r="BM8">
+        <v>50.48561650171122</v>
+      </c>
+      <c r="BN8">
+        <v>30.89445934696143</v>
+      </c>
+      <c r="BO8">
+        <v>1.2394783091295902</v>
+      </c>
+      <c r="BP8">
+        <v>0.036999352511331053</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E9">
+        <v>14.6</v>
+      </c>
+      <c r="F9" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>2.123046875</v>
+      </c>
+      <c r="I9">
+        <v>-7400.2852394113397</v>
+      </c>
+      <c r="J9">
+        <v>-671.68237847648527</v>
+      </c>
+      <c r="K9">
+        <v>8.2053376959523412</v>
+      </c>
+      <c r="L9">
+        <v>10.620825129171855</v>
+      </c>
+      <c r="M9">
+        <v>1.6769931605922188</v>
+      </c>
+      <c r="N9">
+        <v>0.99254971181460361</v>
+      </c>
+      <c r="O9">
+        <v>1.2411295859505276</v>
+      </c>
+      <c r="P9">
+        <v>-0.34802283853661437</v>
+      </c>
+      <c r="Q9">
+        <v>116.42334625871608</v>
+      </c>
+      <c r="R9">
+        <v>-159.6115327899067</v>
+      </c>
+      <c r="S9">
+        <v>0.49588207260130751</v>
+      </c>
+      <c r="T9">
+        <v>0.44480548119273117</v>
+      </c>
+      <c r="U9">
+        <v>-39.590191576627745</v>
+      </c>
+      <c r="V9">
+        <v>44.149989725446545</v>
+      </c>
+      <c r="W9">
+        <v>88.165761785797216</v>
+      </c>
+      <c r="X9">
+        <v>56.721450762048534</v>
+      </c>
+      <c r="Y9">
+        <v>35.680747285696704</v>
+      </c>
+      <c r="Z9">
+        <v>18.358804080326397</v>
+      </c>
+      <c r="AA9">
+        <v>0.60408719685646128</v>
+      </c>
+      <c r="AB9">
+        <v>0.17586090070774832</v>
+      </c>
+      <c r="AC9">
+        <v>0.84151216409845686</v>
+      </c>
+      <c r="AD9">
+        <v>0.13194584608632237</v>
+      </c>
+      <c r="AE9">
+        <v>0.72870016019414474</v>
+      </c>
+      <c r="AF9">
+        <v>0.12144405795294695</v>
+      </c>
+      <c r="AG9">
+        <v>0.40343745680548609</v>
+      </c>
+      <c r="AH9">
+        <v>0.10335562019306656</v>
+      </c>
+      <c r="AI9">
+        <v>0.56164131038030884</v>
+      </c>
+      <c r="AJ9">
+        <v>0.1468514639584135</v>
+      </c>
+      <c r="AK9">
+        <v>0.14949402023919045</v>
+      </c>
+      <c r="AL9">
+        <v>3.4498620055197793</v>
+      </c>
+      <c r="AM9">
+        <v>19.721711131554738</v>
+      </c>
+      <c r="AN9">
+        <v>46.458141674333028</v>
+      </c>
+      <c r="AO9">
+        <v>27.219411223551059</v>
+      </c>
+      <c r="AP9">
+        <v>3.001379944802208</v>
+      </c>
+      <c r="AQ9">
+        <v>0.057583784406311185</v>
+      </c>
+      <c r="AR9">
+        <v>4.7679373488425654</v>
+      </c>
+      <c r="AS9">
+        <v>58.320856846711969</v>
+      </c>
+      <c r="AT9">
+        <v>34.112633882298745</v>
+      </c>
+      <c r="AU9">
+        <v>2.7179546239778878</v>
+      </c>
+      <c r="AV9">
+        <v>0.023033513762524473</v>
+      </c>
+      <c r="AW9">
+        <v>0.092134055050097891</v>
+      </c>
+      <c r="AX9">
+        <v>4.7333870781987795</v>
+      </c>
+      <c r="AY9">
+        <v>55.234366002533683</v>
+      </c>
+      <c r="AZ9">
+        <v>36.669353909938962</v>
+      </c>
+      <c r="BA9">
+        <v>3.2246919267534264</v>
+      </c>
+      <c r="BB9">
+        <v>0.046067027525048945</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0.023033513762524473</v>
+      </c>
+      <c r="BF9">
+        <v>2.6488540826903146</v>
+      </c>
+      <c r="BG9">
+        <v>46.746516181043418</v>
+      </c>
+      <c r="BH9">
+        <v>48.520096740757801</v>
+      </c>
+      <c r="BI9">
+        <v>2.0614994817459404</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0.034550270643786712</v>
+      </c>
+      <c r="BL9">
+        <v>1.8311643441206955</v>
+      </c>
+      <c r="BM9">
+        <v>37.947713923759068</v>
+      </c>
+      <c r="BN9">
+        <v>57.192214672348264</v>
+      </c>
+      <c r="BO9">
+        <v>2.9943567891281817</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10">
+        <v>0.48999999999999999</v>
+      </c>
+      <c r="E10">
+        <v>14.6</v>
+      </c>
+      <c r="F10" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>3.150390625</v>
+      </c>
+      <c r="I10">
+        <v>-7402.74855634295</v>
+      </c>
+      <c r="J10">
+        <v>-693.84867380612513</v>
+      </c>
+      <c r="K10">
+        <v>-23.368922788364262</v>
+      </c>
+      <c r="L10">
+        <v>10.577875796870769</v>
+      </c>
+      <c r="M10">
+        <v>1.7546038241424489</v>
+      </c>
+      <c r="N10">
+        <v>0.97491237078241699</v>
+      </c>
+      <c r="O10">
+        <v>1.2782159577388377</v>
+      </c>
+      <c r="P10">
+        <v>-2.1506705002631135</v>
+      </c>
+      <c r="Q10">
+        <v>8.4348802328483661</v>
+      </c>
+      <c r="R10">
+        <v>87.119472056743064</v>
+      </c>
+      <c r="S10">
+        <v>0.28795402650649465</v>
+      </c>
+      <c r="T10">
+        <v>0.43169378507964462</v>
+      </c>
+      <c r="U10">
+        <v>-67.45199541496612</v>
+      </c>
+      <c r="V10">
+        <v>26.933410171337517</v>
+      </c>
+      <c r="W10">
+        <v>68.158620698567987</v>
+      </c>
+      <c r="X10">
+        <v>30.45982684380072</v>
+      </c>
+      <c r="Y10">
+        <v>21.175260612567342</v>
+      </c>
+      <c r="Z10">
+        <v>6.0935877661866487</v>
+      </c>
+      <c r="AA10">
+        <v>0.41300651886341078</v>
+      </c>
+      <c r="AB10">
+        <v>0.18334897567412101</v>
+      </c>
+      <c r="AC10">
+        <v>0.7213648230210099</v>
+      </c>
+      <c r="AD10">
+        <v>0.16737467409759996</v>
+      </c>
+      <c r="AE10">
+        <v>0.66898371345507357</v>
+      </c>
+      <c r="AF10">
+        <v>0.17063794838283472</v>
+      </c>
+      <c r="AG10">
+        <v>0.23157541172157689</v>
+      </c>
+      <c r="AH10">
+        <v>0.10371687475981209</v>
+      </c>
+      <c r="AI10">
+        <v>0.36911819137399421</v>
+      </c>
+      <c r="AJ10">
+        <v>0.18037128237950797</v>
+      </c>
+      <c r="AK10">
+        <v>0.80595164290142596</v>
+      </c>
+      <c r="AL10">
+        <v>19.552076875387478</v>
+      </c>
+      <c r="AM10">
+        <v>51.542157470551764</v>
+      </c>
+      <c r="AN10">
+        <v>19.50557966522009</v>
+      </c>
+      <c r="AO10">
+        <v>6.7653440793552386</v>
+      </c>
+      <c r="AP10">
+        <v>1.828890266584005</v>
+      </c>
+      <c r="AQ10">
+        <v>2.7890625</v>
+      </c>
+      <c r="AR10">
+        <v>32.671875</v>
+      </c>
+      <c r="AS10">
+        <v>49.4765625</v>
+      </c>
+      <c r="AT10">
+        <v>12.359375</v>
+      </c>
+      <c r="AU10">
+        <v>2.5</v>
+      </c>
+      <c r="AV10">
+        <v>0.203125</v>
+      </c>
+      <c r="AW10">
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="AX10">
+        <v>20.2734375</v>
+      </c>
+      <c r="AY10">
+        <v>56.085937500000007</v>
+      </c>
+      <c r="AZ10">
+        <v>17.625</v>
+      </c>
+      <c r="BA10">
+        <v>4.2578125</v>
+      </c>
+      <c r="BB10">
+        <v>0.84375</v>
+      </c>
+      <c r="BC10">
+        <v>0.0234375</v>
+      </c>
+      <c r="BD10">
+        <v>0.015625</v>
+      </c>
+      <c r="BE10">
+        <v>10.84375</v>
+      </c>
+      <c r="BF10">
+        <v>32.8671875</v>
+      </c>
+      <c r="BG10">
+        <v>51.796875</v>
+      </c>
+      <c r="BH10">
+        <v>4.34375</v>
+      </c>
+      <c r="BI10">
+        <v>0.1484375</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>12.4609375</v>
+      </c>
+      <c r="BL10">
+        <v>18.796875</v>
+      </c>
+      <c r="BM10">
+        <v>48.5234375</v>
+      </c>
+      <c r="BN10">
+        <v>19.5</v>
+      </c>
+      <c r="BO10">
+        <v>0.65625</v>
+      </c>
+      <c r="BP10">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="E11">
+        <v>14.6</v>
+      </c>
+      <c r="F11" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>3.48779296875</v>
+      </c>
+      <c r="I11">
+        <v>-7431.8587610810546</v>
+      </c>
+      <c r="J11">
+        <v>-695.4289253199513</v>
+      </c>
+      <c r="K11">
+        <v>-15.81646778102894</v>
+      </c>
+      <c r="L11">
+        <v>7.1169833148607058</v>
+      </c>
+      <c r="M11">
+        <v>1.5701984306242389</v>
+      </c>
+      <c r="N11">
+        <v>0.98415666941596347</v>
+      </c>
+      <c r="O11">
+        <v>1.2751078954233501</v>
+      </c>
+      <c r="P11">
+        <v>89.44119853516105</v>
+      </c>
+      <c r="Q11">
+        <v>-178.24826117961805</v>
+      </c>
+      <c r="R11">
+        <v>-88.259527404210218</v>
+      </c>
+      <c r="S11">
+        <v>0.32538571783725778</v>
+      </c>
+      <c r="T11">
+        <v>4.4528071181791908</v>
+      </c>
+      <c r="U11">
+        <v>85.448110592366987</v>
+      </c>
+      <c r="V11">
+        <v>21.032205815343126</v>
+      </c>
+      <c r="W11">
+        <v>47.11918630094172</v>
+      </c>
+      <c r="X11">
+        <v>37.339141080509236</v>
+      </c>
+      <c r="Y11">
+        <v>24.80494919440773</v>
+      </c>
+      <c r="Z11">
+        <v>8.1509140412932783</v>
+      </c>
+      <c r="AA11">
+        <v>0.47422808799992733</v>
+      </c>
+      <c r="AB11">
+        <v>0.19862222769436166</v>
+      </c>
+      <c r="AC11">
+        <v>0.66888140733200319</v>
+      </c>
+      <c r="AD11">
+        <v>0.14623908784317086</v>
+      </c>
+      <c r="AE11">
+        <v>0.62193166235524233</v>
+      </c>
+      <c r="AF11">
+        <v>0.13167541272343142</v>
+      </c>
+      <c r="AG11">
+        <v>0.2168034731440196</v>
+      </c>
+      <c r="AH11">
+        <v>0.11037040058768376</v>
+      </c>
+      <c r="AI11">
+        <v>0.34656187317995474</v>
+      </c>
+      <c r="AJ11">
+        <v>0.16677624664786775</v>
+      </c>
+      <c r="AK11">
+        <v>1.742965140697186</v>
+      </c>
+      <c r="AL11">
+        <v>12.557748845023101</v>
+      </c>
+      <c r="AM11">
+        <v>40.417191656166878</v>
+      </c>
+      <c r="AN11">
+        <v>31.212375752484949</v>
+      </c>
+      <c r="AO11">
+        <v>11.878762424751505</v>
+      </c>
+      <c r="AP11">
+        <v>2.1909561808763822</v>
+      </c>
+      <c r="AQ11">
+        <v>9.4037187433212228</v>
+      </c>
+      <c r="AR11">
+        <v>34.216712972857451</v>
+      </c>
+      <c r="AS11">
+        <v>49.953693809218493</v>
+      </c>
+      <c r="AT11">
+        <v>6.0198048015957824</v>
+      </c>
+      <c r="AU11">
+        <v>0.33482937949704356</v>
+      </c>
+      <c r="AV11">
+        <v>0.071240293510009267</v>
+      </c>
+      <c r="AW11">
+        <v>2.2369452162142909</v>
+      </c>
+      <c r="AX11">
+        <v>26.002707131153379</v>
+      </c>
+      <c r="AY11">
+        <v>58.502529030419602</v>
+      </c>
+      <c r="AZ11">
+        <v>12.402935100092613</v>
+      </c>
+      <c r="BA11">
+        <v>0.74089905250409627</v>
+      </c>
+      <c r="BB11">
+        <v>0.085488352212011107</v>
+      </c>
+      <c r="BC11">
+        <v>0.0071240293510009258</v>
+      </c>
+      <c r="BD11">
+        <v>0.021372088053002777</v>
+      </c>
+      <c r="BE11">
+        <v>12.766260596993659</v>
+      </c>
+      <c r="BF11">
+        <v>38.341525967086987</v>
+      </c>
+      <c r="BG11">
+        <v>45.358694877822899</v>
+      </c>
+      <c r="BH11">
+        <v>3.0490845622283964</v>
+      </c>
+      <c r="BI11">
+        <v>0.36332549690104726</v>
+      </c>
+      <c r="BJ11">
+        <v>0.12110849896701575</v>
+      </c>
+      <c r="BK11">
+        <v>10.030633326209305</v>
+      </c>
+      <c r="BL11">
+        <v>24.150459499893138</v>
+      </c>
+      <c r="BM11">
+        <v>54.755289591793122</v>
+      </c>
+      <c r="BN11">
+        <v>10.515067322077366</v>
+      </c>
+      <c r="BO11">
+        <v>0.42744176106005555</v>
+      </c>
+      <c r="BP11">
+        <v>0.12110849896701575</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="E12">
+        <v>14.6</v>
+      </c>
+      <c r="F12" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>2.88232421875</v>
+      </c>
+      <c r="I12">
+        <v>-7404.8168495507389</v>
+      </c>
+      <c r="J12">
+        <v>-676.06295798337976</v>
+      </c>
+      <c r="K12">
+        <v>19.839965161695176</v>
+      </c>
+      <c r="L12">
+        <v>8.4778950020438568</v>
+      </c>
+      <c r="M12">
+        <v>1.6343103789497482</v>
+      </c>
+      <c r="N12">
+        <v>1.0160384881866751</v>
+      </c>
+      <c r="O12">
+        <v>1.202070435134841</v>
+      </c>
+      <c r="P12">
+        <v>-1.3551241806464991</v>
+      </c>
+      <c r="Q12">
+        <v>83.698222818808574</v>
+      </c>
+      <c r="R12">
+        <v>173.51425092476322</v>
+      </c>
+      <c r="S12">
+        <v>0.45564516799623056</v>
+      </c>
+      <c r="T12">
+        <v>1.9039582735829244</v>
+      </c>
+      <c r="U12">
+        <v>59.915108773002984</v>
+      </c>
+      <c r="V12">
+        <v>37.812089109622384</v>
+      </c>
+      <c r="W12">
+        <v>84.216008726788942</v>
+      </c>
+      <c r="X12">
+        <v>48.579954077366381</v>
+      </c>
+      <c r="Y12">
+        <v>30.510947297085028</v>
+      </c>
+      <c r="Z12">
+        <v>14.176733441468107</v>
+      </c>
+      <c r="AA12">
+        <v>0.52585032254574371</v>
+      </c>
+      <c r="AB12">
+        <v>0.19078231720160266</v>
+      </c>
+      <c r="AC12">
+        <v>0.81772614645934183</v>
+      </c>
+      <c r="AD12">
+        <v>0.16344861070027855</v>
+      </c>
+      <c r="AE12">
+        <v>0.71752982431360657</v>
+      </c>
+      <c r="AF12">
+        <v>0.15333983249535618</v>
+      </c>
+      <c r="AG12">
+        <v>0.36247313872262737</v>
+      </c>
+      <c r="AH12">
+        <v>0.13757684315935853</v>
+      </c>
+      <c r="AI12">
+        <v>0.51897250034713327</v>
+      </c>
+      <c r="AJ12">
+        <v>0.21190535075654865</v>
+      </c>
+      <c r="AK12">
+        <v>0.70303235642893447</v>
+      </c>
+      <c r="AL12">
+        <v>9.1140098255124506</v>
+      </c>
+      <c r="AM12">
+        <v>29.916991360325255</v>
+      </c>
+      <c r="AN12">
+        <v>41.7330171099441</v>
+      </c>
+      <c r="AO12">
+        <v>16.550906318820939</v>
+      </c>
+      <c r="AP12">
+        <v>1.9820430289683211</v>
+      </c>
+      <c r="AQ12">
+        <v>1.6207455429497568</v>
+      </c>
+      <c r="AR12">
+        <v>15.038812590633796</v>
+      </c>
+      <c r="AS12">
+        <v>42.924166169069352</v>
+      </c>
+      <c r="AT12">
+        <v>38.394608888509765</v>
+      </c>
+      <c r="AU12">
+        <v>1.9534248912394439</v>
+      </c>
+      <c r="AV12">
+        <v>0.068241917597884491</v>
+      </c>
+      <c r="AW12">
+        <v>0.4521027040859848</v>
+      </c>
+      <c r="AX12">
+        <v>14.620830845346756</v>
+      </c>
+      <c r="AY12">
+        <v>41.388723023116953</v>
+      </c>
+      <c r="AZ12">
+        <v>40.348033779749208</v>
+      </c>
+      <c r="BA12">
+        <v>3.0708862919048023</v>
+      </c>
+      <c r="BB12">
+        <v>0.11942335579629788</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>1.6633967414484345</v>
+      </c>
+      <c r="BF12">
+        <v>13.682504478375842</v>
+      </c>
+      <c r="BG12">
+        <v>44.97995393670562</v>
+      </c>
+      <c r="BH12">
+        <v>36.705621427962129</v>
+      </c>
+      <c r="BI12">
+        <v>2.7296767039153802</v>
+      </c>
+      <c r="BJ12">
+        <v>0.23884671159259577</v>
+      </c>
+      <c r="BK12">
+        <v>1.9363644118399728</v>
+      </c>
+      <c r="BL12">
+        <v>9.3320822315107055</v>
+      </c>
+      <c r="BM12">
+        <v>41.226648468821978</v>
+      </c>
+      <c r="BN12">
+        <v>41.934658363900027</v>
+      </c>
+      <c r="BO12">
+        <v>5.2375671756376354</v>
+      </c>
+      <c r="BP12">
+        <v>0.33267934828968693</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E13">
+        <v>14.6</v>
+      </c>
+      <c r="F13" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>2.778076171875</v>
+      </c>
+      <c r="I13">
+        <v>-7402.359570542837</v>
+      </c>
+      <c r="J13">
+        <v>-696.79741191108531</v>
+      </c>
+      <c r="K13">
+        <v>-20.362135499511361</v>
+      </c>
+      <c r="L13">
+        <v>10.872736713401578</v>
+      </c>
+      <c r="M13">
+        <v>1.7841188158129824</v>
+      </c>
+      <c r="N13">
+        <v>0.89909978782561983</v>
+      </c>
+      <c r="O13">
+        <v>1.2794734007950728</v>
+      </c>
+      <c r="P13">
+        <v>-147.30894596498018</v>
+      </c>
+      <c r="Q13">
+        <v>-17.391189319190929</v>
+      </c>
+      <c r="R13">
+        <v>87.547195471754421</v>
+      </c>
+      <c r="S13">
+        <v>0.2393067799068741</v>
+      </c>
+      <c r="T13">
+        <v>2.3291980214040575</v>
+      </c>
+      <c r="U13">
+        <v>40.733113555017582</v>
+      </c>
+      <c r="V13">
+        <v>37.702872026657452</v>
+      </c>
+      <c r="W13">
+        <v>85.116935852044421</v>
+      </c>
+      <c r="X13">
+        <v>40.122057644457392</v>
+      </c>
+      <c r="Y13">
+        <v>27.839403259760626</v>
+      </c>
+      <c r="Z13">
+        <v>6.7677724152143961</v>
+      </c>
+      <c r="AA13">
+        <v>0.57709489073299813</v>
+      </c>
+      <c r="AB13">
+        <v>0.15932175174009489</v>
+      </c>
+      <c r="AC13">
+        <v>0.82727642603878226</v>
+      </c>
+      <c r="AD13">
+        <v>0.24589045161198328</v>
+      </c>
+      <c r="AE13">
+        <v>0.77901773551110765</v>
+      </c>
+      <c r="AF13">
+        <v>0.25267601427941355</v>
+      </c>
+      <c r="AG13">
+        <v>0.2253352654033518</v>
+      </c>
+      <c r="AH13">
+        <v>0.11399347214380599</v>
+      </c>
+      <c r="AI13">
+        <v>0.32670907242744296</v>
+      </c>
+      <c r="AJ13">
+        <v>0.18945734203174205</v>
+      </c>
+      <c r="AK13">
+        <v>0.15818613234906406</v>
+      </c>
+      <c r="AL13">
+        <v>2.4694612883381666</v>
+      </c>
+      <c r="AM13">
+        <v>22.91062483522278</v>
+      </c>
+      <c r="AN13">
+        <v>53.906318657175504</v>
+      </c>
+      <c r="AO13">
+        <v>18.235345812461549</v>
+      </c>
+      <c r="AP13">
+        <v>2.3200632744529397</v>
+      </c>
+      <c r="AQ13">
+        <v>1.7868145409735057</v>
+      </c>
+      <c r="AR13">
+        <v>25.31467300413696</v>
+      </c>
+      <c r="AS13">
+        <v>35.516239767626089</v>
+      </c>
+      <c r="AT13">
+        <v>26.467740515799665</v>
+      </c>
+      <c r="AU13">
+        <v>9.1717278408590808</v>
+      </c>
+      <c r="AV13">
+        <v>1.7428043306047005</v>
+      </c>
+      <c r="AW13">
+        <v>0.19364492562274446</v>
+      </c>
+      <c r="AX13">
+        <v>18.554704691488425</v>
+      </c>
+      <c r="AY13">
+        <v>34.794472317577679</v>
+      </c>
+      <c r="AZ13">
+        <v>27.541589648798521</v>
+      </c>
+      <c r="BA13">
+        <v>14.910659272951325</v>
+      </c>
+      <c r="BB13">
+        <v>3.3447759880292227</v>
+      </c>
+      <c r="BC13">
+        <v>0.65135111345832231</v>
+      </c>
+      <c r="BD13">
+        <v>0.0088020420737611113</v>
+      </c>
+      <c r="BE13">
+        <v>15.086700114426547</v>
+      </c>
+      <c r="BF13">
+        <v>31.282457530146996</v>
+      </c>
+      <c r="BG13">
+        <v>47.78628641844908</v>
+      </c>
+      <c r="BH13">
+        <v>5.6421089692808737</v>
+      </c>
+      <c r="BI13">
+        <v>0.20244696769650558</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>21.573805122788485</v>
+      </c>
+      <c r="BL13">
+        <v>21.75864800633747</v>
+      </c>
+      <c r="BM13">
+        <v>38.91382800809788</v>
+      </c>
+      <c r="BN13">
+        <v>17.436845348120762</v>
+      </c>
+      <c r="BO13">
+        <v>0.31687351465540003</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="E14">
+        <v>14.6</v>
+      </c>
+      <c r="F14" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>2.227783203125</v>
+      </c>
+      <c r="I14">
+        <v>-7414.2140766837438</v>
+      </c>
+      <c r="J14">
+        <v>-688.6045690568742</v>
+      </c>
+      <c r="K14">
+        <v>0.91538224505750287</v>
+      </c>
+      <c r="L14">
+        <v>8.573752534935851</v>
+      </c>
+      <c r="M14">
+        <v>1.6528728787464242</v>
+      </c>
+      <c r="N14">
+        <v>0.95597472220410795</v>
+      </c>
+      <c r="O14">
+        <v>1.2641915578975977</v>
+      </c>
+      <c r="P14">
+        <v>-178.24625938136816</v>
+      </c>
+      <c r="Q14">
+        <v>-60.87537487124969</v>
+      </c>
+      <c r="R14">
+        <v>26.557526568666969</v>
+      </c>
+      <c r="S14">
+        <v>0.25302491723880149</v>
+      </c>
+      <c r="T14">
+        <v>1.7691405506982278</v>
+      </c>
+      <c r="U14">
+        <v>45.460616607133616</v>
+      </c>
+      <c r="V14">
+        <v>38.870304926799257</v>
+      </c>
+      <c r="W14">
+        <v>83.914264475308997</v>
+      </c>
+      <c r="X14">
+        <v>61.050365542157721</v>
+      </c>
+      <c r="Y14">
+        <v>40.690150604730384</v>
+      </c>
+      <c r="Z14">
+        <v>10.485042386014937</v>
+      </c>
+      <c r="AA14">
+        <v>0.52396679214578901</v>
+      </c>
+      <c r="AB14">
+        <v>0.20957639078095999</v>
+      </c>
+      <c r="AC14">
+        <v>0.98148148273539215</v>
+      </c>
+      <c r="AD14">
+        <v>0.2512416073974042</v>
+      </c>
+      <c r="AE14">
+        <v>0.93222484690864615</v>
+      </c>
+      <c r="AF14">
+        <v>0.24162532696163022</v>
+      </c>
+      <c r="AG14">
+        <v>0.26051908675099195</v>
+      </c>
+      <c r="AH14">
+        <v>0.12758945633107557</v>
+      </c>
+      <c r="AI14">
+        <v>0.28151314320882054</v>
+      </c>
+      <c r="AJ14">
+        <v>0.12752511582667325</v>
+      </c>
+      <c r="AK14">
+        <v>3.3643835616438356</v>
+      </c>
+      <c r="AL14">
+        <v>8.8109589041095902</v>
+      </c>
+      <c r="AM14">
+        <v>25.534246575342468</v>
+      </c>
+      <c r="AN14">
+        <v>41.917808219178085</v>
+      </c>
+      <c r="AO14">
+        <v>18.224657534246575</v>
+      </c>
+      <c r="AP14">
+        <v>2.1479452054794521</v>
+      </c>
+      <c r="AQ14">
+        <v>0.29485144023588111</v>
+      </c>
+      <c r="AR14">
+        <v>3.8444091630755275</v>
+      </c>
+      <c r="AS14">
+        <v>24.597414379677932</v>
+      </c>
+      <c r="AT14">
+        <v>51.599002041279199</v>
+      </c>
+      <c r="AU14">
+        <v>18.394193694715355</v>
+      </c>
+      <c r="AV14">
+        <v>1.2701292810161036</v>
+      </c>
+      <c r="AW14">
+        <v>0.10206396008165117</v>
+      </c>
+      <c r="AX14">
+        <v>1.4175550011340439</v>
+      </c>
+      <c r="AY14">
+        <v>15.627126332501701</v>
+      </c>
+      <c r="AZ14">
+        <v>46.801995917441594</v>
+      </c>
+      <c r="BA14">
+        <v>32.649126786119304</v>
+      </c>
+      <c r="BB14">
+        <v>3.1980040825584033</v>
+      </c>
+      <c r="BC14">
+        <v>0.15876616012701295</v>
+      </c>
+      <c r="BD14">
+        <v>0.04536176003628941</v>
+      </c>
+      <c r="BE14">
+        <v>9.7300975277840784</v>
+      </c>
+      <c r="BF14">
+        <v>28.135631662508505</v>
+      </c>
+      <c r="BG14">
+        <v>49.478339759582674</v>
+      </c>
+      <c r="BH14">
+        <v>12.032206849625766</v>
+      </c>
+      <c r="BI14">
+        <v>0.52166024041732817</v>
+      </c>
+      <c r="BJ14">
+        <v>0.10206396008165117</v>
+      </c>
+      <c r="BK14">
+        <v>14.753912451803131</v>
+      </c>
+      <c r="BL14">
+        <v>36.141982308913583</v>
+      </c>
+      <c r="BM14">
+        <v>45.962803356770245</v>
+      </c>
+      <c r="BN14">
+        <v>3.1299614425039692</v>
+      </c>
+      <c r="BO14">
+        <v>0.011340440009072352</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E15">
+        <v>14.6</v>
+      </c>
+      <c r="F15" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>2.752685546875</v>
+      </c>
+      <c r="I15">
+        <v>-7387.8984272940143</v>
+      </c>
+      <c r="J15">
+        <v>-681.77507046000017</v>
+      </c>
+      <c r="K15">
+        <v>22.81135519209176</v>
+      </c>
+      <c r="L15">
+        <v>10.420963908739672</v>
+      </c>
+      <c r="M15">
+        <v>1.6832579510293308</v>
+      </c>
+      <c r="N15">
+        <v>0.9343905838885237</v>
+      </c>
+      <c r="O15">
+        <v>1.2442080157017228</v>
+      </c>
+      <c r="P15">
+        <v>16.969688940451732</v>
+      </c>
+      <c r="Q15">
+        <v>164.43480950246899</v>
+      </c>
+      <c r="R15">
+        <v>-105.91893527307555</v>
+      </c>
+      <c r="S15">
+        <v>0.41822564636464654</v>
+      </c>
+      <c r="T15">
+        <v>1.2477172736267939</v>
+      </c>
+      <c r="U15">
+        <v>85.537593368443211</v>
+      </c>
+      <c r="V15">
+        <v>31.642797899647338</v>
+      </c>
+      <c r="W15">
+        <v>67.113113653572583</v>
+      </c>
+      <c r="X15">
+        <v>43.51513203219239</v>
+      </c>
+      <c r="Y15">
+        <v>29.004439957119267</v>
+      </c>
+      <c r="Z15">
+        <v>12.354167610748934</v>
+      </c>
+      <c r="AA15">
+        <v>0.43485645785778049</v>
+      </c>
+      <c r="AB15">
+        <v>0.19107957306047388</v>
+      </c>
+      <c r="AC15">
+        <v>0.77939518751622661</v>
+      </c>
+      <c r="AD15">
+        <v>0.1149560597670837</v>
+      </c>
+      <c r="AE15">
+        <v>0.69127823159001667</v>
+      </c>
+      <c r="AF15">
+        <v>0.11916279767335768</v>
+      </c>
+      <c r="AG15">
+        <v>0.33251085832484456</v>
+      </c>
+      <c r="AH15">
+        <v>0.10811838013637302</v>
+      </c>
+      <c r="AI15">
+        <v>0.49891861813806632</v>
+      </c>
+      <c r="AJ15">
+        <v>0.19189409654988754</v>
+      </c>
+      <c r="AK15">
+        <v>0.56762749445676275</v>
+      </c>
+      <c r="AL15">
+        <v>15.698447893569845</v>
+      </c>
+      <c r="AM15">
+        <v>51.529933481152987</v>
+      </c>
+      <c r="AN15">
+        <v>20.957871396895786</v>
+      </c>
+      <c r="AO15">
+        <v>9.2239467849223953</v>
+      </c>
+      <c r="AP15">
+        <v>2.0221729490022171</v>
+      </c>
+      <c r="AQ15">
+        <v>0.45491035590045487</v>
+      </c>
+      <c r="AR15">
+        <v>11.203282490411205</v>
+      </c>
+      <c r="AS15">
+        <v>66.523949692266527</v>
+      </c>
+      <c r="AT15">
+        <v>21.300508429221303</v>
+      </c>
+      <c r="AU15">
+        <v>0.44599054500044599</v>
+      </c>
+      <c r="AV15">
+        <v>0.07135848720007136</v>
+      </c>
+      <c r="AW15">
+        <v>0.33003300330033003</v>
+      </c>
+      <c r="AX15">
+        <v>9.7671929355097671</v>
+      </c>
+      <c r="AY15">
+        <v>57.434662385157431</v>
+      </c>
+      <c r="AZ15">
+        <v>31.620729640531621</v>
+      </c>
+      <c r="BA15">
+        <v>0.76710373740076709</v>
+      </c>
+      <c r="BB15">
+        <v>0.053518865400053517</v>
+      </c>
+      <c r="BC15">
+        <v>0.026759432700026758</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>1.1060565516011061</v>
+      </c>
+      <c r="BF15">
+        <v>14.021942734814022</v>
+      </c>
+      <c r="BG15">
+        <v>57.586299170457586</v>
+      </c>
+      <c r="BH15">
+        <v>26.607795914726605</v>
+      </c>
+      <c r="BI15">
+        <v>0.65114619570065124</v>
+      </c>
+      <c r="BJ15">
+        <v>0.026759432700026758</v>
+      </c>
+      <c r="BK15">
+        <v>1.7661225582017663</v>
+      </c>
+      <c r="BL15">
+        <v>11.238961734011239</v>
+      </c>
+      <c r="BM15">
+        <v>41.102488627241101</v>
+      </c>
+      <c r="BN15">
+        <v>42.743733832842743</v>
+      </c>
+      <c r="BO15">
+        <v>3.0238158951030236</v>
+      </c>
+      <c r="BP15">
+        <v>0.12487735260012488</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E16">
+        <v>14.6</v>
+      </c>
+      <c r="F16" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>3.92236328125</v>
+      </c>
+      <c r="I16">
+        <v>-7419.1742067085688</v>
+      </c>
+      <c r="J16">
+        <v>-691.24241435314059</v>
+      </c>
+      <c r="K16">
+        <v>1.8409407984557982</v>
+      </c>
+      <c r="L16">
+        <v>9.5305523222146231</v>
+      </c>
+      <c r="M16">
+        <v>1.6549581455697391</v>
+      </c>
+      <c r="N16">
+        <v>0.98555993923309859</v>
+      </c>
+      <c r="O16">
+        <v>1.2734742099208596</v>
+      </c>
+      <c r="P16">
+        <v>171.92268192466196</v>
+      </c>
+      <c r="Q16">
+        <v>-86.50020262127434</v>
+      </c>
+      <c r="R16">
+        <v>13.261348165049236</v>
+      </c>
+      <c r="S16">
+        <v>0.20572847630508059</v>
+      </c>
+      <c r="T16">
+        <v>2.4475373934895592</v>
+      </c>
+      <c r="U16">
+        <v>-228.02430228652366</v>
+      </c>
+      <c r="V16">
+        <v>19.361228893892303</v>
+      </c>
+      <c r="W16">
+        <v>47.750561570237267</v>
+      </c>
+      <c r="X16">
+        <v>21.159287630450301</v>
+      </c>
+      <c r="Y16">
+        <v>14.814964960139017</v>
+      </c>
+      <c r="Z16">
+        <v>3.033816773126059</v>
+      </c>
+      <c r="AA16">
+        <v>0.38992388534935285</v>
+      </c>
+      <c r="AB16">
+        <v>0.19264127120946214</v>
+      </c>
+      <c r="AC16">
+        <v>0.5709119883859145</v>
+      </c>
+      <c r="AD16">
+        <v>0.10292032901462426</v>
+      </c>
+      <c r="AE16">
+        <v>0.54587103935213011</v>
+      </c>
+      <c r="AF16">
+        <v>0.10130284335145115</v>
+      </c>
+      <c r="AG16">
+        <v>0.13278551780112144</v>
+      </c>
+      <c r="AH16">
+        <v>0.082110023062541462</v>
+      </c>
+      <c r="AI16">
+        <v>0.26234263666042462</v>
+      </c>
+      <c r="AJ16">
+        <v>1.1964736798429656</v>
+      </c>
+      <c r="AK16">
+        <v>3.8590812896800699</v>
+      </c>
+      <c r="AL16">
+        <v>23.011328270882608</v>
+      </c>
+      <c r="AM16">
+        <v>46.458359268019422</v>
+      </c>
+      <c r="AN16">
+        <v>19.046433461969375</v>
+      </c>
+      <c r="AO16">
+        <v>5.9878003236648825</v>
+      </c>
+      <c r="AP16">
+        <v>1.6369973857836426</v>
+      </c>
+      <c r="AQ16">
+        <v>17.409037938624884</v>
+      </c>
+      <c r="AR16">
+        <v>64.65751650912857</v>
+      </c>
+      <c r="AS16">
+        <v>16.910526997280851</v>
+      </c>
+      <c r="AT16">
+        <v>0.98407354654926837</v>
+      </c>
+      <c r="AU16">
+        <v>0.03884500841641849</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>5.0757477664120163</v>
+      </c>
+      <c r="AX16">
+        <v>46.011912469247704</v>
+      </c>
+      <c r="AY16">
+        <v>45.662307393499937</v>
+      </c>
+      <c r="AZ16">
+        <v>3.1593940178687037</v>
+      </c>
+      <c r="BA16">
+        <v>0.084164184902240063</v>
+      </c>
+      <c r="BB16">
+        <v>0.0064741680694030811</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>34.675644179722902</v>
+      </c>
+      <c r="BF16">
+        <v>52.00699210151496</v>
+      </c>
+      <c r="BG16">
+        <v>12.682895247960637</v>
+      </c>
+      <c r="BH16">
+        <v>0.5567784539686651</v>
+      </c>
+      <c r="BI16">
+        <v>0.071215848763433898</v>
+      </c>
+      <c r="BJ16">
+        <v>0.0064741680694030811</v>
+      </c>
+      <c r="BK16">
+        <v>28.10436358927878</v>
+      </c>
+      <c r="BL16">
+        <v>35.925158617117702</v>
+      </c>
+      <c r="BM16">
+        <v>30.486857438819108</v>
+      </c>
+      <c r="BN16">
+        <v>4.8621002201217145</v>
+      </c>
+      <c r="BO16">
+        <v>0.44024342871940958</v>
+      </c>
+      <c r="BP16">
+        <v>0.18127670594328626</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="130" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>0.48999999999999999</v>
+      </c>
+      <c r="E17">
+        <v>14.6</v>
+      </c>
+      <c r="F17" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>2.270751953125</v>
+      </c>
+      <c r="I17">
+        <v>-7413.9811910168964</v>
+      </c>
+      <c r="J17">
+        <v>-689.43170543902431</v>
+      </c>
+      <c r="K17">
+        <v>-25.454164450874018</v>
+      </c>
+      <c r="L17">
+        <v>4.8465931880155049</v>
+      </c>
+      <c r="M17">
+        <v>1.8667538048374819</v>
+      </c>
+      <c r="N17">
+        <v>1.032168969005067</v>
+      </c>
+      <c r="O17">
+        <v>1.3051358490613953</v>
+      </c>
+      <c r="P17">
+        <v>44.006803347171505</v>
+      </c>
+      <c r="Q17">
+        <v>127.74624472800639</v>
+      </c>
+      <c r="R17">
+        <v>-130.68774753365457</v>
+      </c>
+      <c r="S17">
+        <v>0.18002287079070675</v>
+      </c>
+      <c r="T17">
+        <v>3.0608304120380736</v>
+      </c>
+      <c r="U17">
+        <v>-32.626955587751723</v>
+      </c>
+      <c r="V17">
+        <v>26.918401643690753</v>
+      </c>
+      <c r="W17">
+        <v>62.354939155698695</v>
+      </c>
+      <c r="X17">
+        <v>46.604350517988742</v>
+      </c>
+      <c r="Y17">
+        <v>33.010990642756546</v>
+      </c>
+      <c r="Z17">
+        <v>5.3173980449229958</v>
+      </c>
+      <c r="AA17">
+        <v>0.32381753658585166</v>
+      </c>
+      <c r="AB17">
+        <v>0.22502130058513745</v>
+      </c>
+      <c r="AC17">
+        <v>0.80002414564190127</v>
+      </c>
+      <c r="AD17">
+        <v>0.19681278373780414</v>
+      </c>
+      <c r="AE17">
+        <v>0.77443883878615127</v>
+      </c>
+      <c r="AF17">
+        <v>0.19406709822141877</v>
+      </c>
+      <c r="AG17">
+        <v>0.14806571453225345</v>
+      </c>
+      <c r="AH17">
+        <v>0.09326493666898876</v>
+      </c>
+      <c r="AI17">
+        <v>0.20011914697442523</v>
+      </c>
+      <c r="AJ17">
+        <v>0.12670448596220041</v>
+      </c>
+      <c r="AK17">
+        <v>15.675733792065369</v>
+      </c>
+      <c r="AL17">
+        <v>29.813998494785508</v>
+      </c>
+      <c r="AM17">
+        <v>32.620148371142889</v>
+      </c>
+      <c r="AN17">
+        <v>14.837114288786152</v>
+      </c>
+      <c r="AO17">
+        <v>5.063971615955273</v>
+      </c>
+      <c r="AP17">
+        <v>1.9890334372648102</v>
+      </c>
+      <c r="AQ17">
+        <v>2.5372944026520465</v>
+      </c>
+      <c r="AR17">
+        <v>20.476858345021036</v>
+      </c>
+      <c r="AS17">
+        <v>42.496493688639553</v>
+      </c>
+      <c r="AT17">
+        <v>29.019507841387227</v>
+      </c>
+      <c r="AU17">
+        <v>5.2785923753665687</v>
+      </c>
+      <c r="AV17">
+        <v>0.19125334693357135</v>
+      </c>
+      <c r="AW17">
+        <v>0.57376004080071397</v>
+      </c>
+      <c r="AX17">
+        <v>10.059926048705853</v>
+      </c>
+      <c r="AY17">
+        <v>39.206936121382121</v>
+      </c>
+      <c r="AZ17">
+        <v>36.746143057503502</v>
+      </c>
+      <c r="BA17">
+        <v>12.227463980619662</v>
+      </c>
+      <c r="BB17">
+        <v>1.1475200816014279</v>
+      </c>
+      <c r="BC17">
+        <v>0.038250669386714266</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>29.912023460410559</v>
+      </c>
+      <c r="BF17">
+        <v>51.243146755068217</v>
+      </c>
+      <c r="BG17">
+        <v>17.212801224021419</v>
+      </c>
+      <c r="BH17">
+        <v>1.4535254366951422</v>
+      </c>
+      <c r="BI17">
+        <v>0.15300267754685706</v>
+      </c>
+      <c r="BJ17">
+        <v>0.025500446257809509</v>
+      </c>
+      <c r="BK17">
+        <v>35.49662119087084</v>
+      </c>
+      <c r="BL17">
+        <v>43.478260869565219</v>
+      </c>
+      <c r="BM17">
+        <v>19.444090271579753</v>
+      </c>
+      <c r="BN17">
+        <v>1.4280249904373326</v>
+      </c>
+      <c r="BO17">
+        <v>0.1147520081601428</v>
+      </c>
+      <c r="BP17">
+        <v>0.038250669386714266</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E18">
+        <v>14.6</v>
+      </c>
+      <c r="F18" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1.87939453125</v>
+      </c>
+      <c r="I18">
+        <v>-7421.1942665462748</v>
+      </c>
+      <c r="J18">
+        <v>-685.53823602680473</v>
+      </c>
+      <c r="K18">
+        <v>-2.3030048362429469</v>
+      </c>
+      <c r="L18">
+        <v>9.0958883716470442</v>
+      </c>
+      <c r="M18">
+        <v>1.7374396855867462</v>
+      </c>
+      <c r="N18">
+        <v>0.9740538777742711</v>
+      </c>
+      <c r="O18">
+        <v>1.2297786916608797</v>
+      </c>
+      <c r="P18">
+        <v>170.41891804737173</v>
+      </c>
+      <c r="Q18">
+        <v>-105.04064684015373</v>
+      </c>
+      <c r="R18">
+        <v>-12.294067755263914</v>
+      </c>
+      <c r="S18">
+        <v>0.30708014159437064</v>
+      </c>
+      <c r="T18">
+        <v>1.7352733205268125</v>
+      </c>
+      <c r="U18">
+        <v>88.408540909180175</v>
+      </c>
+      <c r="V18">
+        <v>40.768220042045066</v>
+      </c>
+      <c r="W18">
+        <v>88.032860364234892</v>
+      </c>
+      <c r="X18">
+        <v>62.21525806001894</v>
+      </c>
+      <c r="Y18">
+        <v>42.220160982635804</v>
+      </c>
+      <c r="Z18">
+        <v>12.998175236983567</v>
+      </c>
+      <c r="AA18">
+        <v>0.56486826528596834</v>
+      </c>
+      <c r="AB18">
+        <v>0.184023298802136</v>
+      </c>
+      <c r="AC18">
+        <v>1.1719860167503002</v>
+      </c>
+      <c r="AD18">
+        <v>0.22029644242223848</v>
+      </c>
+      <c r="AE18">
+        <v>1.0916774138387768</v>
+      </c>
+      <c r="AF18">
+        <v>0.2166731524698482</v>
+      </c>
+      <c r="AG18">
+        <v>0.37383263900992542</v>
+      </c>
+      <c r="AH18">
+        <v>0.14146348574189807</v>
+      </c>
+      <c r="AI18">
+        <v>0.35234504031864311</v>
+      </c>
+      <c r="AJ18">
+        <v>0.1416235229654661</v>
+      </c>
+      <c r="AK18">
+        <v>0.48064432320083139</v>
+      </c>
+      <c r="AL18">
+        <v>4.6505585866458823</v>
+      </c>
+      <c r="AM18">
+        <v>27.487659132242143</v>
+      </c>
+      <c r="AN18">
+        <v>43.076123668485323</v>
+      </c>
+      <c r="AO18">
+        <v>21.628994544037411</v>
+      </c>
+      <c r="AP18">
+        <v>2.6760197453884125</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0.052212504894922337</v>
+      </c>
+      <c r="AS18">
+        <v>5.991384936692338</v>
+      </c>
+      <c r="AT18">
+        <v>42.983944654744811</v>
+      </c>
+      <c r="AU18">
+        <v>43.506069703694031</v>
+      </c>
+      <c r="AV18">
+        <v>7.4663881999738928</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>2.8586346429969978</v>
+      </c>
+      <c r="AZ18">
+        <v>31.262237305834745</v>
+      </c>
+      <c r="BA18">
+        <v>49.680198407518603</v>
+      </c>
+      <c r="BB18">
+        <v>14.515076360788409</v>
+      </c>
+      <c r="BC18">
+        <v>1.6446939041900537</v>
+      </c>
+      <c r="BD18">
+        <v>0.03915937867119175</v>
+      </c>
+      <c r="BE18">
+        <v>2.2320845842579295</v>
+      </c>
+      <c r="BF18">
+        <v>10.468607231431928</v>
+      </c>
+      <c r="BG18">
+        <v>46.155854327111342</v>
+      </c>
+      <c r="BH18">
+        <v>36.796762824696515</v>
+      </c>
+      <c r="BI18">
+        <v>4.0595222555802115</v>
+      </c>
+      <c r="BJ18">
+        <v>0.28716877692207282</v>
+      </c>
+      <c r="BK18">
+        <v>6.0174911891397986</v>
+      </c>
+      <c r="BL18">
+        <v>26.380368098159508</v>
+      </c>
+      <c r="BM18">
+        <v>54.340164469390416</v>
+      </c>
+      <c r="BN18">
+        <v>12.974807466388199</v>
+      </c>
+      <c r="BO18">
+        <v>0.28716877692207282</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E19">
+        <v>14.6</v>
+      </c>
+      <c r="F19" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>2.40380859375</v>
+      </c>
+      <c r="I19">
+        <v>-7427.2815326666969</v>
+      </c>
+      <c r="J19">
+        <v>-688.99322817092116</v>
+      </c>
+      <c r="K19">
+        <v>-36.842850950174153</v>
+      </c>
+      <c r="L19">
+        <v>6.6284385227936706</v>
+      </c>
+      <c r="M19">
+        <v>1.7371713353616343</v>
+      </c>
+      <c r="N19">
+        <v>0.9169489395459357</v>
+      </c>
+      <c r="O19">
+        <v>1.2900039537873738</v>
+      </c>
+      <c r="P19">
+        <v>-137.28617363702676</v>
+      </c>
+      <c r="Q19">
+        <v>-51.562420669029791</v>
+      </c>
+      <c r="R19">
+        <v>52.077660523749969</v>
+      </c>
+      <c r="S19">
+        <v>0.16220358526379736</v>
+      </c>
+      <c r="T19">
+        <v>1.7178197837303399</v>
+      </c>
+      <c r="U19">
+        <v>14.250257435898135</v>
+      </c>
+      <c r="V19">
+        <v>11.337870862769073</v>
+      </c>
+      <c r="W19">
+        <v>29.702048401173951</v>
+      </c>
+      <c r="X19">
+        <v>17.355887460968777</v>
+      </c>
+      <c r="Y19">
+        <v>12.545748472617689</v>
+      </c>
+      <c r="Z19">
+        <v>1.8747465660512406</v>
+      </c>
+      <c r="AA19">
+        <v>0.14984227949128937</v>
+      </c>
+      <c r="AB19">
+        <v>0.15598643878463561</v>
+      </c>
+      <c r="AC19">
+        <v>0.93553534995913346</v>
+      </c>
+      <c r="AD19">
+        <v>0.39444528416566188</v>
+      </c>
+      <c r="AE19">
+        <v>0.90142850274508335</v>
+      </c>
+      <c r="AF19">
+        <v>0.36639651784006788</v>
+      </c>
+      <c r="AG19">
+        <v>0.18397053299745336</v>
+      </c>
+      <c r="AH19">
+        <v>0.20653918635926249</v>
+      </c>
+      <c r="AI19">
+        <v>0.26350279412967081</v>
+      </c>
+      <c r="AJ19">
+        <v>3.1994022397656869</v>
+      </c>
+      <c r="AK19">
+        <v>39.254519601868779</v>
+      </c>
+      <c r="AL19">
+        <v>48.283566930733294</v>
+      </c>
+      <c r="AM19">
+        <v>8.1759089985781035</v>
+      </c>
+      <c r="AN19">
+        <v>2.437538086532602</v>
+      </c>
+      <c r="AO19">
+        <v>0.67032297379646555</v>
+      </c>
+      <c r="AP19">
+        <v>1.1781434084907576</v>
+      </c>
+      <c r="AQ19">
+        <v>9.2793847182745353</v>
+      </c>
+      <c r="AR19">
+        <v>12.940979769269353</v>
+      </c>
+      <c r="AS19">
+        <v>23.741849189098811</v>
+      </c>
+      <c r="AT19">
+        <v>27.169369670623645</v>
+      </c>
+      <c r="AU19">
+        <v>20.063534525998996</v>
+      </c>
+      <c r="AV19">
+        <v>6.8048821267346602</v>
+      </c>
+      <c r="AW19">
+        <v>5.7515465641197121</v>
+      </c>
+      <c r="AX19">
+        <v>9.697375020899516</v>
+      </c>
+      <c r="AY19">
+        <v>20.41464638020398</v>
+      </c>
+      <c r="AZ19">
+        <v>26.801538204313658</v>
+      </c>
+      <c r="BA19">
+        <v>23.925764922253805</v>
+      </c>
+      <c r="BB19">
+        <v>10.851028256144456</v>
+      </c>
+      <c r="BC19">
+        <v>2.1568299615448918</v>
+      </c>
+      <c r="BD19">
+        <v>0.40127069051997993</v>
+      </c>
+      <c r="BE19">
+        <v>32.820598562113354</v>
+      </c>
+      <c r="BF19">
+        <v>37.669286072563118</v>
+      </c>
+      <c r="BG19">
+        <v>20.19729142283899</v>
+      </c>
+      <c r="BH19">
+        <v>7.2730312656746356</v>
+      </c>
+      <c r="BI19">
+        <v>1.6886808226049155</v>
+      </c>
+      <c r="BJ19">
+        <v>0.35111185420498242</v>
+      </c>
+      <c r="BK19">
+        <v>39.959872930948002</v>
+      </c>
+      <c r="BL19">
+        <v>35.479016886808225</v>
+      </c>
+      <c r="BM19">
+        <v>19.929777629159005</v>
+      </c>
+      <c r="BN19">
+        <v>3.4943989299448255</v>
+      </c>
+      <c r="BO19">
+        <v>0.76910215682996164</v>
+      </c>
+      <c r="BP19">
+        <v>0.36783146630998159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E20">
+        <v>14.6</v>
+      </c>
+      <c r="F20" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>2.821044921875</v>
+      </c>
+      <c r="I20">
+        <v>-7398.6213622909627</v>
+      </c>
+      <c r="J20">
+        <v>-686.82365158241259</v>
+      </c>
+      <c r="K20">
+        <v>3.9962245981580473</v>
+      </c>
+      <c r="L20">
+        <v>9.5887764782730738</v>
+      </c>
+      <c r="M20">
+        <v>1.6847387562397027</v>
+      </c>
+      <c r="N20">
+        <v>0.99576755000116068</v>
+      </c>
+      <c r="O20">
+        <v>1.2639381087066954</v>
+      </c>
+      <c r="P20">
+        <v>5.2449519354685563</v>
+      </c>
+      <c r="Q20">
+        <v>105.3336366892066</v>
+      </c>
+      <c r="R20">
+        <v>-164.94844512169547</v>
+      </c>
+      <c r="S20">
+        <v>0.3356176752934007</v>
+      </c>
+      <c r="T20">
+        <v>1.7774937080012754</v>
+      </c>
+      <c r="U20">
+        <v>53.893687482894478</v>
+      </c>
+      <c r="V20">
+        <v>34.91752304596946</v>
+      </c>
+      <c r="W20">
+        <v>74.998605402715143</v>
+      </c>
+      <c r="X20">
+        <v>44.237490987925611</v>
+      </c>
+      <c r="Y20">
+        <v>29.794016585859861</v>
+      </c>
+      <c r="Z20">
+        <v>10.178737436302825</v>
+      </c>
+      <c r="AA20">
+        <v>0.48170325092162214</v>
+      </c>
+      <c r="AB20">
+        <v>0.21545507789921448</v>
+      </c>
+      <c r="AC20">
+        <v>0.69856226146703282</v>
+      </c>
+      <c r="AD20">
+        <v>0.14675240784604535</v>
+      </c>
+      <c r="AE20">
+        <v>0.64527188965226068</v>
+      </c>
+      <c r="AF20">
+        <v>0.13892683912153647</v>
+      </c>
+      <c r="AG20">
+        <v>0.23631321531950078</v>
+      </c>
+      <c r="AH20">
+        <v>0.10285713613079327</v>
+      </c>
+      <c r="AI20">
+        <v>0.37368302961469368</v>
+      </c>
+      <c r="AJ20">
+        <v>0.15753660372976463</v>
+      </c>
+      <c r="AK20">
+        <v>3.946343574210299</v>
+      </c>
+      <c r="AL20">
+        <v>12.964084811769796</v>
+      </c>
+      <c r="AM20">
+        <v>32.349632193855477</v>
+      </c>
+      <c r="AN20">
+        <v>34.738208567719603</v>
+      </c>
+      <c r="AO20">
+        <v>13.855473820856773</v>
+      </c>
+      <c r="AP20">
+        <v>2.1462570315880574</v>
+      </c>
+      <c r="AQ20">
+        <v>4.4508514280565823</v>
+      </c>
+      <c r="AR20">
+        <v>32.59753130912695</v>
+      </c>
+      <c r="AS20">
+        <v>52.752500225245512</v>
+      </c>
+      <c r="AT20">
+        <v>9.2440760428867463</v>
+      </c>
+      <c r="AU20">
+        <v>0.81088386341111807</v>
+      </c>
+      <c r="AV20">
+        <v>0.14415713127308766</v>
+      </c>
+      <c r="AW20">
+        <v>1.0090999189116137</v>
+      </c>
+      <c r="AX20">
+        <v>22.695738354806739</v>
+      </c>
+      <c r="AY20">
+        <v>58.032255158122361</v>
+      </c>
+      <c r="AZ20">
+        <v>16.433912965131995</v>
+      </c>
+      <c r="BA20">
+        <v>1.6397873682313724</v>
+      </c>
+      <c r="BB20">
+        <v>0.099108027750247768</v>
+      </c>
+      <c r="BC20">
+        <v>0.081088386341111804</v>
+      </c>
+      <c r="BD20">
+        <v>0.0090098207045679786</v>
+      </c>
+      <c r="BE20">
+        <v>6.1266780791062256</v>
+      </c>
+      <c r="BF20">
+        <v>41.769528786377151</v>
+      </c>
+      <c r="BG20">
+        <v>45.643751689341386</v>
+      </c>
+      <c r="BH20">
+        <v>6.15370754121993</v>
+      </c>
+      <c r="BI20">
+        <v>0.27930444184160735</v>
+      </c>
+      <c r="BJ20">
+        <v>0.027029462113703939</v>
+      </c>
+      <c r="BK20">
+        <v>6.0545995134696824</v>
+      </c>
+      <c r="BL20">
+        <v>24.380574826560952</v>
+      </c>
+      <c r="BM20">
+        <v>51.734390485629334</v>
+      </c>
+      <c r="BN20">
+        <v>17.497071808271013</v>
+      </c>
+      <c r="BO20">
+        <v>0.30633390395531129</v>
+      </c>
+      <c r="BP20">
+        <v>0.027029462113703939</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="130" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="130" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21">
+        <v>0.47999999999999998</v>
+      </c>
+      <c r="E21">
+        <v>14.6</v>
+      </c>
+      <c r="F21" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>2.97900390625</v>
+      </c>
+      <c r="I21">
+        <v>-7425.4815508168367</v>
+      </c>
+      <c r="J21">
+        <v>-674.74864380680117</v>
+      </c>
+      <c r="K21">
+        <v>5.4414881042187275</v>
+      </c>
+      <c r="L21">
+        <v>5.7243749991291688</v>
+      </c>
+      <c r="M21">
+        <v>1.4690740572385572</v>
+      </c>
+      <c r="N21">
+        <v>0.85534032261365156</v>
+      </c>
+      <c r="O21">
+        <v>1.0892660396103573</v>
+      </c>
+      <c r="P21">
+        <v>-97.482447388448023</v>
+      </c>
+      <c r="Q21">
+        <v>-7.2521470336726956</v>
+      </c>
+      <c r="R21">
+        <v>75.909358787976132</v>
+      </c>
+      <c r="S21">
+        <v>0.54808663006477587</v>
+      </c>
+      <c r="T21">
+        <v>2.4732005129414771</v>
+      </c>
+      <c r="U21">
+        <v>-39.799271387673457</v>
+      </c>
+      <c r="V21">
+        <v>27.140303160363473</v>
+      </c>
+      <c r="W21">
+        <v>62.048040081587288</v>
+      </c>
+      <c r="X21">
+        <v>35.060199886894267</v>
+      </c>
+      <c r="Y21">
+        <v>23.465704290306963</v>
+      </c>
+      <c r="Z21">
+        <v>12.838804695326582</v>
+      </c>
+      <c r="AA21">
+        <v>0.44317688439210629</v>
+      </c>
+      <c r="AB21">
+        <v>0.19786187693194612</v>
+      </c>
+      <c r="AC21">
+        <v>0.87751333041270507</v>
+      </c>
+      <c r="AD21">
+        <v>0.23226531469752215</v>
+      </c>
+      <c r="AE21">
+        <v>0.72689468799526935</v>
+      </c>
+      <c r="AF21">
+        <v>0.22653774479982572</v>
+      </c>
+      <c r="AG21">
+        <v>0.46585856522507157</v>
+      </c>
+      <c r="AH21">
+        <v>0.15437755974527542</v>
+      </c>
+      <c r="AI21">
+        <v>0.68396216238942686</v>
+      </c>
+      <c r="AJ21">
+        <v>0.24459865535370062</v>
+      </c>
+      <c r="AK21">
+        <v>3.7616784133748569</v>
+      </c>
+      <c r="AL21">
+        <v>12.489755777741355</v>
+      </c>
+      <c r="AM21">
+        <v>46.271103097852809</v>
+      </c>
+      <c r="AN21">
+        <v>26.282576626782493</v>
+      </c>
+      <c r="AO21">
+        <v>9.2443861662022613</v>
+      </c>
+      <c r="AP21">
+        <v>1.9504999180462219</v>
+      </c>
+      <c r="AQ21">
+        <v>2.6994805415992507</v>
+      </c>
+      <c r="AR21">
+        <v>12.833177211956059</v>
+      </c>
+      <c r="AS21">
+        <v>31.346333986204549</v>
+      </c>
+      <c r="AT21">
+        <v>45.167333730733198</v>
+      </c>
+      <c r="AU21">
+        <v>7.13616622668824</v>
+      </c>
+      <c r="AV21">
+        <v>0.81750830281870046</v>
+      </c>
+      <c r="AW21">
+        <v>2.7079962530869457</v>
+      </c>
+      <c r="AX21">
+        <v>19.058162309460954</v>
+      </c>
+      <c r="AY21">
+        <v>35.101762752277956</v>
+      </c>
+      <c r="AZ21">
+        <v>33.075023418206591</v>
+      </c>
+      <c r="BA21">
+        <v>8.7626671208379463</v>
+      </c>
+      <c r="BB21">
+        <v>1.0474325129864599</v>
+      </c>
+      <c r="BC21">
+        <v>0.11921996082772715</v>
+      </c>
+      <c r="BD21">
+        <v>0.12773567231542196</v>
+      </c>
+      <c r="BE21">
+        <v>0.91969684067103807</v>
+      </c>
+      <c r="BF21">
+        <v>4.1726986289704504</v>
+      </c>
+      <c r="BG21">
+        <v>26.918164012603253</v>
+      </c>
+      <c r="BH21">
+        <v>53.981095120497315</v>
+      </c>
+      <c r="BI21">
+        <v>13.727326918164012</v>
+      </c>
+      <c r="BJ21">
+        <v>0.2810184790939283</v>
+      </c>
+      <c r="BK21">
+        <v>1.4732180873711997</v>
+      </c>
+      <c r="BL21">
+        <v>3.7213659201226261</v>
+      </c>
+      <c r="BM21">
+        <v>20.693178915098358</v>
+      </c>
+      <c r="BN21">
+        <v>49.365579494166738</v>
+      </c>
+      <c r="BO21">
+        <v>24.440091969684065</v>
+      </c>
+      <c r="BP21">
+        <v>0.30656561355701267</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E22">
+        <v>14.6</v>
+      </c>
+      <c r="F22" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>2.2529296875</v>
+      </c>
+      <c r="I22">
+        <v>-7421.6852357518092</v>
+      </c>
+      <c r="J22">
+        <v>-681.77135599755513</v>
+      </c>
+      <c r="K22">
+        <v>23.91901750967877</v>
+      </c>
+      <c r="L22">
+        <v>8.1138438801397825</v>
+      </c>
+      <c r="M22">
+        <v>1.5926323482482336</v>
+      </c>
+      <c r="N22">
+        <v>0.91194455483839632</v>
+      </c>
+      <c r="O22">
+        <v>1.1767071407775986</v>
+      </c>
+      <c r="P22">
+        <v>-113.06050458798424</v>
+      </c>
+      <c r="Q22">
+        <v>-17.856534007540724</v>
+      </c>
+      <c r="R22">
+        <v>74.513662939067117</v>
+      </c>
+      <c r="S22">
+        <v>0.39199028178140871</v>
+      </c>
+      <c r="T22">
+        <v>3.0266718430572643</v>
+      </c>
+      <c r="U22">
+        <v>83.943719490196287</v>
+      </c>
+      <c r="V22">
+        <v>38.380917819598466</v>
+      </c>
+      <c r="W22">
+        <v>85.039614570942248</v>
+      </c>
+      <c r="X22">
+        <v>44.603920039584644</v>
+      </c>
+      <c r="Y22">
+        <v>29.801563856807267</v>
+      </c>
+      <c r="Z22">
+        <v>11.797250211286052</v>
+      </c>
+      <c r="AA22">
+        <v>0.52664451882075036</v>
+      </c>
+      <c r="AB22">
+        <v>0.18173615347232655</v>
+      </c>
+      <c r="AC22">
+        <v>0.81361383393020392</v>
+      </c>
+      <c r="AD22">
+        <v>0.19989379071449637</v>
+      </c>
+      <c r="AE22">
+        <v>0.73251945895758808</v>
+      </c>
+      <c r="AF22">
+        <v>0.18390106961487812</v>
+      </c>
+      <c r="AG22">
+        <v>0.32140294454770074</v>
+      </c>
+      <c r="AH22">
+        <v>0.13838852320549747</v>
+      </c>
+      <c r="AI22">
+        <v>0.44301339399070755</v>
+      </c>
+      <c r="AJ22">
+        <v>0.17590532527871283</v>
+      </c>
+      <c r="AK22">
+        <v>0.40095361941915908</v>
+      </c>
+      <c r="AL22">
+        <v>5.5049848287819678</v>
+      </c>
+      <c r="AM22">
+        <v>37.602947550931951</v>
+      </c>
+      <c r="AN22">
+        <v>38.328998699609883</v>
+      </c>
+      <c r="AO22">
+        <v>15.648027741655829</v>
+      </c>
+      <c r="AP22">
+        <v>2.5140875596012133</v>
+      </c>
+      <c r="AQ22">
+        <v>3.1552605810031551</v>
+      </c>
+      <c r="AR22">
+        <v>19.018605157219017</v>
+      </c>
+      <c r="AS22">
+        <v>41.105429224241107</v>
+      </c>
+      <c r="AT22">
+        <v>29.757371341529758</v>
+      </c>
+      <c r="AU22">
+        <v>6.8001305625067996</v>
+      </c>
+      <c r="AV22">
+        <v>0.16320313350016322</v>
+      </c>
+      <c r="AW22">
+        <v>0.21760417800021761</v>
+      </c>
+      <c r="AX22">
+        <v>15.308453922315307</v>
+      </c>
+      <c r="AY22">
+        <v>41.410075073441412</v>
+      </c>
+      <c r="AZ22">
+        <v>33.260798607333257</v>
+      </c>
+      <c r="BA22">
+        <v>9.3025786095093022</v>
+      </c>
+      <c r="BB22">
+        <v>0.47872919160047878</v>
+      </c>
+      <c r="BC22">
+        <v>0.021760417800021761</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>5.9514742683059518</v>
+      </c>
+      <c r="BF22">
+        <v>16.603198781416602</v>
+      </c>
+      <c r="BG22">
+        <v>49.113262974649111</v>
+      </c>
+      <c r="BH22">
+        <v>26.580350342726582</v>
+      </c>
+      <c r="BI22">
+        <v>1.6864323795016865</v>
+      </c>
+      <c r="BJ22">
+        <v>0.065281253400065284</v>
+      </c>
+      <c r="BK22">
+        <v>5.8861930149058859</v>
+      </c>
+      <c r="BL22">
+        <v>13.186813186813188</v>
+      </c>
+      <c r="BM22">
+        <v>43.966924164943968</v>
+      </c>
+      <c r="BN22">
+        <v>36.144053965836143</v>
+      </c>
+      <c r="BO22">
+        <v>0.816015667500816</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E23">
+        <v>14.6</v>
+      </c>
+      <c r="F23" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>2.353271484375</v>
+      </c>
+      <c r="I23">
+        <v>-7400.7765003835057</v>
+      </c>
+      <c r="J23">
+        <v>-711.4099005801412</v>
+      </c>
+      <c r="K23">
+        <v>10.600246636274672</v>
+      </c>
+      <c r="L23">
+        <v>10.360790021360412</v>
+      </c>
+      <c r="M23">
+        <v>1.6265799827867355</v>
+      </c>
+      <c r="N23">
+        <v>0.97991509312613068</v>
+      </c>
+      <c r="O23">
+        <v>1.2714121406768932</v>
+      </c>
+      <c r="P23">
+        <v>1.151305318793348</v>
+      </c>
+      <c r="Q23">
+        <v>143.92604474219056</v>
+      </c>
+      <c r="R23">
+        <v>-132.09417292362065</v>
+      </c>
+      <c r="S23">
+        <v>0.46732512776378066</v>
+      </c>
+      <c r="T23">
+        <v>1.5563121685441854</v>
+      </c>
+      <c r="U23">
+        <v>11.001970011280008</v>
+      </c>
+      <c r="V23">
+        <v>43.870368463266985</v>
+      </c>
+      <c r="W23">
+        <v>90.802099196612332</v>
+      </c>
+      <c r="X23">
+        <v>55.043158991921921</v>
+      </c>
+      <c r="Y23">
+        <v>34.36261246692596</v>
+      </c>
+      <c r="Z23">
+        <v>16.573138907634196</v>
+      </c>
+      <c r="AA23">
+        <v>0.60761776374116472</v>
+      </c>
+      <c r="AB23">
+        <v>0.1687079774156654</v>
+      </c>
+      <c r="AC23">
+        <v>0.83387674380315957</v>
+      </c>
+      <c r="AD23">
+        <v>0.12089847576288275</v>
+      </c>
+      <c r="AE23">
+        <v>0.73563641141313807</v>
+      </c>
+      <c r="AF23">
+        <v>0.11933192418562044</v>
+      </c>
+      <c r="AG23">
+        <v>0.36677621006504391</v>
+      </c>
+      <c r="AH23">
+        <v>0.10886401218449196</v>
+      </c>
+      <c r="AI23">
+        <v>0.51011142291028821</v>
+      </c>
+      <c r="AJ23">
+        <v>0.16817295475583124</v>
+      </c>
+      <c r="AK23">
+        <v>0.70546737213403876</v>
+      </c>
+      <c r="AL23">
+        <v>2.2201473181865339</v>
+      </c>
+      <c r="AM23">
+        <v>16.619981325863677</v>
+      </c>
+      <c r="AN23">
+        <v>51.021890237576514</v>
+      </c>
+      <c r="AO23">
+        <v>26.672891378773734</v>
+      </c>
+      <c r="AP23">
+        <v>2.7596223674655045</v>
+      </c>
+      <c r="AQ23">
+        <v>0.010448229025180233</v>
+      </c>
+      <c r="AR23">
+        <v>1.797095392331</v>
+      </c>
+      <c r="AS23">
+        <v>64.893950475394419</v>
+      </c>
+      <c r="AT23">
+        <v>32.034270191202587</v>
+      </c>
+      <c r="AU23">
+        <v>1.0030299864173022</v>
+      </c>
+      <c r="AV23">
+        <v>0.26120572562950584</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>2.1314387211367674</v>
+      </c>
+      <c r="AY23">
+        <v>56.556263713300595</v>
+      </c>
+      <c r="AZ23">
+        <v>39.462961028105738</v>
+      </c>
+      <c r="BA23">
+        <v>1.5567861247518546</v>
+      </c>
+      <c r="BB23">
+        <v>0.135826977327343</v>
+      </c>
+      <c r="BC23">
+        <v>0.083585832201441862</v>
+      </c>
+      <c r="BD23">
+        <v>0.073137603176261626</v>
+      </c>
+      <c r="BE23">
+        <v>0.81496186396405812</v>
+      </c>
+      <c r="BF23">
+        <v>8.1914115557413005</v>
+      </c>
+      <c r="BG23">
+        <v>50.517187336746417</v>
+      </c>
+      <c r="BH23">
+        <v>39.525650402256815</v>
+      </c>
+      <c r="BI23">
+        <v>0.87765123811513956</v>
+      </c>
+      <c r="BJ23">
+        <v>0.073137603176261626</v>
+      </c>
+      <c r="BK23">
+        <v>1.170201650820186</v>
+      </c>
+      <c r="BL23">
+        <v>7.877964684985896</v>
+      </c>
+      <c r="BM23">
+        <v>42.346672239055479</v>
+      </c>
+      <c r="BN23">
+        <v>46.525963849127571</v>
+      </c>
+      <c r="BO23">
+        <v>2.0791975760108663</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="E24">
+        <v>14.6</v>
+      </c>
+      <c r="F24" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>3.627197265625</v>
+      </c>
+      <c r="I24">
+        <v>-7431.818518882953</v>
+      </c>
+      <c r="J24">
+        <v>-682.87266664619176</v>
+      </c>
+      <c r="K24">
+        <v>12.45462252338821</v>
+      </c>
+      <c r="L24">
+        <v>6.9050854344843682</v>
+      </c>
+      <c r="M24">
+        <v>1.6048056779879585</v>
+      </c>
+      <c r="N24">
+        <v>1.0057886853606859</v>
+      </c>
+      <c r="O24">
+        <v>1.0923731678251598</v>
+      </c>
+      <c r="P24">
+        <v>-92.541721150092371</v>
+      </c>
+      <c r="Q24">
+        <v>-5.3317091831221219</v>
+      </c>
+      <c r="R24">
+        <v>82.249911066776065</v>
+      </c>
+      <c r="S24">
+        <v>0.70054873128866768</v>
+      </c>
+      <c r="T24">
+        <v>2.7926267606692612</v>
+      </c>
+      <c r="U24">
+        <v>-203.75329031511728</v>
+      </c>
+      <c r="V24">
+        <v>11.801440122021974</v>
+      </c>
+      <c r="W24">
+        <v>26.022491877193247</v>
+      </c>
+      <c r="X24">
+        <v>34.050326220197071</v>
+      </c>
+      <c r="Y24">
+        <v>19.732674039507408</v>
+      </c>
+      <c r="Z24">
+        <v>13.835245946522324</v>
+      </c>
+      <c r="AA24">
+        <v>0.48713813468025502</v>
+      </c>
+      <c r="AB24">
+        <v>0.19448622173541835</v>
+      </c>
+      <c r="AC24">
+        <v>0.71541784760433513</v>
+      </c>
+      <c r="AD24">
+        <v>1.3139029101154092</v>
+      </c>
+      <c r="AE24">
+        <v>0.55099724977508791</v>
+      </c>
+      <c r="AF24">
+        <v>0.65643755371964951</v>
+      </c>
+      <c r="AG24">
+        <v>0.44909367670171685</v>
+      </c>
+      <c r="AH24">
+        <v>1.2338364189490485</v>
+      </c>
+      <c r="AI24">
+        <v>0.84227065706903237</v>
+      </c>
+      <c r="AJ24">
+        <v>2.0992109481219177</v>
+      </c>
+      <c r="AK24">
+        <v>4.2135020529043548</v>
+      </c>
+      <c r="AL24">
+        <v>8.4741199434609946</v>
+      </c>
+      <c r="AM24">
+        <v>31.634919566534293</v>
+      </c>
+      <c r="AN24">
+        <v>44.564851585111398</v>
+      </c>
+      <c r="AO24">
+        <v>9.1472033384936395</v>
+      </c>
+      <c r="AP24">
+        <v>1.9654035134953218</v>
+      </c>
+      <c r="AQ24">
+        <v>9.6549785679151157</v>
+      </c>
+      <c r="AR24">
+        <v>31.677324151500247</v>
+      </c>
+      <c r="AS24">
+        <v>45.541423652589415</v>
+      </c>
+      <c r="AT24">
+        <v>11.671702621038579</v>
+      </c>
+      <c r="AU24">
+        <v>0.8151219169418874</v>
+      </c>
+      <c r="AV24">
+        <v>0.63944909001475647</v>
+      </c>
+      <c r="AW24">
+        <v>10.905769095636288</v>
+      </c>
+      <c r="AX24">
+        <v>50.052701848078144</v>
+      </c>
+      <c r="AY24">
+        <v>31.958400674583654</v>
+      </c>
+      <c r="AZ24">
+        <v>5.8955800716745133</v>
+      </c>
+      <c r="BA24">
+        <v>0.56917995924390419</v>
+      </c>
+      <c r="BB24">
+        <v>0.26702269692923897</v>
+      </c>
+      <c r="BC24">
+        <v>0.11243060923336377</v>
+      </c>
+      <c r="BD24">
+        <v>0.23891504462089805</v>
+      </c>
+      <c r="BE24">
+        <v>0.8151219169418874</v>
+      </c>
+      <c r="BF24">
+        <v>6.2539526386058597</v>
+      </c>
+      <c r="BG24">
+        <v>31.909212283044059</v>
+      </c>
+      <c r="BH24">
+        <v>53.769938865856226</v>
+      </c>
+      <c r="BI24">
+        <v>6.5701637270746964</v>
+      </c>
+      <c r="BJ24">
+        <v>0.68161056847726798</v>
+      </c>
+      <c r="BK24">
+        <v>0.25296887077506852</v>
+      </c>
+      <c r="BL24">
+        <v>0.90647178694399555</v>
+      </c>
+      <c r="BM24">
+        <v>9.760382264071394</v>
+      </c>
+      <c r="BN24">
+        <v>45.899796219520766</v>
+      </c>
+      <c r="BO24">
+        <v>41.662567634038368</v>
+      </c>
+      <c r="BP24">
+        <v>1.517813224650411</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E25">
+        <v>14.6</v>
+      </c>
+      <c r="F25" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>3.003662109375</v>
+      </c>
+      <c r="I25">
+        <v>-7443.9966223732454</v>
+      </c>
+      <c r="J25">
+        <v>-711.1637265510725</v>
+      </c>
+      <c r="K25">
+        <v>-17.751985824651562</v>
+      </c>
+      <c r="L25">
+        <v>6.7052426149818203</v>
+      </c>
+      <c r="M25">
+        <v>1.7359435522029152</v>
+      </c>
+      <c r="N25">
+        <v>0.95943895169254523</v>
+      </c>
+      <c r="O25">
+        <v>1.2464967500656161</v>
+      </c>
+      <c r="P25">
+        <v>150.91218881126616</v>
+      </c>
+      <c r="Q25">
+        <v>-120.1952082035022</v>
+      </c>
+      <c r="R25">
+        <v>-34.111701053160694</v>
+      </c>
+      <c r="S25">
+        <v>0.27522404210960538</v>
+      </c>
+      <c r="T25">
+        <v>4.0401864072250602</v>
+      </c>
+      <c r="U25">
+        <v>-219.46850712823715</v>
+      </c>
+      <c r="V25">
+        <v>17.879730640653985</v>
+      </c>
+      <c r="W25">
+        <v>42.748542964265681</v>
+      </c>
+      <c r="X25">
+        <v>26.547171597644336</v>
+      </c>
+      <c r="Y25">
+        <v>18.10221917736094</v>
+      </c>
+      <c r="Z25">
+        <v>5.0067473958817477</v>
+      </c>
+      <c r="AA25">
+        <v>0.42285672745434483</v>
+      </c>
+      <c r="AB25">
+        <v>0.17242740341260515</v>
+      </c>
+      <c r="AC25">
+        <v>0.70709076160080719</v>
+      </c>
+      <c r="AD25">
+        <v>0.12795277357194604</v>
+      </c>
+      <c r="AE25">
+        <v>0.66058314975402932</v>
+      </c>
+      <c r="AF25">
+        <v>0.1213345663626285</v>
+      </c>
+      <c r="AG25">
+        <v>0.21585992309387542</v>
+      </c>
+      <c r="AH25">
+        <v>0.11001373119678903</v>
+      </c>
+      <c r="AI25">
+        <v>0.33138171256957272</v>
+      </c>
+      <c r="AJ25">
+        <v>0.16908160261664704</v>
+      </c>
+      <c r="AK25">
+        <v>0.33325205234495653</v>
+      </c>
+      <c r="AL25">
+        <v>16.321222466065187</v>
+      </c>
+      <c r="AM25">
+        <v>51.353328456474031</v>
+      </c>
+      <c r="AN25">
+        <v>24.489961797935464</v>
+      </c>
+      <c r="AO25">
+        <v>5.9009997561570344</v>
+      </c>
+      <c r="AP25">
+        <v>1.6012354710233279</v>
+      </c>
+      <c r="AQ25">
+        <v>4.142880443647039</v>
+      </c>
+      <c r="AR25">
+        <v>27.785026912412331</v>
+      </c>
+      <c r="AS25">
+        <v>59.166530745392265</v>
+      </c>
+      <c r="AT25">
+        <v>8.7669221986625345</v>
+      </c>
+      <c r="AU25">
+        <v>0.12232914695808188</v>
+      </c>
+      <c r="AV25">
+        <v>0.016310552927744252</v>
+      </c>
+      <c r="AW25">
+        <v>1.1580492578698418</v>
+      </c>
+      <c r="AX25">
+        <v>17.321807209264396</v>
+      </c>
+      <c r="AY25">
+        <v>57.282661882237804</v>
+      </c>
+      <c r="AZ25">
+        <v>23.568748980590442</v>
+      </c>
+      <c r="BA25">
+        <v>0.66057739357364209</v>
+      </c>
+      <c r="BB25">
+        <v>0.008155276463872126</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>13.58669058881096</v>
+      </c>
+      <c r="BF25">
+        <v>39.879301908334689</v>
+      </c>
+      <c r="BG25">
+        <v>41.567444136356222</v>
+      </c>
+      <c r="BH25">
+        <v>4.6811286902626001</v>
+      </c>
+      <c r="BI25">
+        <v>0.27727939977165228</v>
+      </c>
+      <c r="BJ25">
+        <v>0.008155276463872126</v>
+      </c>
+      <c r="BK25">
+        <v>13.603001141738705</v>
+      </c>
+      <c r="BL25">
+        <v>28.364051541347251</v>
+      </c>
+      <c r="BM25">
+        <v>44.56858587506116</v>
+      </c>
+      <c r="BN25">
+        <v>12.901647365845703</v>
+      </c>
+      <c r="BO25">
+        <v>0.53824824661556026</v>
+      </c>
+      <c r="BP25">
+        <v>0.024465829391616373</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E26">
+        <v>14.6</v>
+      </c>
+      <c r="F26" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>3.26318359375</v>
+      </c>
+      <c r="I26">
+        <v>-7402.4355772832942</v>
+      </c>
+      <c r="J26">
+        <v>-660.3786394273011</v>
+      </c>
+      <c r="K26">
+        <v>28.552025973662762</v>
+      </c>
+      <c r="L26">
+        <v>8.9553561966779203</v>
+      </c>
+      <c r="M26">
+        <v>1.5556719420435088</v>
+      </c>
+      <c r="N26">
+        <v>1.0147640441573491</v>
+      </c>
+      <c r="O26">
+        <v>1.2331624534249961</v>
+      </c>
+      <c r="P26">
+        <v>11.383063039156022</v>
+      </c>
+      <c r="Q26">
+        <v>121.8987216030299</v>
+      </c>
+      <c r="R26">
+        <v>-148.55282986008785</v>
+      </c>
+      <c r="S26">
+        <v>0.39916290046322334</v>
+      </c>
+      <c r="T26">
+        <v>1.8784679388940153</v>
+      </c>
+      <c r="U26">
+        <v>11.129891959943677</v>
+      </c>
+      <c r="V26">
+        <v>30.649868597446318</v>
+      </c>
+      <c r="W26">
+        <v>72.994539774615788</v>
+      </c>
+      <c r="X26">
+        <v>35.9506351515357</v>
+      </c>
+      <c r="Y26">
+        <v>23.544101035464479</v>
+      </c>
+      <c r="Z26">
+        <v>9.5022955718897002</v>
+      </c>
+      <c r="AA26">
+        <v>0.42779293013071756</v>
+      </c>
+      <c r="AB26">
+        <v>0.19880303608414146</v>
+      </c>
+      <c r="AC26">
+        <v>0.7630324659491623</v>
+      </c>
+      <c r="AD26">
+        <v>0.15757901764391052</v>
+      </c>
+      <c r="AE26">
+        <v>0.68649571355853489</v>
+      </c>
+      <c r="AF26">
+        <v>0.13445364404583379</v>
+      </c>
+      <c r="AG26">
+        <v>0.30543427371201026</v>
+      </c>
+      <c r="AH26">
+        <v>0.13437561828920136</v>
+      </c>
+      <c r="AI26">
+        <v>0.44276337391107884</v>
+      </c>
+      <c r="AJ26">
+        <v>0.18034154728595947</v>
+      </c>
+      <c r="AK26">
+        <v>2.2145742929821939</v>
+      </c>
+      <c r="AL26">
+        <v>17.611850965135417</v>
+      </c>
+      <c r="AM26">
+        <v>46.857698638336075</v>
+      </c>
+      <c r="AN26">
+        <v>22.572198114619184</v>
+      </c>
+      <c r="AO26">
+        <v>8.6263654047583422</v>
+      </c>
+      <c r="AP26">
+        <v>2.1173125841687868</v>
+      </c>
+      <c r="AQ26">
+        <v>3.1369548584544757</v>
+      </c>
+      <c r="AR26">
+        <v>19.472073450650345</v>
+      </c>
+      <c r="AS26">
+        <v>55.814843152257076</v>
+      </c>
+      <c r="AT26">
+        <v>20.007651109410865</v>
+      </c>
+      <c r="AU26">
+        <v>1.4078041315990819</v>
+      </c>
+      <c r="AV26">
+        <v>0.16067329762815608</v>
+      </c>
+      <c r="AW26">
+        <v>0.78806426931905116</v>
+      </c>
+      <c r="AX26">
+        <v>13.917368018362664</v>
+      </c>
+      <c r="AY26">
+        <v>54.934965570007655</v>
+      </c>
+      <c r="AZ26">
+        <v>28.592195868400914</v>
+      </c>
+      <c r="BA26">
+        <v>1.5761285386381023</v>
+      </c>
+      <c r="BB26">
+        <v>0.16067329762815608</v>
+      </c>
+      <c r="BC26">
+        <v>0.022953328232593728</v>
+      </c>
+      <c r="BD26">
+        <v>0.0076511094108645747</v>
+      </c>
+      <c r="BE26">
+        <v>4.8967100229533278</v>
+      </c>
+      <c r="BF26">
+        <v>19.426166794185157</v>
+      </c>
+      <c r="BG26">
+        <v>55.371078806426929</v>
+      </c>
+      <c r="BH26">
+        <v>18.56159143075746</v>
+      </c>
+      <c r="BI26">
+        <v>1.4307574598316755</v>
+      </c>
+      <c r="BJ26">
+        <v>0.3136954858454476</v>
+      </c>
+      <c r="BK26">
+        <v>3.9785768936495791</v>
+      </c>
+      <c r="BL26">
+        <v>13.251721499617444</v>
+      </c>
+      <c r="BM26">
+        <v>50.566182096403978</v>
+      </c>
+      <c r="BN26">
+        <v>30.696250956388678</v>
+      </c>
+      <c r="BO26">
+        <v>1.3925019127773526</v>
+      </c>
+      <c r="BP26">
+        <v>0.11476664116296864</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E27">
+        <v>14.6</v>
+      </c>
+      <c r="F27" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>2.76220703125</v>
+      </c>
+      <c r="I27">
+        <v>-7397.2496468295258</v>
+      </c>
+      <c r="J27">
+        <v>-699.98832779073939</v>
+      </c>
+      <c r="K27">
+        <v>-15.45430371190054</v>
+      </c>
+      <c r="L27">
+        <v>10.956101695147664</v>
+      </c>
+      <c r="M27">
+        <v>1.6530451371594899</v>
+      </c>
+      <c r="N27">
+        <v>0.98343180521524087</v>
+      </c>
+      <c r="O27">
+        <v>1.2599729681171721</v>
+      </c>
+      <c r="P27">
+        <v>13.025283151534657</v>
+      </c>
+      <c r="Q27">
+        <v>-163.92383893680369</v>
+      </c>
+      <c r="R27">
+        <v>-62.487446594166727</v>
+      </c>
+      <c r="S27">
+        <v>0.28448066530227728</v>
+      </c>
+      <c r="T27">
+        <v>1.0389471750250585</v>
+      </c>
+      <c r="U27">
+        <v>72.585044840279821</v>
+      </c>
+      <c r="V27">
+        <v>16.906809217541252</v>
+      </c>
+      <c r="W27">
+        <v>37.675405846823104</v>
+      </c>
+      <c r="X27">
+        <v>37.138188623500632</v>
+      </c>
+      <c r="Y27">
+        <v>25.2952185379276</v>
+      </c>
+      <c r="Z27">
+        <v>7.1986875300897992</v>
+      </c>
+      <c r="AA27">
+        <v>0.54650749399623055</v>
+      </c>
+      <c r="AB27">
+        <v>0.18455333868711829</v>
+      </c>
+      <c r="AC27">
+        <v>0.95323876710056732</v>
+      </c>
+      <c r="AD27">
+        <v>0.34536017722476342</v>
+      </c>
+      <c r="AE27">
+        <v>0.88150546234803762</v>
+      </c>
+      <c r="AF27">
+        <v>0.35408813800162231</v>
+      </c>
+      <c r="AG27">
+        <v>0.29900330792996332</v>
+      </c>
+      <c r="AH27">
+        <v>0.14924434842675907</v>
+      </c>
+      <c r="AI27">
+        <v>0.39272260275960408</v>
+      </c>
+      <c r="AJ27">
+        <v>0.30815658414396646</v>
+      </c>
+      <c r="AK27">
+        <v>2.0947498674208944</v>
+      </c>
+      <c r="AL27">
+        <v>4.6756231217960051</v>
+      </c>
+      <c r="AM27">
+        <v>26.109245182959167</v>
+      </c>
+      <c r="AN27">
+        <v>48.320664663249076</v>
+      </c>
+      <c r="AO27">
+        <v>16.324907194626125</v>
+      </c>
+      <c r="AP27">
+        <v>2.474809969948736</v>
+      </c>
+      <c r="AQ27">
+        <v>1.8416538774036293</v>
+      </c>
+      <c r="AR27">
+        <v>11.997833348379524</v>
+      </c>
+      <c r="AS27">
+        <v>34.558093346573983</v>
+      </c>
+      <c r="AT27">
+        <v>30.748397580572355</v>
+      </c>
+      <c r="AU27">
+        <v>13.406156901688181</v>
+      </c>
+      <c r="AV27">
+        <v>7.4478649453823236</v>
+      </c>
+      <c r="AW27">
+        <v>0.73124492191026458</v>
+      </c>
+      <c r="AX27">
+        <v>9.4610454094068785</v>
+      </c>
+      <c r="AY27">
+        <v>32.797688904938163</v>
+      </c>
+      <c r="AZ27">
+        <v>30.396316692245197</v>
+      </c>
+      <c r="BA27">
+        <v>14.281845264963438</v>
+      </c>
+      <c r="BB27">
+        <v>8.4228581745960103</v>
+      </c>
+      <c r="BC27">
+        <v>2.8256748217026271</v>
+      </c>
+      <c r="BD27">
+        <v>1.083325810237429</v>
+      </c>
+      <c r="BE27">
+        <v>9.713821431795612</v>
+      </c>
+      <c r="BF27">
+        <v>22.533176852938521</v>
+      </c>
+      <c r="BG27">
+        <v>39.803195811140199</v>
+      </c>
+      <c r="BH27">
+        <v>26.812313803376362</v>
+      </c>
+      <c r="BI27">
+        <v>1.1013812404080527</v>
+      </c>
+      <c r="BJ27">
+        <v>0.036110860341247629</v>
+      </c>
+      <c r="BK27">
+        <v>16.240859438476122</v>
+      </c>
+      <c r="BL27">
+        <v>19.554030874785592</v>
+      </c>
+      <c r="BM27">
+        <v>33.610183262616232</v>
+      </c>
+      <c r="BN27">
+        <v>28.852577412656856</v>
+      </c>
+      <c r="BO27">
+        <v>1.652071860612079</v>
+      </c>
+      <c r="BP27">
+        <v>0.090277150853119076</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E28">
+        <v>14.6</v>
+      </c>
+      <c r="F28" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>2.3330078125</v>
+      </c>
+      <c r="I28">
+        <v>-7405.7232138438676</v>
+      </c>
+      <c r="J28">
+        <v>-688.64983813238973</v>
+      </c>
+      <c r="K28">
+        <v>9.1148136978576897</v>
+      </c>
+      <c r="L28">
+        <v>9.5288220556651648</v>
+      </c>
+      <c r="M28">
+        <v>1.7717055941136719</v>
+      </c>
+      <c r="N28">
+        <v>0.97235752416534238</v>
+      </c>
+      <c r="O28">
+        <v>1.2555234895396163</v>
+      </c>
+      <c r="P28">
+        <v>-172.46333583748881</v>
+      </c>
+      <c r="Q28">
+        <v>-66.17018798695841</v>
+      </c>
+      <c r="R28">
+        <v>26.604317200388952</v>
+      </c>
+      <c r="S28">
+        <v>0.26575360727870162</v>
+      </c>
+      <c r="T28">
+        <v>1.8152102787914699</v>
+      </c>
+      <c r="U28">
+        <v>-222.596983403205</v>
+      </c>
+      <c r="V28">
+        <v>35.037096799200583</v>
+      </c>
+      <c r="W28">
+        <v>80.834532359808151</v>
+      </c>
+      <c r="X28">
+        <v>46.341593012920356</v>
+      </c>
+      <c r="Y28">
+        <v>31.434359291821597</v>
+      </c>
+      <c r="Z28">
+        <v>8.3998789075227016</v>
+      </c>
+      <c r="AA28">
+        <v>0.51413215019629721</v>
+      </c>
+      <c r="AB28">
+        <v>0.21642750690979015</v>
+      </c>
+      <c r="AC28">
+        <v>0.91959078604412192</v>
+      </c>
+      <c r="AD28">
+        <v>0.15942069942785156</v>
+      </c>
+      <c r="AE28">
+        <v>0.86593738252550423</v>
+      </c>
+      <c r="AF28">
+        <v>0.15487522758747241</v>
+      </c>
+      <c r="AG28">
+        <v>0.26399635775596719</v>
+      </c>
+      <c r="AH28">
+        <v>0.12009607893971619</v>
+      </c>
+      <c r="AI28">
+        <v>0.31168442397528451</v>
+      </c>
+      <c r="AJ28">
+        <v>0.1446612118572812</v>
+      </c>
+      <c r="AK28">
+        <v>3.2231059020510675</v>
+      </c>
+      <c r="AL28">
+        <v>11.050648807032232</v>
+      </c>
+      <c r="AM28">
+        <v>28.013813311008789</v>
+      </c>
+      <c r="AN28">
+        <v>37.452909167015484</v>
+      </c>
+      <c r="AO28">
+        <v>17.643365424863962</v>
+      </c>
+      <c r="AP28">
+        <v>2.6161573880284639</v>
+      </c>
+      <c r="AQ28">
+        <v>0.010813148788927337</v>
+      </c>
+      <c r="AR28">
+        <v>1.5030276816608996</v>
+      </c>
+      <c r="AS28">
+        <v>37.867647058823529</v>
+      </c>
+      <c r="AT28">
+        <v>52.443771626297575</v>
+      </c>
+      <c r="AU28">
+        <v>7.6124567474048446</v>
+      </c>
+      <c r="AV28">
+        <v>0.56228373702422152</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0.50821799307958471</v>
+      </c>
+      <c r="AY28">
+        <v>22.026384083044984</v>
+      </c>
+      <c r="AZ28">
+        <v>59.645328719723182</v>
+      </c>
+      <c r="BA28">
+        <v>16.327854671280274</v>
+      </c>
+      <c r="BB28">
+        <v>1.3948961937716264</v>
+      </c>
+      <c r="BC28">
+        <v>0.086505190311418692</v>
+      </c>
+      <c r="BD28">
+        <v>0.010813148788927337</v>
+      </c>
+      <c r="BE28">
+        <v>5.8066608996539797</v>
+      </c>
+      <c r="BF28">
+        <v>31.347318339100344</v>
+      </c>
+      <c r="BG28">
+        <v>51.913927335640139</v>
+      </c>
+      <c r="BH28">
+        <v>9.6237024221453282</v>
+      </c>
+      <c r="BI28">
+        <v>1.2110726643598615</v>
+      </c>
+      <c r="BJ28">
+        <v>0.097318339100346013</v>
+      </c>
+      <c r="BK28">
+        <v>10.932093425605537</v>
+      </c>
+      <c r="BL28">
+        <v>35.986159169550177</v>
+      </c>
+      <c r="BM28">
+        <v>44.517733564013838</v>
+      </c>
+      <c r="BN28">
+        <v>8.2612456747404845</v>
+      </c>
+      <c r="BO28">
+        <v>0.30276816608996537</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E29">
+        <v>14.6</v>
+      </c>
+      <c r="F29" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>1.631103515625</v>
+      </c>
+      <c r="I29">
+        <v>-7422.4556789321932</v>
+      </c>
+      <c r="J29">
+        <v>-674.17331113905573</v>
+      </c>
+      <c r="K29">
+        <v>6.2558494859703435</v>
+      </c>
+      <c r="L29">
+        <v>5.8649173043307599</v>
+      </c>
+      <c r="M29">
+        <v>1.8040586478261333</v>
+      </c>
+      <c r="N29">
+        <v>1.0353232617477599</v>
+      </c>
+      <c r="O29">
+        <v>1.1716362347929123</v>
+      </c>
+      <c r="P29">
+        <v>-75.645342444208765</v>
+      </c>
+      <c r="Q29">
+        <v>13.047706876547155</v>
+      </c>
+      <c r="R29">
+        <v>112.49944721878796</v>
+      </c>
+      <c r="S29">
+        <v>0.21872449160298696</v>
+      </c>
+      <c r="T29">
+        <v>1.4682149313440354</v>
+      </c>
+      <c r="U29">
+        <v>-253.04023788056168</v>
+      </c>
+      <c r="V29">
+        <v>34.028766619970703</v>
+      </c>
+      <c r="W29">
+        <v>80.753213584092677</v>
+      </c>
+      <c r="X29">
+        <v>70.202401060921062</v>
+      </c>
+      <c r="Y29">
+        <v>48.653326770686498</v>
+      </c>
+      <c r="Z29">
+        <v>10.626685216652097</v>
+      </c>
+      <c r="AA29">
+        <v>0.52981648720335783</v>
+      </c>
+      <c r="AB29">
+        <v>0.20523186084814923</v>
+      </c>
+      <c r="AC29">
+        <v>1.3198973068001376</v>
+      </c>
+      <c r="AD29">
+        <v>0.2561218000657523</v>
+      </c>
+      <c r="AE29">
+        <v>1.2608858142818831</v>
+      </c>
+      <c r="AF29">
+        <v>0.23838559771066437</v>
+      </c>
+      <c r="AG29">
+        <v>0.31948654425884399</v>
+      </c>
+      <c r="AH29">
+        <v>0.17023910653058549</v>
+      </c>
+      <c r="AI29">
+        <v>0.25179829439218154</v>
+      </c>
+      <c r="AJ29">
+        <v>0.11700223628603729</v>
+      </c>
+      <c r="AK29">
+        <v>2.1403981439904207</v>
+      </c>
+      <c r="AL29">
+        <v>9.3997904505313574</v>
+      </c>
+      <c r="AM29">
+        <v>26.014069750037422</v>
+      </c>
+      <c r="AN29">
+        <v>41.52073042957641</v>
+      </c>
+      <c r="AO29">
+        <v>18.829516539440203</v>
+      </c>
+      <c r="AP29">
+        <v>2.0954946864241881</v>
+      </c>
+      <c r="AQ29">
+        <v>0.076475986540226373</v>
+      </c>
+      <c r="AR29">
+        <v>0.04588559192413582</v>
+      </c>
+      <c r="AS29">
+        <v>1.0247782196390334</v>
+      </c>
+      <c r="AT29">
+        <v>21.39798103395534</v>
+      </c>
+      <c r="AU29">
+        <v>58.351177730192717</v>
+      </c>
+      <c r="AV29">
+        <v>19.103701437748548</v>
+      </c>
+      <c r="AW29">
+        <v>0.076475986540226373</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0.2906087488528602</v>
+      </c>
+      <c r="AZ29">
+        <v>8.7947384521260332</v>
+      </c>
+      <c r="BA29">
+        <v>52.539002753135513</v>
+      </c>
+      <c r="BB29">
+        <v>32.135209544203121</v>
+      </c>
+      <c r="BC29">
+        <v>5.3227286631997552</v>
+      </c>
+      <c r="BD29">
+        <v>0.84123585194249006</v>
+      </c>
+      <c r="BE29">
+        <v>6.8981339859284185</v>
+      </c>
+      <c r="BF29">
+        <v>20.602630773936983</v>
+      </c>
+      <c r="BG29">
+        <v>45.97736310798409</v>
+      </c>
+      <c r="BH29">
+        <v>21.795656163964516</v>
+      </c>
+      <c r="BI29">
+        <v>4.252064851636586</v>
+      </c>
+      <c r="BJ29">
+        <v>0.47415111654940345</v>
+      </c>
+      <c r="BK29">
+        <v>18.461303150810647</v>
+      </c>
+      <c r="BL29">
+        <v>45.304374426430101</v>
+      </c>
+      <c r="BM29">
+        <v>34.169470786173136</v>
+      </c>
+      <c r="BN29">
+        <v>2.0495564392780667</v>
+      </c>
+      <c r="BO29">
+        <v>0.015295197308045275</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30">
+        <v>0.48999999999999999</v>
+      </c>
+      <c r="E30">
+        <v>14.6</v>
+      </c>
+      <c r="F30" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>2.8955078125</v>
+      </c>
+      <c r="I30">
+        <v>-7417.5640941051852</v>
+      </c>
+      <c r="J30">
+        <v>-678.62710432621373</v>
+      </c>
+      <c r="K30">
+        <v>-0.69862513867675458</v>
+      </c>
+      <c r="L30">
+        <v>8.1089912993582338</v>
+      </c>
+      <c r="M30">
+        <v>1.6194742013220944</v>
+      </c>
+      <c r="N30">
+        <v>1.0110094574305297</v>
+      </c>
+      <c r="O30">
+        <v>1.2701819235289775</v>
+      </c>
+      <c r="P30">
+        <v>160.41704114096081</v>
+      </c>
+      <c r="Q30">
+        <v>-123.31449852481128</v>
+      </c>
+      <c r="R30">
+        <v>-20.026864926355078</v>
+      </c>
+      <c r="S30">
+        <v>0.23785110315598382</v>
+      </c>
+      <c r="T30">
+        <v>3.0670152489278903</v>
+      </c>
+      <c r="U30">
+        <v>-19.94893482279906</v>
+      </c>
+      <c r="V30">
+        <v>25.735537958432786</v>
+      </c>
+      <c r="W30">
+        <v>61.931631846472833</v>
+      </c>
+      <c r="X30">
+        <v>36.350425820267468</v>
+      </c>
+      <c r="Y30">
+        <v>25.430241141262854</v>
+      </c>
+      <c r="Z30">
+        <v>6.0334017522630736</v>
+      </c>
+      <c r="AA30">
+        <v>0.45908597379703314</v>
+      </c>
+      <c r="AB30">
+        <v>0.17897089961058013</v>
+      </c>
+      <c r="AC30">
+        <v>0.66055551150294967</v>
+      </c>
+      <c r="AD30">
+        <v>0.1128257807134192</v>
+      </c>
+      <c r="AE30">
+        <v>0.62830785497655017</v>
+      </c>
+      <c r="AF30">
+        <v>0.11420211628539231</v>
+      </c>
+      <c r="AG30">
+        <v>0.16914544135614781</v>
+      </c>
+      <c r="AH30">
+        <v>0.080083384908248831</v>
+      </c>
+      <c r="AI30">
+        <v>0.27888108351400454</v>
+      </c>
+      <c r="AJ30">
+        <v>0.14055890797174952</v>
+      </c>
+      <c r="AK30">
+        <v>0.73355817875210794</v>
+      </c>
+      <c r="AL30">
+        <v>8.9713322091062384</v>
+      </c>
+      <c r="AM30">
+        <v>54.789207419898823</v>
+      </c>
+      <c r="AN30">
+        <v>24.05564924114671</v>
+      </c>
+      <c r="AO30">
+        <v>9.3423271500843175</v>
+      </c>
+      <c r="AP30">
+        <v>2.1079258010118047</v>
+      </c>
+      <c r="AQ30">
+        <v>2.6161556102947419</v>
+      </c>
+      <c r="AR30">
+        <v>46.300857895183896</v>
+      </c>
+      <c r="AS30">
+        <v>46.700076446105491</v>
+      </c>
+      <c r="AT30">
+        <v>4.1705597553724623</v>
+      </c>
+      <c r="AU30">
+        <v>0.19536226959993205</v>
+      </c>
+      <c r="AV30">
+        <v>0.016988023443472354</v>
+      </c>
+      <c r="AW30">
+        <v>0.28879639853902994</v>
+      </c>
+      <c r="AX30">
+        <v>24.573175910982755</v>
+      </c>
+      <c r="AY30">
+        <v>62.116707721056649</v>
+      </c>
+      <c r="AZ30">
+        <v>12.17191879724794</v>
+      </c>
+      <c r="BA30">
+        <v>0.79843710184320049</v>
+      </c>
+      <c r="BB30">
+        <v>0.042470058608680875</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0.008494011721736177</v>
+      </c>
+      <c r="BE30">
+        <v>18.482969506497916</v>
+      </c>
+      <c r="BF30">
+        <v>54.08986664401597</v>
+      </c>
+      <c r="BG30">
+        <v>27.197825532999236</v>
+      </c>
+      <c r="BH30">
+        <v>0.20385628132166822</v>
+      </c>
+      <c r="BI30">
+        <v>0.025482035165208528</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>18.542427588550073</v>
+      </c>
+      <c r="BL30">
+        <v>34.638579801240127</v>
+      </c>
+      <c r="BM30">
+        <v>41.875477788159351</v>
+      </c>
+      <c r="BN30">
+        <v>4.918032786885246</v>
+      </c>
+      <c r="BO30">
+        <v>0.025482035165208528</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="130" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E31">
+        <v>14.6</v>
+      </c>
+      <c r="F31" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>3.431884765625</v>
+      </c>
+      <c r="I31">
+        <v>-7399.5861359227683</v>
+      </c>
+      <c r="J31">
+        <v>-667.36308778593002</v>
+      </c>
+      <c r="K31">
+        <v>22.331278612904793</v>
+      </c>
+      <c r="L31">
+        <v>9.6555002519380935</v>
+      </c>
+      <c r="M31">
+        <v>1.6890959313655465</v>
+      </c>
+      <c r="N31">
+        <v>0.97832370534724167</v>
+      </c>
+      <c r="O31">
+        <v>1.2099288669493486</v>
+      </c>
+      <c r="P31">
+        <v>8.0533079748520109</v>
+      </c>
+      <c r="Q31">
+        <v>136.17705891961549</v>
+      </c>
+      <c r="R31">
+        <v>-133.83481161937232</v>
+      </c>
+      <c r="S31">
+        <v>0.50772992260066663</v>
+      </c>
+      <c r="T31">
+        <v>1.016491955614796</v>
+      </c>
+      <c r="U31">
+        <v>108.48965416438742</v>
+      </c>
+      <c r="V31">
+        <v>31.674287105047608</v>
+      </c>
+      <c r="W31">
+        <v>69.170566242166615</v>
+      </c>
+      <c r="X31">
+        <v>44.160224308737916</v>
+      </c>
+      <c r="Y31">
+        <v>28.226864777291414</v>
+      </c>
+      <c r="Z31">
+        <v>14.152807123050604</v>
+      </c>
+      <c r="AA31">
+        <v>0.43130686480228136</v>
+      </c>
+      <c r="AB31">
+        <v>0.25855606079944315</v>
+      </c>
+      <c r="AC31">
+        <v>0.88336345408106842</v>
+      </c>
+      <c r="AD31">
+        <v>0.31054832056653259</v>
+      </c>
+      <c r="AE31">
+        <v>0.75587263130060867</v>
+      </c>
+      <c r="AF31">
+        <v>0.2536756158857803</v>
+      </c>
+      <c r="AG31">
+        <v>0.4369574671300645</v>
+      </c>
+      <c r="AH31">
+        <v>0.21724774037303077</v>
+      </c>
+      <c r="AI31">
+        <v>0.58257264885666038</v>
+      </c>
+      <c r="AJ31">
+        <v>0.2936604012908931</v>
+      </c>
+      <c r="AK31">
+        <v>15.366009817172937</v>
+      </c>
+      <c r="AL31">
+        <v>13.665789286476487</v>
+      </c>
+      <c r="AM31">
+        <v>24.457565625666927</v>
+      </c>
+      <c r="AN31">
+        <v>30.888525289891156</v>
+      </c>
+      <c r="AO31">
+        <v>13.231841787010032</v>
+      </c>
+      <c r="AP31">
+        <v>2.390268193782457</v>
+      </c>
+      <c r="AQ31">
+        <v>5.9931075060939731</v>
+      </c>
+      <c r="AR31">
+        <v>16.348659325880472</v>
+      </c>
+      <c r="AS31">
+        <v>26.283937127006809</v>
+      </c>
+      <c r="AT31">
+        <v>34.04219551147348</v>
+      </c>
+      <c r="AU31">
+        <v>16.264604522148439</v>
+      </c>
+      <c r="AV31">
+        <v>1.0674960073968227</v>
+      </c>
+      <c r="AW31">
+        <v>4.1186853828696313</v>
+      </c>
+      <c r="AX31">
+        <v>15.255946877364041</v>
+      </c>
+      <c r="AY31">
+        <v>31.722282928469365</v>
+      </c>
+      <c r="AZ31">
+        <v>33.420189963856437</v>
+      </c>
+      <c r="BA31">
+        <v>14.331344036311675</v>
+      </c>
+      <c r="BB31">
+        <v>0.94141380179877288</v>
+      </c>
+      <c r="BC31">
+        <v>0.13448768597125327</v>
+      </c>
+      <c r="BD31">
+        <v>0.075649323358829956</v>
+      </c>
+      <c r="BE31">
+        <v>1.176767252248466</v>
+      </c>
+      <c r="BF31">
+        <v>11.128856014121206</v>
+      </c>
+      <c r="BG31">
+        <v>30.537110195847696</v>
+      </c>
+      <c r="BH31">
+        <v>42.414053963183996</v>
+      </c>
+      <c r="BI31">
+        <v>13.843826174665882</v>
+      </c>
+      <c r="BJ31">
+        <v>0.89938639993275615</v>
+      </c>
+      <c r="BK31">
+        <v>0.48751786164579308</v>
+      </c>
+      <c r="BL31">
+        <v>3.2865428259225014</v>
+      </c>
+      <c r="BM31">
+        <v>32.529209044296877</v>
+      </c>
+      <c r="BN31">
+        <v>58.182735143313437</v>
+      </c>
+      <c r="BO31">
+        <v>4.833151214591914</v>
+      </c>
+      <c r="BP31">
+        <v>0.68084391022946966</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E32">
+        <v>14.6</v>
+      </c>
+      <c r="F32" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>4.039794921875</v>
+      </c>
+      <c r="I32">
+        <v>-7411.2867777476276</v>
+      </c>
+      <c r="J32">
+        <v>-697.7552140271988</v>
+      </c>
+      <c r="K32">
+        <v>6.9602690007426924</v>
+      </c>
+      <c r="L32">
+        <v>11.304916629477782</v>
+      </c>
+      <c r="M32">
+        <v>1.6516205916192062</v>
+      </c>
+      <c r="N32">
+        <v>0.99347861329353182</v>
+      </c>
+      <c r="O32">
+        <v>1.2145380040916272</v>
+      </c>
+      <c r="P32">
+        <v>55.524218403093144</v>
+      </c>
+      <c r="Q32">
+        <v>-177.54099135234904</v>
+      </c>
+      <c r="R32">
+        <v>-79.748115890047046</v>
+      </c>
+      <c r="S32">
+        <v>0.35978732180898271</v>
+      </c>
+      <c r="T32">
+        <v>2.0838416954158778</v>
+      </c>
+      <c r="U32">
+        <v>61.612506973999928</v>
+      </c>
+      <c r="V32">
+        <v>20.294039604696525</v>
+      </c>
+      <c r="W32">
+        <v>47.821204049578462</v>
+      </c>
+      <c r="X32">
+        <v>25.472325091318087</v>
+      </c>
+      <c r="Y32">
+        <v>17.028504546674778</v>
+      </c>
+      <c r="Z32">
+        <v>6.1383370786772193</v>
+      </c>
+      <c r="AA32">
+        <v>0.49283344858064004</v>
+      </c>
+      <c r="AB32">
+        <v>0.20075578907175587</v>
+      </c>
+      <c r="AC32">
+        <v>0.6098065602956485</v>
+      </c>
+      <c r="AD32">
+        <v>0.19846806057618688</v>
+      </c>
+      <c r="AE32">
+        <v>0.55490316214294866</v>
+      </c>
+      <c r="AF32">
+        <v>0.18605646487071492</v>
+      </c>
+      <c r="AG32">
+        <v>0.22536392603517691</v>
+      </c>
+      <c r="AH32">
+        <v>0.11125980916450832</v>
+      </c>
+      <c r="AI32">
+        <v>0.42424832640856713</v>
+      </c>
+      <c r="AJ32">
+        <v>0.30245847536616671</v>
+      </c>
+      <c r="AK32">
+        <v>1.6619326766181182</v>
+      </c>
+      <c r="AL32">
+        <v>11.784613525110291</v>
+      </c>
+      <c r="AM32">
+        <v>35.021454040007249</v>
+      </c>
+      <c r="AN32">
+        <v>35.112104913277328</v>
+      </c>
+      <c r="AO32">
+        <v>14.479966157007313</v>
+      </c>
+      <c r="AP32">
+        <v>1.9399286879796942</v>
+      </c>
+      <c r="AQ32">
+        <v>20.747295968534907</v>
+      </c>
+      <c r="AR32">
+        <v>40.849311701081618</v>
+      </c>
+      <c r="AS32">
+        <v>34.814405113077676</v>
+      </c>
+      <c r="AT32">
+        <v>3.072763028515241</v>
+      </c>
+      <c r="AU32">
+        <v>0.30727630285152407</v>
+      </c>
+      <c r="AV32">
+        <v>0.20894788593903638</v>
+      </c>
+      <c r="AW32">
+        <v>10.896017699115044</v>
+      </c>
+      <c r="AX32">
+        <v>40.26548672566372</v>
+      </c>
+      <c r="AY32">
+        <v>41.027531956735494</v>
+      </c>
+      <c r="AZ32">
+        <v>7.0366273352999009</v>
+      </c>
+      <c r="BA32">
+        <v>0.53466076696165188</v>
+      </c>
+      <c r="BB32">
+        <v>0.11676499508357915</v>
+      </c>
+      <c r="BC32">
+        <v>0.03687315634218289</v>
+      </c>
+      <c r="BD32">
+        <v>0.086037364798426746</v>
+      </c>
+      <c r="BE32">
+        <v>7.8048180924287109</v>
+      </c>
+      <c r="BF32">
+        <v>41.347099311701079</v>
+      </c>
+      <c r="BG32">
+        <v>46.945673549655851</v>
+      </c>
+      <c r="BH32">
+        <v>3.7180432645034416</v>
+      </c>
+      <c r="BI32">
+        <v>0.14134709931170109</v>
+      </c>
+      <c r="BJ32">
+        <v>0.043018682399213373</v>
+      </c>
+      <c r="BK32">
+        <v>5.7829400196656833</v>
+      </c>
+      <c r="BL32">
+        <v>15.978367748279251</v>
+      </c>
+      <c r="BM32">
+        <v>50.964847590953788</v>
+      </c>
+      <c r="BN32">
+        <v>25.350294985250738</v>
+      </c>
+      <c r="BO32">
+        <v>1.8252212389380531</v>
+      </c>
+      <c r="BP32">
+        <v>0.098328416912487712</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33">
+        <v>0.46999999999999997</v>
+      </c>
+      <c r="E33">
+        <v>14.6</v>
+      </c>
+      <c r="F33" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>5.320068359375</v>
+      </c>
+      <c r="I33">
+        <v>-7448.8933697739294</v>
+      </c>
+      <c r="J33">
+        <v>-707.37073660371732</v>
+      </c>
+      <c r="K33">
+        <v>-0.37393446923479101</v>
+      </c>
+      <c r="L33">
+        <v>6.7873238672549849</v>
+      </c>
+      <c r="M33">
+        <v>1.5863925315159104</v>
+      </c>
+      <c r="N33">
+        <v>0.98298938407796155</v>
+      </c>
+      <c r="O33">
+        <v>1.2362146033581169</v>
+      </c>
+      <c r="P33">
+        <v>173.47426668422699</v>
+      </c>
+      <c r="Q33">
+        <v>-96.027535547184115</v>
+      </c>
+      <c r="R33">
+        <v>-5.8515548994807398</v>
+      </c>
+      <c r="S33">
+        <v>0.34223652707827584</v>
+      </c>
+      <c r="T33">
+        <v>5.6993347256049027</v>
+      </c>
+      <c r="U33">
+        <v>-3.7477698136554949</v>
+      </c>
+      <c r="V33">
+        <v>12.971683263391142</v>
+      </c>
+      <c r="W33">
+        <v>39.53662688006721</v>
+      </c>
+      <c r="X33">
+        <v>16.122885499798748</v>
+      </c>
+      <c r="Y33">
+        <v>11.087250167138134</v>
+      </c>
+      <c r="Z33">
+        <v>3.7721967956992821</v>
+      </c>
+      <c r="AA33">
+        <v>0.44161113160632032</v>
+      </c>
+      <c r="AB33">
+        <v>0.22844066327313903</v>
+      </c>
+      <c r="AC33">
+        <v>0.61471513680933076</v>
+      </c>
+      <c r="AD33">
+        <v>0.21438892568823636</v>
+      </c>
+      <c r="AE33">
+        <v>0.55844735685815139</v>
+      </c>
+      <c r="AF33">
+        <v>0.17700174828120041</v>
+      </c>
+      <c r="AG33">
+        <v>0.21961229058407222</v>
+      </c>
+      <c r="AH33">
+        <v>0.17247531799382268</v>
+      </c>
+      <c r="AI33">
+        <v>0.43625634546103764</v>
+      </c>
+      <c r="AJ33">
+        <v>1.7178908790457927</v>
+      </c>
+      <c r="AK33">
+        <v>6.190629158827039</v>
+      </c>
+      <c r="AL33">
+        <v>18.833463356431555</v>
+      </c>
+      <c r="AM33">
+        <v>30.962323895186085</v>
+      </c>
+      <c r="AN33">
+        <v>30.35198017530173</v>
+      </c>
+      <c r="AO33">
+        <v>11.46344821256482</v>
+      </c>
+      <c r="AP33">
+        <v>2.1981552016887704</v>
+      </c>
+      <c r="AQ33">
+        <v>18.936503277565798</v>
+      </c>
+      <c r="AR33">
+        <v>44.3841111437237</v>
+      </c>
+      <c r="AS33">
+        <v>31.278739849329813</v>
+      </c>
+      <c r="AT33">
+        <v>4.1678896389785738</v>
+      </c>
+      <c r="AU33">
+        <v>0.83651306134429115</v>
+      </c>
+      <c r="AV33">
+        <v>0.39624302905782216</v>
+      </c>
+      <c r="AW33">
+        <v>12.02915565991586</v>
+      </c>
+      <c r="AX33">
+        <v>36.371196556109972</v>
+      </c>
+      <c r="AY33">
+        <v>43.484003522160258</v>
+      </c>
+      <c r="AZ33">
+        <v>6.814401721945015</v>
+      </c>
+      <c r="BA33">
+        <v>0.91967517855395753</v>
+      </c>
+      <c r="BB33">
+        <v>0.17121612366696018</v>
+      </c>
+      <c r="BC33">
+        <v>0.11251345269543096</v>
+      </c>
+      <c r="BD33">
+        <v>0.097837784952548676</v>
+      </c>
+      <c r="BE33">
+        <v>15.678505038645927</v>
+      </c>
+      <c r="BF33">
+        <v>40.289599843459541</v>
+      </c>
+      <c r="BG33">
+        <v>37.124547500244596</v>
+      </c>
+      <c r="BH33">
+        <v>5.5082672928284904</v>
+      </c>
+      <c r="BI33">
+        <v>0.97348596027785927</v>
+      </c>
+      <c r="BJ33">
+        <v>0.42559436454358668</v>
+      </c>
+      <c r="BK33">
+        <v>11.8579395362489</v>
+      </c>
+      <c r="BL33">
+        <v>20.477448390568437</v>
+      </c>
+      <c r="BM33">
+        <v>42.647490460815966</v>
+      </c>
+      <c r="BN33">
+        <v>21.000880540064575</v>
+      </c>
+      <c r="BO33">
+        <v>2.9644848840622249</v>
+      </c>
+      <c r="BP33">
+        <v>1.0517561882398982</v>
       </c>
     </row>
   </sheetData>
